--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.524</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.485</v>
+        <v>19.29</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2563297604.415</v>
+        <v>-0.887</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1341443.88</v>
+        <v>36.395</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.855</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.488</v>
+        <v>16.501</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1827226.780543393</v>
+        <v>10.49735336411132</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-68374.03065448189</v>
+        <v>10.43664302398004</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>761257.3132000121</v>
+        <v>10.51718976713602</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-553943.110437603</v>
+        <v>10.38336524301805</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1149604.708832395</v>
+        <v>10.52278073355646</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2267838.890907956</v>
+        <v>10.55313690647227</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>432429.0817652596</v>
+        <v>10.50019166088084</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1710608.743597923</v>
+        <v>10.59291647876873</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-106890.0509265191</v>
+        <v>10.44561442085286</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1674441.077970591</v>
+        <v>10.60606886015409</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2542312.662667122</v>
+        <v>10.55694687599769</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>335377.2476540983</v>
+        <v>10.50711196534412</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1746625.952398042</v>
+        <v>10.59838588574143</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-362185.9404372923</v>
+        <v>10.45463709516784</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1801265.663619253</v>
+        <v>10.61281467062553</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3443058.312914252</v>
+        <v>10.51472254680147</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>296212.7833720559</v>
+        <v>10.46484941824285</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1904953.955446583</v>
+        <v>10.5380905917102</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-460585.7974355268</v>
+        <v>10.4181230077705</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2405329.404102301</v>
+        <v>10.54752105675853</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>20355.34898642539</v>
+        <v>10.45549959752962</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>556819.6072641178</v>
+        <v>10.56695526415724</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-242273.9863536046</v>
+        <v>10.39282124308677</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1354499.952156954</v>
+        <v>10.56134481707779</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>95875.05629443373</v>
+        <v>10.50768355002791</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>683265.0214694452</v>
+        <v>10.63145593708753</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-293906.2307098858</v>
+        <v>10.44814880921652</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>460384.440267611</v>
+        <v>10.55147944488419</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1369310.634931246</v>
+        <v>10.67952941318585</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>212253.7938003274</v>
+        <v>10.48773470448682</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1918474.526931181</v>
+        <v>10.66227137486738</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>691602.1518439895</v>
+        <v>10.62493879943366</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1665523.401799136</v>
+        <v>10.76673683211253</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>381959.7959883117</v>
+        <v>10.56472595146287</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>391784.4079642414</v>
+        <v>10.56226314780015</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1404551.614604954</v>
+        <v>10.6882653065387</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>88824.96817114945</v>
+        <v>10.50107044650179</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2081032.157257534</v>
+        <v>10.67167114729194</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>698091.3042101813</v>
+        <v>10.63858405505998</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1796985.862866862</v>
+        <v>10.7780529037611</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>355039.8779916968</v>
+        <v>10.58084627225287</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>478114.0332543135</v>
+        <v>10.49359943514716</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1584637.239102486</v>
+        <v>10.59488442127115</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>123279.1447727587</v>
+        <v>10.43873533541925</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2932351.495191823</v>
+        <v>10.58798651160916</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>863143.8970479083</v>
+        <v>10.54717749835257</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2054501.372370704</v>
+        <v>10.65955874501234</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>363286.0961663357</v>
+        <v>10.49513243699009</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2094512.828603262</v>
+        <v>10.51676915460421</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>123605.5097843795</v>
+        <v>10.44825685229807</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1218203.355417959</v>
+        <v>10.54335086854433</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-502664.3197956449</v>
+        <v>10.38483628692636</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1134134.708560429</v>
+        <v>10.54650047440844</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2239205.663835485</v>
+        <v>10.57748565356857</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>436666.3833894391</v>
+        <v>10.51731939684721</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1768370.488874527</v>
+        <v>10.6265040767489</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>-188362.3199300481</v>
+        <v>10.45223686969906</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1485777.325563292</v>
+        <v>10.63741240957513</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2379722.343811952</v>
+        <v>10.57976406392579</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>296081.3270423505</v>
+        <v>10.52288295132487</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1706049.276474991</v>
+        <v>10.63030066965392</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>-457325.890540631</v>
+        <v>10.46029261176949</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1575917.156316719</v>
+        <v>10.64251714043023</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3352214.435507023</v>
+        <v>10.53309042785369</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>322261.7655831216</v>
+        <v>10.47656416033543</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2084148.164227684</v>
+        <v>10.56295615867676</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-577720.7984928342</v>
+        <v>10.42092761251344</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>2049496.634958048</v>
+        <v>10.57052191275886</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>85720.9531616404</v>
+        <v>10.47048075341151</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>743053.5911113909</v>
+        <v>10.60189254451477</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-212331.3082226354</v>
+        <v>10.39569056886103</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1253762.918609433</v>
+        <v>10.59949233658471</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>111700.2897378089</v>
+        <v>10.54034472105231</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>809992.4153953209</v>
+        <v>10.68617648624882</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>-256797.2042370616</v>
+        <v>10.46898998682978</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>407607.7427431286</v>
+        <v>10.57518818108693</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1281534.877274569</v>
+        <v>10.72579626481037</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>124561.9468628499</v>
+        <v>10.4989659732333</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1568618.143622614</v>
+        <v>10.71122440397914</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>481666.8400446816</v>
+        <v>10.6701363605236</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1409773.446179554</v>
+        <v>10.83682584555746</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>169694.8791127423</v>
+        <v>10.5977872978873</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>335610.8293285505</v>
+        <v>10.58456596882415</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1271952.405181865</v>
+        <v>10.73269052671148</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1429.002757159829</v>
+        <v>10.51137384244891</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1679109.241376064</v>
+        <v>10.71908943820634</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>465679.9665102101</v>
+        <v>10.68247567146664</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1479371.628934388</v>
+        <v>10.84635028325107</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>123292.7950984721</v>
+        <v>10.61307589244936</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>358312.9983478691</v>
+        <v>10.50927866440542</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1479914.217712672</v>
+        <v>10.62859986133984</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>-40156.46970695844</v>
+        <v>10.44379172671747</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>2402386.681321058</v>
+        <v>10.62470613061239</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>620011.5864126883</v>
+        <v>10.57961645887637</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1821147.083093938</v>
+        <v>10.7119261360398</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>152598.4162434998</v>
+        <v>10.51721438871055</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>2094512.828603262</v>
+        <v>10.51676915460421</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>123605.5097843795</v>
+        <v>10.44825685229807</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>1218203.355417959</v>
+        <v>10.54335086854433</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-502664.3197956449</v>
+        <v>10.38483628692636</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>1134134.708560429</v>
+        <v>10.54650047440844</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>2239205.663835485</v>
+        <v>10.57748565356857</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>436666.3833894391</v>
+        <v>10.51731939684721</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1768370.488874527</v>
+        <v>10.6265040767489</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>-188362.3199300481</v>
+        <v>10.45223686969906</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1485777.325563292</v>
+        <v>10.63741240957513</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>2379722.343811952</v>
+        <v>10.57976406392579</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>296081.3270423505</v>
+        <v>10.52288295132487</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1706049.276474991</v>
+        <v>10.63030066965392</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>-457325.890540631</v>
+        <v>10.46029261176949</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1575917.156316719</v>
+        <v>10.64251714043023</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>3352214.435507023</v>
+        <v>10.53309042785369</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>322261.7655831216</v>
+        <v>10.47656416033543</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2084148.164227684</v>
+        <v>10.56295615867676</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>-577720.7984928342</v>
+        <v>10.42092761251344</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2049496.634958048</v>
+        <v>10.57052191275886</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>85720.9531616404</v>
+        <v>10.47048075341151</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>743053.5911113909</v>
+        <v>10.60189254451477</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>-212331.3082226354</v>
+        <v>10.39569056886103</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1253762.918609433</v>
+        <v>10.59949233658471</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>111700.2897378089</v>
+        <v>10.54034472105231</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>809992.4153953209</v>
+        <v>10.68617648624882</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>-256797.2042370616</v>
+        <v>10.46898998682978</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>407607.7427431286</v>
+        <v>10.57518818108693</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1281534.877274569</v>
+        <v>10.72579626481037</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>124561.9468628499</v>
+        <v>10.4989659732333</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1568618.143622614</v>
+        <v>10.71122440397914</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>481666.8400446816</v>
+        <v>10.6701363605236</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1409773.446179554</v>
+        <v>10.83682584555746</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>169694.8791127423</v>
+        <v>10.5977872978873</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>335610.8293285505</v>
+        <v>10.58456596882415</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1271952.405181865</v>
+        <v>10.73269052671148</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>1429.002757159829</v>
+        <v>10.51137384244891</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1679109.241376064</v>
+        <v>10.71908943820634</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>465679.9665102101</v>
+        <v>10.68247567146664</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1479371.628934388</v>
+        <v>10.84635028325107</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>123292.7950984721</v>
+        <v>10.61307589244936</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>358312.9983478691</v>
+        <v>10.50927866440542</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1479914.217712672</v>
+        <v>10.62859986133984</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>-40156.46970695844</v>
+        <v>10.44379172671747</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>2402386.681321058</v>
+        <v>10.62470613061239</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>620011.5864126883</v>
+        <v>10.57961645887637</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1821147.083093938</v>
+        <v>10.7119261360398</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>152598.4162434998</v>
+        <v>10.51721438871055</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>1320899.723354533</v>
+        <v>10.46303277392476</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>-179349.3370272183</v>
+        <v>10.39565270740647</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>390376.9210841082</v>
+        <v>10.47692382997595</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>-527918.2105092499</v>
+        <v>10.34102999462197</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>876498.0052391253</v>
+        <v>10.48040388006639</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1733414.483203104</v>
+        <v>10.51640177697964</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>251853.2664776267</v>
+        <v>10.45640302654329</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1252923.42515624</v>
+        <v>10.5500156978358</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>-177826.8440963037</v>
+        <v>10.40043844533468</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1380220.544584643</v>
+        <v>10.56089772974515</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>1995477.568049999</v>
+        <v>10.52120551307984</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>156386.4099766018</v>
+        <v>10.46452466733303</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1272176.20961732</v>
+        <v>10.5566838687446</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>-428605.1762914905</v>
+        <v>10.41071500913417</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1497725.970769361</v>
+        <v>10.5689031113627</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>2708319.136777907</v>
+        <v>10.48440619468403</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>97173.04796729093</v>
+        <v>10.42865033376271</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1343120.737073105</v>
+        <v>10.50256608561987</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-483691.8072777661</v>
+        <v>10.38074343527139</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1983870.715623324</v>
+        <v>10.51016312432741</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>-31383.09338950161</v>
+        <v>10.40497217946733</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>356071.0185327331</v>
+        <v>10.51752000558415</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>-217912.5825310721</v>
+        <v>10.34066202184793</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1098619.034575004</v>
+        <v>10.52272102858745</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>25905.39381880262</v>
+        <v>10.4615759917879</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>509644.9781772396</v>
+        <v>10.58669639203155</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>-307425.3597846875</v>
+        <v>10.40039728210433</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>366515.5777171424</v>
+        <v>10.49773091604239</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1109622.719390436</v>
+        <v>10.62710169905804</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>177189.6684581451</v>
+        <v>10.4323118627917</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1655657.612058281</v>
+        <v>10.62143573176115</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>591411.5429809547</v>
+        <v>10.57629727445127</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1441432.863306291</v>
+        <v>10.7197003691297</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>321006.5976518299</v>
+        <v>10.51440073104805</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>296465.6146448008</v>
+        <v>10.51003435195288</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1131419.370777025</v>
+        <v>10.6373502512643</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>52897.84661865648</v>
+        <v>10.4472327077568</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1809198.773245414</v>
+        <v>10.63205452306518</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>595403.7211907557</v>
+        <v>10.59141384216256</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1560245.312573893</v>
+        <v>10.73247467013988</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>291307.9628767929</v>
+        <v>10.53205871280647</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>362475.3896760228</v>
+        <v>10.44906678717284</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>1256862.491301778</v>
+        <v>10.55136397112449</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>104313.1079958027</v>
+        <v>10.39277255648903</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>2538766.657821956</v>
+        <v>10.5540890200373</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>727949.2820166734</v>
+        <v>10.50671866197353</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>1766837.718627984</v>
+        <v>10.6203424297592</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>299257.2372585439</v>
+        <v>10.45323335753886</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>1969295.619884817</v>
+        <v>10.50933898552983</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-397535.8486244085</v>
+        <v>10.45025832348831</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>616799.6330788357</v>
+        <v>10.5315669907435</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-1111576.634950319</v>
+        <v>10.39668850054029</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1324352.79679908</v>
+        <v>10.5413268581341</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>2400770.581610216</v>
+        <v>10.56607875818925</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>133065.5381611199</v>
+        <v>10.51488811786552</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>1575382.323427574</v>
+        <v>10.60842960889837</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-623198.6329375433</v>
+        <v>10.45999051634865</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>1796409.030869715</v>
+        <v>10.62602091784056</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>2696728.612671878</v>
+        <v>10.56956211954247</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>34990.65712139913</v>
+        <v>10.52143879414988</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>1622981.510023973</v>
+        <v>10.61350677899503</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>-890237.9858683948</v>
+        <v>10.46865209180127</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1935482.771266558</v>
+        <v>10.63224137684547</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>3688071.29283499</v>
+        <v>10.5254210883197</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>-86743.05000895988</v>
+        <v>10.47700350229785</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>1770032.927892198</v>
+        <v>10.5509229309954</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-1146863.466496791</v>
+        <v>10.4300165118296</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>2650647.395549828</v>
+        <v>10.56405140605621</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>37367.04680137424</v>
+        <v>10.47666307544681</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>715666.8179729744</v>
+        <v>10.58914573836231</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>-301843.2405156333</v>
+        <v>10.41361455837402</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>1433162.346966062</v>
+        <v>10.57947428503947</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>70975.73544977787</v>
+        <v>10.52836492852381</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>766012.1748004865</v>
+        <v>10.65316303801378</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-362548.1200554907</v>
+        <v>10.46845639508187</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>446491.1986937725</v>
+        <v>10.57424063323711</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>1480666.864834184</v>
+        <v>10.70339092499582</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>125173.8315258668</v>
+        <v>10.51009058439858</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>1892892.031563352</v>
+        <v>10.6817151288676</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>593746.6276933888</v>
+        <v>10.64711279176509</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>1662249.287415919</v>
+        <v>10.79000875150992</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>243895.4214732439</v>
+        <v>10.58649135128145</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>382536.9602014485</v>
+        <v>10.58442645313969</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>1529933.5356575</v>
+        <v>10.71149842650751</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>2569.290150891941</v>
+        <v>10.52283941148291</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>2048625.646875945</v>
+        <v>10.69059276363763</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>592969.9661021633</v>
+        <v>10.66016415213332</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>1793322.46895047</v>
+        <v>10.80070031845351</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>208338.5572419715</v>
+        <v>10.60202898597846</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>515539.51443706</v>
+        <v>10.51246366369935</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>1812104.803288012</v>
+        <v>10.61466278726448</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>59117.9672386683</v>
+        <v>10.4572695085588</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>3012296.204622938</v>
+        <v>10.60412987115251</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>818104.564669776</v>
+        <v>10.56559435463282</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>2152852.954165041</v>
+        <v>10.67888841080905</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>262602.1652746803</v>
+        <v>10.51321621504983</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>1173378.497635867</v>
+        <v>10.52966598851024</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-156759.2526238213</v>
+        <v>10.43780573974088</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>439267.4856678323</v>
+        <v>10.56350134878994</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-627221.7507403175</v>
+        <v>10.35451778790432</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>763241.5279926327</v>
+        <v>10.57854403556189</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>1235904.184967554</v>
+        <v>10.60972372968978</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>23487.10278484651</v>
+        <v>10.52883346583419</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>749323.2323567866</v>
+        <v>10.67313336751088</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-445118.0444978226</v>
+        <v>10.44337156452657</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>918111.9173484738</v>
+        <v>10.69924172654796</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>1329072.791296066</v>
+        <v>10.61362905752598</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-55983.19534450367</v>
+        <v>10.53721460293645</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>721020.0126053053</v>
+        <v>10.67918250147355</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-604401.8923259567</v>
+        <v>10.4550235991807</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>986271.9120030898</v>
+        <v>10.70676182719502</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>1887161.591007021</v>
+        <v>10.55275565035903</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>-113578.2105414239</v>
+        <v>10.47696985785157</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>867841.4930072483</v>
+        <v>10.59116371925522</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-779496.7575769139</v>
+        <v>10.40390051351438</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>1340138.942408606</v>
+        <v>10.61091653194092</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>117647.3352826529</v>
+        <v>10.47820965444497</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>546064.9142991744</v>
+        <v>10.65200988218106</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>-80828.19180837982</v>
+        <v>10.379998302991</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>728099.0357192723</v>
+        <v>10.64696127604986</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>68625.90363769648</v>
+        <v>10.56867188563556</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>505298.5037031628</v>
+        <v>10.76137636203704</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-149732.3280492634</v>
+        <v>10.47503084293145</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>269917.4999366005</v>
+        <v>10.61717875180915</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>811316.3196256873</v>
+        <v>10.81633136962778</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>81574.25350602171</v>
+        <v>10.51709848501766</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>859113.09930708</v>
+        <v>10.79484813646942</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>249870.5191944884</v>
+        <v>10.74041096502677</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>811012.0591903122</v>
+        <v>10.96064758167668</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>69094.43336391514</v>
+        <v>10.64548141827352</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>241405.9900794632</v>
+        <v>10.63046025465377</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>826217.2821042389</v>
+        <v>10.82633144474184</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>22134.98868034979</v>
+        <v>10.53435631988159</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>935287.5007665902</v>
+        <v>10.80603494737765</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>251386.2955068575</v>
+        <v>10.75762673989344</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>867945.7213168979</v>
+        <v>10.97414793424059</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>52665.64276518283</v>
+        <v>10.66656513385989</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>308976.702098718</v>
+        <v>10.53020636221046</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>1029345.406870349</v>
+        <v>10.68801462274909</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>42317.13848453138</v>
+        <v>10.44420662603864</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>1409971.341838668</v>
+        <v>10.68103427658605</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>377305.4815058018</v>
+        <v>10.62143756625444</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>1122430.398108242</v>
+        <v>10.79627389780184</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>98162.48577898026</v>
+        <v>10.53954073510924</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>595349.79900882</v>
+        <v>10.49913241370294</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-159758.9422974649</v>
+        <v>10.4032642524159</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>204100.5454166296</v>
+        <v>10.52651658232604</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-386693.5676384624</v>
+        <v>10.32090830556369</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>452931.0057900361</v>
+        <v>10.52908238553001</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>666221.8824505152</v>
+        <v>10.57681959359688</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>-12179.47645452938</v>
+        <v>10.49163184003465</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>506092.8555328965</v>
+        <v>10.63331675575361</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-248870.2866033635</v>
+        <v>10.40719520332852</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>644143.6431739074</v>
+        <v>10.64617001775854</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>697626.7247423435</v>
+        <v>10.58154855609468</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-121325.2196382877</v>
+        <v>10.50094023608214</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>432746.7120756483</v>
+        <v>10.64036628905565</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-425584.1593859274</v>
+        <v>10.41974760989677</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>679526.686210659</v>
+        <v>10.65509385281496</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>1028898.372130305</v>
+        <v>10.52551009256829</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-198190.1089491179</v>
+        <v>10.44614582382115</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>471333.2426335681</v>
+        <v>10.5581657114608</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-539709.0658951059</v>
+        <v>10.37390863959253</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>889430.3789336989</v>
+        <v>10.56685997461939</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>-16969.79481499053</v>
+        <v>10.42189271321238</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>240525.0508369381</v>
+        <v>10.59240068797137</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>-141706.8622945553</v>
+        <v>10.32486019425155</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>553741.5938336529</v>
+        <v>10.59912707391432</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>13198.44520193892</v>
+        <v>10.51423945392603</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>321539.7460626041</v>
+        <v>10.70366489694372</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-160550.8277123733</v>
+        <v>10.42178757458074</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>153483.4698718445</v>
+        <v>10.55677978471285</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>543206.821925248</v>
+        <v>10.75241031149626</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>36694.41409374466</v>
+        <v>10.45799406427762</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>774432.6053747053</v>
+        <v>10.74374346789678</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>255379.1247670701</v>
+        <v>10.68228650630876</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>702769.6029257805</v>
+        <v>10.89901903868945</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>116185.8092714191</v>
+        <v>10.58866060460338</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>104049.141670367</v>
+        <v>10.57165467007318</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>526053.9146658287</v>
+        <v>10.7641024306727</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-39379.21979339828</v>
+        <v>10.47681078570391</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>841869.7380864741</v>
+        <v>10.75631802823915</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>251844.6048093072</v>
+        <v>10.70107622984206</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>746375.471494753</v>
+        <v>10.91419211944696</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>96507.97258900788</v>
+        <v>10.61128303320659</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>95998.48871398911</v>
+        <v>10.48004140467175</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>587056.3539432489</v>
+        <v>10.63492056089018</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>-71953.47838313335</v>
+        <v>10.39509349407206</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>1183864.110438752</v>
+        <v>10.63848332138113</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>300752.6678711194</v>
+        <v>10.57301464435983</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>874300.6731809953</v>
+        <v>10.74493436575624</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>78853.17994007499</v>
+        <v>10.49217815209427</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>1105226.68847091</v>
+        <v>10.49921412934246</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>-557786.13601316</v>
+        <v>10.42796917580744</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>170453.3677138043</v>
+        <v>10.52177418732813</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-1083921.843648733</v>
+        <v>10.36581096886233</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>713613.4719141158</v>
+        <v>10.53114966207839</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>1466757.008245486</v>
+        <v>10.56256007627428</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-135529.1176651171</v>
+        <v>10.50008934865518</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>922291.2595809647</v>
+        <v>10.6080035093635</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-701332.9360819033</v>
+        <v>10.43637942987672</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>1113419.137888533</v>
+        <v>10.6261680796407</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>1661293.429538325</v>
+        <v>10.56692716760628</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-238879.8958459737</v>
+        <v>10.50805695060881</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>923776.6911082789</v>
+        <v>10.6142701132379</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-936148.183751846</v>
+        <v>10.44679574377067</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>1204822.968928672</v>
+        <v>10.63377665693518</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>2254414.490651843</v>
+        <v>10.51957118436135</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-440048.7726811325</v>
+        <v>10.46092812442418</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>916780.1766802676</v>
+        <v>10.54620735845753</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-1226228.104584921</v>
+        <v>10.40640709414253</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>1618826.010929613</v>
+        <v>10.55963347788486</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-154038.0831783239</v>
+        <v>10.45267561248526</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>347961.4610130584</v>
+        <v>10.58247285898989</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-390073.279064627</v>
+        <v>10.37949129990838</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>840213.5931388719</v>
+        <v>10.57729046803629</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-115179.5134676572</v>
+        <v>10.51477074875578</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>413374.1906460921</v>
+        <v>10.65882923703201</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-432051.5424397996</v>
+        <v>10.44517910632884</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>180649.324174111</v>
+        <v>10.56214298424639</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>956187.9897528847</v>
+        <v>10.71116710009647</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-47628.2232849085</v>
+        <v>10.4876643089037</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>1230960.817977391</v>
+        <v>10.69273451098797</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>309307.3038142325</v>
+        <v>10.64887317127185</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>1124978.611709196</v>
+        <v>10.81381287307471</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>52081.0653932902</v>
+        <v>10.57843425696082</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>117600.14282471</v>
+        <v>10.57440283752299</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>976468.9637757387</v>
+        <v>10.72102718794514</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-156546.8817656786</v>
+        <v>10.50289817928569</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>1341761.107436749</v>
+        <v>10.70334831898836</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>300396.5512396786</v>
+        <v>10.66437023599113</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>1215728.611192052</v>
+        <v>10.82658399221282</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>16060.86256801425</v>
+        <v>10.59681805129726</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>135353.0463361726</v>
+        <v>10.49662044459154</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>1105504.010427135</v>
+        <v>10.61454969521712</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-183796.5074679789</v>
+        <v>10.43255153371941</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>1971536.984565511</v>
+        <v>10.60777588028209</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>401811.9096145133</v>
+        <v>10.56010486032997</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>1421615.243297808</v>
+        <v>10.69088169766946</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-3572.340491271626</v>
+        <v>10.49925856289082</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>1836590.970193427</v>
+        <v>10.56822393947728</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>116741.2809102784</v>
+        <v>10.49306367839924</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>988012.4935583882</v>
+        <v>10.60762925182953</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-426378.7813470901</v>
+        <v>10.41859914003712</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>764700.0815894535</v>
+        <v>10.61478508499806</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>1853236.287944803</v>
+        <v>10.64372773820864</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>316832.3210946505</v>
+        <v>10.57899829061095</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>1333753.94661919</v>
+        <v>10.71041064526045</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>-203811.0551629905</v>
+        <v>10.50261330297903</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>985713.0264807309</v>
+        <v>10.72705337931286</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>1942798.045750798</v>
+        <v>10.64570305020471</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>207524.2355978126</v>
+        <v>10.58475112078289</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>1289428.861235011</v>
+        <v>10.71401689119685</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>-402500.4744487804</v>
+        <v>10.51129336160341</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>1053656.308928608</v>
+        <v>10.73217855367669</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>2769702.671985353</v>
+        <v>10.58373586106408</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>228277.3684131847</v>
+        <v>10.52218757352948</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>1607688.969345365</v>
+        <v>10.62623885438988</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>-532681.2252949709</v>
+        <v>10.45686387037613</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>1407927.669486307</v>
+        <v>10.63833074393846</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-29798.9812149676</v>
+        <v>10.53255892670771</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>515572.6236783354</v>
+        <v>10.69075268440079</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-273732.5906116784</v>
+        <v>10.44485864830613</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>824778.710662</v>
+        <v>10.67293123005614</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-11172.0524434669</v>
+        <v>10.61004249068102</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>537878.6548106798</v>
+        <v>10.78526411529856</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-283850.2202336646</v>
+        <v>10.52649312966764</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>196439.7324303315</v>
+        <v>10.66186750056928</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>878262.2560015792</v>
+        <v>10.84300464613252</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>-24880.15121576998</v>
+        <v>10.57253415306995</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>1007089.108922966</v>
+        <v>10.80937974901481</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>238377.1369696468</v>
+        <v>10.76850883746428</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>936527.8680230256</v>
+        <v>10.96863687697469</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>18643.1361970972</v>
+        <v>10.68385075082941</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>150383.135581721</v>
+        <v>10.67190542232371</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>884196.5287415918</v>
+        <v>10.85003023725223</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-106321.3755888967</v>
+        <v>10.58612759469707</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>1091375.802479257</v>
+        <v>10.81790967520201</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>232815.2499489164</v>
+        <v>10.78220742604937</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>997766.0841764454</v>
+        <v>10.97893230197493</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-7466.019252944204</v>
+        <v>10.70100608252187</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>147401.3297122275</v>
+        <v>10.57284287147712</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>1051896.989971456</v>
+        <v>10.71644312792749</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-176598.9525044364</v>
+        <v>10.49605489163699</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>1626530.150219316</v>
+        <v>10.6983811504913</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>330235.6718029593</v>
+        <v>10.65144677548794</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>1257386.590717303</v>
+        <v>10.81038493148962</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-16156.43288234207</v>
+        <v>10.57838479931277</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>349553.2395741674</v>
+        <v>10.45659935127579</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-231851.2493156649</v>
+        <v>10.37091998045628</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>61540.91328196711</v>
+        <v>10.47263144902294</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-434013.1943521558</v>
+        <v>10.30124163739552</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>394902.397006535</v>
+        <v>10.46844592311289</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>618089.5391216247</v>
+        <v>10.51969359298108</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>33681.14740601037</v>
+        <v>10.44265841423863</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>575626.7083231395</v>
+        <v>10.55972350063349</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>-199209.0753817295</v>
+        <v>10.37118895525906</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>733744.4915896981</v>
+        <v>10.56384822559214</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>637048.1108792308</v>
+        <v>10.5242948430331</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>-110462.7240558966</v>
+        <v>10.45119857095031</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>463781.8448005322</v>
+        <v>10.56641586292567</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>-424457.6230408383</v>
+        <v>10.38247332096018</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>740175.3986028668</v>
+        <v>10.5722501423234</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>820189.68909993</v>
+        <v>10.4822074210204</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-258000.7477433778</v>
+        <v>10.41090089160067</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>356268.6261452676</v>
+        <v>10.50337253160896</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-579005.2883904977</v>
+        <v>10.3497833928474</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>851449.7583836445</v>
+        <v>10.50498026856418</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-115666.3099488604</v>
+        <v>10.37116599578635</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>53514.37669758563</v>
+        <v>10.51195242966913</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-250152.3923124642</v>
+        <v>10.28899481662511</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>613252.9353093051</v>
+        <v>10.52855394024013</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-22191.5502655935</v>
+        <v>10.45021473021416</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>213158.0583638704</v>
+        <v>10.60692903503835</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-236984.2445659623</v>
+        <v>10.37189224142792</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>151731.0818499522</v>
+        <v>10.48106905665474</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>528931.4411104065</v>
+        <v>10.64278501933858</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>16189.46087867517</v>
+        <v>10.39736896127043</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>998195.3402135056</v>
+        <v>10.6473586334527</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>338995.3552101774</v>
+        <v>10.58829752329795</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>786144.0720258072</v>
+        <v>10.7677817616898</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>152530.2373257523</v>
+        <v>10.50893198536602</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>61257.35520584003</v>
+        <v>10.49460708267054</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>467220.3022818567</v>
+        <v>10.65371619095319</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-105336.1752031396</v>
+        <v>10.41424383958348</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>1048297.845364947</v>
+        <v>10.65880085917813</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>307960.3285657727</v>
+        <v>10.60509452576503</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>802134.8360112163</v>
+        <v>10.78160632002981</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>102425.606443544</v>
+        <v>10.52897461650461</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>-34236.101962701</v>
+        <v>10.42553582435445</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>368579.7578480092</v>
+        <v>10.55345609336323</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>-213347.3814660804</v>
+        <v>10.35359706392869</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>1337174.157600948</v>
+        <v>10.56630305405434</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>293586.1526079948</v>
+        <v>10.50498249868037</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>802005.4645161775</v>
+        <v>10.64725019041117</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>22164.73366343388</v>
+        <v>10.43649867046791</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>939945.8089176195</v>
+        <v>10.49117243165245</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>-433891.6338592205</v>
+        <v>10.41514056122157</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>317272.280721202</v>
+        <v>10.51324149178864</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>-922179.6859189733</v>
+        <v>10.34862666353456</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>833705.8997188547</v>
+        <v>10.52019328453056</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>1161221.192515671</v>
+        <v>10.55233675132104</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>-128344.7889840805</v>
+        <v>10.48466023389273</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>840924.9809936321</v>
+        <v>10.59737552848692</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>-641331.0838213733</v>
+        <v>10.41638440944092</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>1125404.614262466</v>
+        <v>10.6126903391238</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>1287766.627529032</v>
+        <v>10.55559576442443</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>-244539.5808628901</v>
+        <v>10.49148927636847</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>785337.5320814243</v>
+        <v>10.60239581445127</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>-871610.5832143655</v>
+        <v>10.4258251380775</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>1204617.323753732</v>
+        <v>10.61895396245341</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>1814085.945576811</v>
+        <v>10.51135153839904</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-393713.9617321573</v>
+        <v>10.44833093727049</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>872184.5732594377</v>
+        <v>10.53747592669145</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-1111866.264630942</v>
+        <v>10.3899773878751</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>1577362.02611262</v>
+        <v>10.54862248450703</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>48002.60077100801</v>
+        <v>10.43591873166938</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>547397.4046852752</v>
+        <v>10.57162230587845</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>-173854.5529679924</v>
+        <v>10.35740438079922</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>989428.0581481175</v>
+        <v>10.57790481587878</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>98845.8976621327</v>
+        <v>10.51157852385148</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>651290.3547253239</v>
+        <v>10.6623136236491</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-192636.8733576942</v>
+        <v>10.43661537165963</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>296690.650509009</v>
+        <v>10.54242373613013</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>985145.1975956496</v>
+        <v>10.6980458079373</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>74640.57073153842</v>
+        <v>10.46237738784746</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>1246788.402615054</v>
+        <v>10.69232992976086</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>391096.8088055781</v>
+        <v>10.64449155860039</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>1143599.4050774</v>
+        <v>10.8168771263309</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>138183.40733339</v>
+        <v>10.56845095579915</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>237908.6240946677</v>
+        <v>10.55330040085797</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>977454.0729551732</v>
+        <v>10.7063750512887</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-28946.93148403328</v>
+        <v>10.4764315833912</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>1342578.481436327</v>
+        <v>10.70139712929439</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>380052.6330338964</v>
+        <v>10.65837110228435</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>1203831.484101867</v>
+        <v>10.8278637460335</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>100382.147217954</v>
+        <v>10.58542483094502</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>271861.0093583797</v>
+        <v>10.48031573407862</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>1148749.822056135</v>
+        <v>10.60355982523</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>-29316.97141162637</v>
+        <v>10.41156252200526</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>1948257.146270165</v>
+        <v>10.60731042733357</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>534438.5376836706</v>
+        <v>10.55616449257653</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>1502259.89221464</v>
+        <v>10.69294786299489</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>163264.7147716917</v>
+        <v>10.49060046407059</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>1002168.567568135</v>
+        <v>10.46106598109073</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>6391.922314149279</v>
+        <v>10.38566871068839</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>488566.518686613</v>
+        <v>10.47693801019526</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-279667.5372231671</v>
+        <v>10.32337556946565</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>363571.0162506586</v>
+        <v>10.47236348251171</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>1075285.504729</v>
+        <v>10.51525699169793</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>171858.3915441636</v>
+        <v>10.44725745284183</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>888964.0867519083</v>
+        <v>10.5521874367225</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-147484.8195670013</v>
+        <v>10.3833464251589</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>687168.4571702967</v>
+        <v>10.55451663903939</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>1138610.28794109</v>
+        <v>10.5188347664414</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>6255.157195256975</v>
+        <v>10.45426278646435</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>760692.9605044504</v>
+        <v>10.55751947461994</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-425412.9437944117</v>
+        <v>10.39280311321393</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>718983.8005365075</v>
+        <v>10.56132371122981</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>1706208.479428698</v>
+        <v>10.48267978472771</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>11686.84469694802</v>
+        <v>10.41988740499253</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>927133.409148233</v>
+        <v>10.50284083252452</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-438297.4199324709</v>
+        <v>10.36524484765264</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>888909.0854012908</v>
+        <v>10.50339372078486</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-225170.9561304356</v>
+        <v>10.38682841196028</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>29185.36059988029</v>
+        <v>10.51310095117211</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-382950.9443692158</v>
+        <v>10.31332764900033</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>682538.4075864602</v>
+        <v>10.52938808980582</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-90716.40099001028</v>
+        <v>10.46109851923833</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>306442.7562459858</v>
+        <v>10.60155610906034</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-362938.0830766697</v>
+        <v>10.39086887428315</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>37771.73234206188</v>
+        <v>10.4814760893909</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>502386.0082329487</v>
+        <v>10.62636858541513</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-122865.3862874185</v>
+        <v>10.40658512707138</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>1014718.718192769</v>
+        <v>10.63245751546013</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>255793.4825573339</v>
+        <v>10.58091665990148</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>866356.8765196565</v>
+        <v>10.74162772620702</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>21011.53972504307</v>
+        <v>10.50971911066773</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-65191.56341440212</v>
+        <v>10.49275226989238</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>433083.7885383744</v>
+        <v>10.63528717596566</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-271562.4799582301</v>
+        <v>10.42084333808356</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>1087027.76001215</v>
+        <v>10.64183261185571</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>219864.5900188193</v>
+        <v>10.59493962764385</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>891736.8059411361</v>
+        <v>10.75296704753571</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-43529.63793112052</v>
+        <v>10.52664810057119</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-160461.4264807497</v>
+        <v>10.43349209071233</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>399657.3024184305</v>
+        <v>10.54819305239328</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>-375701.9559314669</v>
+        <v>10.3691401057305</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>1541062.251230869</v>
+        <v>10.56105955958377</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>267741.8472158189</v>
+        <v>10.50762660039208</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>1042082.829109794</v>
+        <v>10.63510436167856</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-77434.25333517468</v>
+        <v>10.4462129397907</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>60784.05189299183</v>
+        <v>10.42562426522054</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>-398890.9076587578</v>
+        <v>10.34150192666802</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-243466.0539623676</v>
+        <v>10.43505094463084</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>-556469.2589943833</v>
+        <v>10.27631814395694</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>76461.19018876013</v>
+        <v>10.43317218241306</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>175646.1319130364</v>
+        <v>10.47910014612794</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-264997.9317702558</v>
+        <v>10.40221519629766</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>105102.6449886489</v>
+        <v>10.509866882356</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-479698.603842797</v>
+        <v>10.3353207886954</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>328375.2679300603</v>
+        <v>10.51536474438543</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>229880.962233132</v>
+        <v>10.48388553856707</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-402964.7278472948</v>
+        <v>10.41073732315705</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-12365.05297320434</v>
+        <v>10.5166917377247</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-715909.4143202573</v>
+        <v>10.34640633265658</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>347724.6608074672</v>
+        <v>10.52362076167332</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>441996.2827802947</v>
+        <v>10.45202375577567</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-508748.0030431073</v>
+        <v>10.38163829742451</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>-66766.19083975726</v>
+        <v>10.46669094810892</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>-788807.3605612051</v>
+        <v>10.32445729690411</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>432049.8496128318</v>
+        <v>10.4698139848302</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-254353.0368153019</v>
+        <v>10.33774365417732</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-153600.4349782713</v>
+        <v>10.46733332254257</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>-336838.3213074527</v>
+        <v>10.26074801553813</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>414794.4303556021</v>
+        <v>10.49574688093562</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-107468.9788374899</v>
+        <v>10.41872038965602</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>145747.4690992915</v>
+        <v>10.56306255817331</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-303127.7635514085</v>
+        <v>10.34508070569386</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-72655.52628515991</v>
+        <v>10.43241244396122</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>210689.5403418855</v>
+        <v>10.58123494443635</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-172298.5854999401</v>
+        <v>10.35393303139357</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>677860.765498229</v>
+        <v>10.59998770539334</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>153296.9390423227</v>
+        <v>10.53990652008314</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>590237.3357313036</v>
+        <v>10.70518032058729</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-21990.42352835035</v>
+        <v>10.46521931505651</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-163702.4592817601</v>
+        <v>10.4455100774972</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>142285.144897585</v>
+        <v>10.59193497427187</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-302666.3586827298</v>
+        <v>10.37015145378535</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>733017.7190914428</v>
+        <v>10.61081659554097</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>120383.9029437651</v>
+        <v>10.5557493264435</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>604538.0765378955</v>
+        <v>10.71828629671034</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>-79730.87549984355</v>
+        <v>10.48410540008602</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>-237321.0516996654</v>
+        <v>10.39135499174807</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>84316.05593600422</v>
+        <v>10.50910261436243</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>-356108.5299491898</v>
+        <v>10.32393833783703</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>1079521.569891433</v>
+        <v>10.53270227677619</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>174956.1868213349</v>
+        <v>10.47178747083326</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>719033.3577476803</v>
+        <v>10.60282294302389</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>-74188.29444466652</v>
+        <v>10.40738589126686</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>955716.6384228268</v>
+        <v>10.48196260128105</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>-231898.7671051645</v>
+        <v>10.4083807156534</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>302091.1668739532</v>
+        <v>10.50106169894642</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-529326.9164413637</v>
+        <v>10.34665400897594</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>556856.0475881896</v>
+        <v>10.50433374605716</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>1319838.328453253</v>
+        <v>10.54393491713235</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>155159.2229776445</v>
+        <v>10.47894901567956</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>1040203.368000832</v>
+        <v>10.58565864502897</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>-192991.8812499361</v>
+        <v>10.41571263217515</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>1003878.390033064</v>
+        <v>10.59732590452485</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>1487903.961675507</v>
+        <v>10.54877196092686</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>49175.35954913678</v>
+        <v>10.48744818646563</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>1025820.138968445</v>
+        <v>10.59249022045598</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>-419463.5142245738</v>
+        <v>10.42664793263175</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>1080828.823933076</v>
+        <v>10.60569464963086</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>1990452.968830958</v>
+        <v>10.50417308350122</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-68419.56958054802</v>
+        <v>10.44344292298027</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>1027451.477159287</v>
+        <v>10.52772163472654</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-550550.4923748376</v>
+        <v>10.38930694295839</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>1391555.711699194</v>
+        <v>10.53573427506841</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-160468.730631578</v>
+        <v>10.4220831225299</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>193480.0927229651</v>
+        <v>10.55036545886528</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>-322650.5434193141</v>
+        <v>10.34944546732433</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>779314.7452615818</v>
+        <v>10.55110631805253</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-78561.59746278431</v>
+        <v>10.48490926000146</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>337807.9819052356</v>
+        <v>10.62745537022471</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>-353596.7474675754</v>
+        <v>10.41586941646701</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>201023.5792234942</v>
+        <v>10.5292491124154</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>845754.616330127</v>
+        <v>10.67665051388183</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>43727.60946260865</v>
+        <v>10.45536925600524</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>1270700.008128773</v>
+        <v>10.66466207451433</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>416109.7180728281</v>
+        <v>10.61686855301866</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>1133082.322940034</v>
+        <v>10.78018981427947</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>197501.7794251877</v>
+        <v>10.54703307244583</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>131544.9929758558</v>
+        <v>10.5423738348457</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>849806.1829553848</v>
+        <v>10.68742054007128</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>-67759.6479588822</v>
+        <v>10.47145182482894</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>1386983.589681876</v>
+        <v>10.67603098908558</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>413342.5120781864</v>
+        <v>10.63322423184582</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>1222766.283044734</v>
+        <v>10.79386475060315</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>169009.0859558153</v>
+        <v>10.56625896091168</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>107535.4115293235</v>
+        <v>10.46935401762958</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>879212.3143448615</v>
+        <v>10.58593493421406</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>-113367.6213860058</v>
+        <v>10.40577258099502</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>1911306.580778833</v>
+        <v>10.58446313720653</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>459352.7515698138</v>
+        <v>10.53351641804653</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>1329573.975651445</v>
+        <v>10.66294746906722</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>107218.7232280215</v>
+        <v>10.47316186346892</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>2036851.953871489</v>
+        <v>10.49905634254599</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>415764.8732558688</v>
+        <v>10.43144012147582</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>1346022.813182225</v>
+        <v>10.52091222485698</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>-69221.6494687966</v>
+        <v>10.3708244942147</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>1036491.169066262</v>
+        <v>10.52079745817793</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>2192545.940350718</v>
+        <v>10.55637083521794</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>693195.4109619574</v>
+        <v>10.49663129532321</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>1896867.085295132</v>
+        <v>10.59947416856668</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>197975.4079744804</v>
+        <v>10.43442907240447</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>1397951.275408385</v>
+        <v>10.60666557155106</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>2312133.624841492</v>
+        <v>10.55891209127906</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>554049.0203538761</v>
+        <v>10.50236399870965</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>1825065.778825958</v>
+        <v>10.603560350573</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>-60313.32887422368</v>
+        <v>10.44254545127584</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>1454457.6978703</v>
+        <v>10.61209247135226</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>3261774.763412735</v>
+        <v>10.51625255789286</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>696079.4174077632</v>
+        <v>10.46032253429826</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>2230283.469918905</v>
+        <v>10.5416333242141</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>-15804.85388277941</v>
+        <v>10.4071492461478</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>1877340.693499491</v>
+        <v>10.54609062173941</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>66876.2508991607</v>
+        <v>10.44493760601793</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>579574.7008829827</v>
+        <v>10.56864791585151</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>-184562.6128777583</v>
+        <v>10.37343648232413</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>1135056.443621379</v>
+        <v>10.57160718166053</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>70927.73464853708</v>
+        <v>10.51191674484292</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>627594.0573788406</v>
+        <v>10.64940668270416</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>-258825.8013888721</v>
+        <v>10.44371528827997</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>385664.0084481136</v>
+        <v>10.54384115875945</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>1143560.195351269</v>
+        <v>10.6857702584667</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>144774.2270368403</v>
+        <v>10.4709721215801</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>1498736.653709226</v>
+        <v>10.67749794756788</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>465203.2020506176</v>
+        <v>10.63493973962223</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>1277720.295633744</v>
+        <v>10.79223811558182</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>183347.4256764431</v>
+        <v>10.56578915993802</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>293834.7372111091</v>
+        <v>10.55343339931939</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>1104199.533982761</v>
+        <v>10.6930451931271</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>6834.475791336222</v>
+        <v>10.48346319003713</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>1579703.961838079</v>
+        <v>10.68556971264199</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>430647.1072161637</v>
+        <v>10.64736981733559</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>1318486.099749259</v>
+        <v>10.80203432332586</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>121815.6130110232</v>
+        <v>10.58104036608398</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>303229.3747345297</v>
+        <v>10.48470225885781</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>1224328.288021983</v>
+        <v>10.59706463154584</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>-30690.3136971477</v>
+        <v>10.42209828669933</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>2214284.092959947</v>
+        <v>10.5980450683148</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>542730.8300709403</v>
+        <v>10.55213826273738</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>1546754.107139456</v>
+        <v>10.67691253701569</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>127488.4901748162</v>
+        <v>10.49249704110317</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>2863452.44305318</v>
+        <v>10.52389290404986</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>17733.21290881112</v>
+        <v>10.46907857009521</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>1344870.516539078</v>
+        <v>10.54872648111749</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-797524.2790845048</v>
+        <v>10.41710123434644</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>1373136.58103282</v>
+        <v>10.55590231876296</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>3224064.138314968</v>
+        <v>10.5799340425644</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>552869.1798259648</v>
+        <v>10.53293213324291</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>2328220.719058031</v>
+        <v>10.62450529091942</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>-283788.2882005782</v>
+        <v>10.47966936130715</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>1904292.273660004</v>
+        <v>10.63907339266858</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>3528708.30529252</v>
+        <v>10.5826887085215</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>428051.7389292444</v>
+        <v>10.53856699781244</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>2365650.73046988</v>
+        <v>10.6286860037247</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>-591220.3718901398</v>
+        <v>10.48735287844814</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>2045814.984748286</v>
+        <v>10.644421293913</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>4890586.340186562</v>
+        <v>10.53754891424953</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>446045.9464616004</v>
+        <v>10.49278101305006</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>2758746.455203131</v>
+        <v>10.56517486000606</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-749159.1133174961</v>
+        <v>10.44719177548983</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>2794794.958134837</v>
+        <v>10.57585498232648</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-79007.80559359006</v>
+        <v>10.49586385180668</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>744212.7789270668</v>
+        <v>10.60596509842167</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>-470056.882978763</v>
+        <v>10.43471907353011</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>1535013.135566542</v>
+        <v>10.59231019209737</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>-13326.944399196</v>
+        <v>10.54534087256544</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>816582.9146043581</v>
+        <v>10.66742502446669</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>-510042.9253625214</v>
+        <v>10.48724977625774</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>398360.4498274135</v>
+        <v>10.59169765824063</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>1604871.764889805</v>
+        <v>10.71804253823364</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>37906.2851170869</v>
+        <v>10.52948994528105</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>2043186.692853814</v>
+        <v>10.69245558908283</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>577850.3905438101</v>
+        <v>10.66165776618165</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>1811449.099141566</v>
+        <v>10.80137613401336</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>182097.1563988577</v>
+        <v>10.60288153529177</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>315968.837933015</v>
+        <v>10.60078631968839</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>1646562.165078962</v>
+        <v>10.72508362422592</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>-108902.2552318713</v>
+        <v>10.54106518611558</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>2208354.612654031</v>
+        <v>10.70040303808947</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>568999.8291289168</v>
+        <v>10.67355123534052</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>1948440.059531375</v>
+        <v>10.81094807572398</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>135112.225801849</v>
+        <v>10.6171870306338</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>400831.765867243</v>
+        <v>10.52817686267763</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>1925059.169774795</v>
+        <v>10.62819283577872</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>-121732.4895279012</v>
+        <v>10.47465094514551</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>3254717.368587075</v>
+        <v>10.61420634354258</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>776791.8834911233</v>
+        <v>10.57911981106734</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>2330601.155339781</v>
+        <v>10.68993097568501</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>142674.7800059097</v>
+        <v>10.52833260707261</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>4876022.904288612</v>
+        <v>10.48867689362674</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>642069.4981373644</v>
+        <v>10.4447843129347</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>2347350.924454141</v>
+        <v>10.50334559322882</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>-401205.9664921242</v>
+        <v>10.40580525825853</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>2874049.697423386</v>
+        <v>10.50907839253074</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>5414528.282310436</v>
+        <v>10.52962097757864</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>1389072.843934665</v>
+        <v>10.49141690973092</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>3861822.858497103</v>
+        <v>10.55884317717966</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>250531.2188435427</v>
+        <v>10.45147857658093</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>3636770.997295969</v>
+        <v>10.57019635270581</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>6068552.976608168</v>
+        <v>10.53235493625738</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>1310974.775007669</v>
+        <v>10.49641713551801</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>4041186.420387206</v>
+        <v>10.56279160749884</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>-132478.4967382851</v>
+        <v>10.4580150542275</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>3933821.347789902</v>
+        <v>10.57502952894838</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>8414170.951241702</v>
+        <v>10.50101465899497</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>1633849.318325917</v>
+        <v>10.4649932153579</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>4827235.549065558</v>
+        <v>10.51824705940433</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>32787.22723059188</v>
+        <v>10.43080471142397</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>5438946.265093506</v>
+        <v>10.52660114881835</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>438540.1223207774</v>
+        <v>10.46061863683675</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>1515312.502635273</v>
+        <v>10.54166781472768</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-113366.4729578242</v>
+        <v>10.41473566584015</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>2934638.119293507</v>
+        <v>10.53710563041215</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>392289.4000327803</v>
+        <v>10.49853921528849</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>1523586.530741751</v>
+        <v>10.58854929969317</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>-376600.909309001</v>
+        <v>10.45492792498529</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>1107947.342006413</v>
+        <v>10.53103076870972</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>2828636.265310357</v>
+        <v>10.62416035667443</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>583393.0474449308</v>
+        <v>10.4843543585771</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>3806944.614538794</v>
+        <v>10.6110597121362</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>1371634.36391263</v>
+        <v>10.58443384276406</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>3178727.482209202</v>
+        <v>10.68756594398038</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>750356.4161258617</v>
+        <v>10.54031073731437</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>1025428.658462203</v>
+        <v>10.53880199223862</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>2943247.452153204</v>
+        <v>10.63044627207845</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>392674.7444926428</v>
+        <v>10.49399102998891</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>4138331.658690489</v>
+        <v>10.61782668504563</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>1405164.571550822</v>
+        <v>10.59429067816664</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>3444432.105529883</v>
+        <v>10.69573279074439</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>716415.1407125385</v>
+        <v>10.55197748113088</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>1427764.144532522</v>
+        <v>10.48782926640061</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>3578457.017988541</v>
+        <v>10.56148749163569</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>677764.2692993351</v>
+        <v>10.4476629007763</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>5946490.951451244</v>
+        <v>10.55601860372403</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>1855745.175324741</v>
+        <v>10.5267733067593</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>4107072.034264022</v>
+        <v>10.60850456018972</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>863095.8958974464</v>
+        <v>10.48864417069317</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>2066043.593344941</v>
+        <v>10.50236947675635</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>-40593.3537584737</v>
+        <v>10.44125724170869</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>1199303.522844746</v>
+        <v>10.52382368573613</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-698268.5713452231</v>
+        <v>10.38601504251493</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>1056109.717028146</v>
+        <v>10.5260940939777</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>2601915.994725402</v>
+        <v>10.55740316356581</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>559651.4718554816</v>
+        <v>10.50389809213028</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>2225589.980480325</v>
+        <v>10.59883115021104</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-129810.1452975353</v>
+        <v>10.44723776144022</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>1683885.521397072</v>
+        <v>10.6082470090774</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>2779064.783862297</v>
+        <v>10.56009922015368</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>380219.7618182944</v>
+        <v>10.50958173625151</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>2160583.892514862</v>
+        <v>10.60300124032439</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>-469822.499825219</v>
+        <v>10.4550957697547</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>1759852.617108978</v>
+        <v>10.61366476433221</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>3637707.212906431</v>
+        <v>10.51819833957287</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>245122.7928786303</v>
+        <v>10.46783370401179</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>2335691.193341339</v>
+        <v>10.54287592395119</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>-724882.3840526347</v>
+        <v>10.41937676678549</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>2167718.607084353</v>
+        <v>10.54921380146499</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>-163834.8983630103</v>
+        <v>10.45798187749432</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>557908.5946523172</v>
+        <v>10.57214038612296</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>-493364.5759274299</v>
+        <v>10.39288507297416</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>1228697.811680025</v>
+        <v>10.56914750059705</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>-121237.5978657173</v>
+        <v>10.51542041829929</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>615303.5322396152</v>
+        <v>10.64220694131797</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>-557881.3693168727</v>
+        <v>10.45344805059581</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>360928.5793134791</v>
+        <v>10.55261895728559</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>1449780.022154111</v>
+        <v>10.68362591475391</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>43094.26283863717</v>
+        <v>10.48631644011073</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>1848693.577925448</v>
+        <v>10.66947582956746</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>505217.2105634622</v>
+        <v>10.63196792837854</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>1625086.360710705</v>
+        <v>10.77706375927925</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>135788.276649675</v>
+        <v>10.56918074691074</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>240532.7901811215</v>
+        <v>10.56192882467291</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>1417721.834526084</v>
+        <v>10.69080495478867</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-136107.3468668273</v>
+        <v>10.49826866737182</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>1960595.25809935</v>
+        <v>10.67745235242976</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>463115.3011218081</v>
+        <v>10.64402998035327</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>1696681.9295099</v>
+        <v>10.786705439835</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>59480.75132866897</v>
+        <v>10.58381032359767</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>141112.0672841989</v>
+        <v>10.49438423698163</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>1451547.04618704</v>
+        <v>10.59808028514964</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>-296571.8740857642</v>
+        <v>10.43739193873614</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>2658217.478687163</v>
+        <v>10.59374491739298</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>497104.3385634722</v>
+        <v>10.55272321697944</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>1854737.125578319</v>
+        <v>10.66779459440773</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>-53855.18360169586</v>
+        <v>10.49853481553131</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>1022122.872742716</v>
+        <v>10.47097606855527</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>-299687.8690977635</v>
+        <v>10.40566302343076</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>278066.2752315369</v>
+        <v>10.48604432313034</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>-692961.0078937598</v>
+        <v>10.35172281123812</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>886152.898363116</v>
+        <v>10.48926422620172</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>1389276.288779191</v>
+        <v>10.52412180025359</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>72165.19035305963</v>
+        <v>10.46614769975182</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>1062503.861482058</v>
+        <v>10.55871387121396</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-376813.0776096507</v>
+        <v>10.41087533459202</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>1439912.585110501</v>
+        <v>10.56928616585811</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>1516943.919615703</v>
+        <v>10.52839906806342</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>-106203.7630259139</v>
+        <v>10.47362893389445</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>978775.3599838247</v>
+        <v>10.56475001722298</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>-695172.7612520105</v>
+        <v>10.42048441893745</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>1512064.233551341</v>
+        <v>10.57663345665407</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>2155653.557551794</v>
+        <v>10.49092785169408</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>-165427.1017160088</v>
+        <v>10.43691599489707</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>1037412.010601689</v>
+        <v>10.5100131562484</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-788283.0230021572</v>
+        <v>10.38960699739521</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>1934585.47408608</v>
+        <v>10.51730208718918</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>-77968.19373584799</v>
+        <v>10.41612614193896</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>326001.610839493</v>
+        <v>10.52741731114352</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>-309898.9797555836</v>
+        <v>10.35262585150842</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>993852.5306495547</v>
+        <v>10.53119547340768</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-136440.4546313335</v>
+        <v>10.47216617098067</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>328966.7718415842</v>
+        <v>10.59587010056789</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>-497839.3777897249</v>
+        <v>10.41178255767887</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>350912.7254589835</v>
+        <v>10.5083132257791</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>1098922.160549752</v>
+        <v>10.63621376189479</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>120338.8343919478</v>
+        <v>10.44370831506873</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>1693063.61745986</v>
+        <v>10.62927898290709</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>524324.5987447952</v>
+        <v>10.58611675969937</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>1349778.69299441</v>
+        <v>10.72787182604145</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>217431.3757123106</v>
+        <v>10.52501593155821</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>250342.6839050974</v>
+        <v>10.51981925032366</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>1077017.635482975</v>
+        <v>10.64567831943237</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>-30382.07721204746</v>
+        <v>10.45779855789495</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>1819119.752403036</v>
+        <v>10.63920307032565</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>505827.2550056192</v>
+        <v>10.60039670664381</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>1433216.264922994</v>
+        <v>10.73982658206099</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>166722.0102172575</v>
+        <v>10.54180428848177</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>260424.8593268331</v>
+        <v>10.45811691903651</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>1138123.606965479</v>
+        <v>10.55926019590237</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>-54755.94369764142</v>
+        <v>10.40253066191826</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>2357641.52283883</v>
+        <v>10.56080450131628</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>481556.7306335035</v>
+        <v>10.51517380812668</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>1461709.094791989</v>
+        <v>10.62749967263376</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>15063.26892022248</v>
+        <v>10.46238302721768</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>3439761.078817477</v>
+        <v>10.48290832569095</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>-126509.2752307922</v>
+        <v>10.43846777452373</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>1350472.360930348</v>
+        <v>10.49653872472577</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>-973486.0394611617</v>
+        <v>10.39979050276352</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>1872662.783890509</v>
+        <v>10.50089245207558</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>4205725.686366968</v>
+        <v>10.52322514880633</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>758495.7154134631</v>
+        <v>10.48438686373033</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>3026339.412117036</v>
+        <v>10.5512638393537</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>-201428.8230206019</v>
+        <v>10.44476408201414</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>2806715.531061893</v>
+        <v>10.56111995600426</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>4857469.281855173</v>
+        <v>10.52612593555569</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>691734.2391340688</v>
+        <v>10.4895671216979</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>3207677.708614923</v>
+        <v>10.55540355552388</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>-566437.2437681803</v>
+        <v>10.45146953221919</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>3097033.572264238</v>
+        <v>10.56618462906896</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>6612082.838240642</v>
+        <v>10.49581172989397</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>685605.206044425</v>
+        <v>10.4592889414517</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>3577252.237707083</v>
+        <v>10.51210075091692</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>-661525.3253477898</v>
+        <v>10.42536639089527</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>4180363.699766831</v>
+        <v>10.51921625272938</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>-205546.6122890015</v>
+        <v>10.45156899710003</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>713104.1195173871</v>
+        <v>10.53194756806337</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>-663390.6042097884</v>
+        <v>10.40605284836761</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>2024438.149743881</v>
+        <v>10.5286342003658</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>-215570.4384201838</v>
+        <v>10.48913386243267</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>778445.2881780018</v>
+        <v>10.57842470540711</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>-906724.6166625402</v>
+        <v>10.44588156382627</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>581705.7020033947</v>
+        <v>10.52096254816117</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>2160166.156395373</v>
+        <v>10.61334154371636</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>141261.1019088111</v>
+        <v>10.47466823803835</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>3091018.505116696</v>
+        <v>10.6016332845989</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>902185.9084919433</v>
+        <v>10.57393194419236</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>2585168.460695517</v>
+        <v>10.67625946491302</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>348189.8457713692</v>
+        <v>10.53018178592526</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>499187.229316208</v>
+        <v>10.52898595955549</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>2267792.310343177</v>
+        <v>10.61989511410101</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-46727.16187017765</v>
+        <v>10.48454338171291</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>3420087.396551037</v>
+        <v>10.60862808911272</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>936688.8287701744</v>
+        <v>10.58403733750614</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>2845655.111207084</v>
+        <v>10.68469148494398</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>316688.209427443</v>
+        <v>10.54208349490611</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>623761.4698845057</v>
+        <v>10.47965627570086</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>2564481.873982476</v>
+        <v>10.55271007742661</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>-5964.166570757797</v>
+        <v>10.43981281788284</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>4813051.42350521</v>
+        <v>10.5483600473339</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>1101519.916436318</v>
+        <v>10.51826086948412</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>3170255.274133698</v>
+        <v>10.59934393787308</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>206424.5502079313</v>
+        <v>10.48044752652151</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>2442271.141405995</v>
+        <v>10.51048877604097</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>386387.2073379773</v>
+        <v>10.4443596849537</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>1330571.461298882</v>
+        <v>10.5332019173462</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>-148388.3879483729</v>
+        <v>10.38481469533585</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>1217025.95084515</v>
+        <v>10.53983658492098</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>2484913.069006634</v>
+        <v>10.5701895352915</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>617246.5687861282</v>
+        <v>10.51229091700975</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>1856538.057416945</v>
+        <v>10.61448705060003</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>61245.33340331348</v>
+        <v>10.45124340780694</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>1516151.717188932</v>
+        <v>10.62914083930485</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>2695556.642770061</v>
+        <v>10.57345042287373</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>506176.3782719774</v>
+        <v>10.51885237928949</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>1842937.038761084</v>
+        <v>10.61943417611588</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>-192468.908010501</v>
+        <v>10.46014753677581</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>1628675.39694712</v>
+        <v>10.63538034424406</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>3876658.007855551</v>
+        <v>10.52769057677322</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>673767.2741528838</v>
+        <v>10.47326573333117</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>2315885.275956641</v>
+        <v>10.55403048897439</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-126174.2695682398</v>
+        <v>10.42103328695326</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>2257340.239706838</v>
+        <v>10.56469035438041</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>80608.15269328044</v>
+        <v>10.46651943681167</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>685222.8544038006</v>
+        <v>10.58944122077703</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>-197258.3980871851</v>
+        <v>10.39635505473681</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>1185515.548851419</v>
+        <v>10.58651448278813</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>6586.133301835226</v>
+        <v>10.52874220826055</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>636950.2398815823</v>
+        <v>10.66527777568078</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>-368650.0116319466</v>
+        <v>10.46193042071956</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>364688.3650703345</v>
+        <v>10.56936032734937</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>1226996.347541616</v>
+        <v>10.71048094344562</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>103727.5075345778</v>
+        <v>10.49792931619436</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>1585138.684427834</v>
+        <v>10.6954656593702</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>464997.9709362697</v>
+        <v>10.65526351205425</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>1374074.318545223</v>
+        <v>10.81157451950288</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>160923.8335386593</v>
+        <v>10.58760612083138</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>298572.7279783704</v>
+        <v>10.5798881638092</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>1239229.762882372</v>
+        <v>10.71873216488311</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>-17446.80657854844</v>
+        <v>10.51130357265453</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>1736138.446924959</v>
+        <v>10.70447706989435</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>470891.203080614</v>
+        <v>10.66877275593056</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>1480854.593113355</v>
+        <v>10.82249546287206</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>132179.5048870996</v>
+        <v>10.60388106141559</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>405815.2113627379</v>
+        <v>10.50580179309084</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>1516465.631603255</v>
+        <v>10.61748119680951</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>28388.09956693388</v>
+        <v>10.44437086070587</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>2485254.56606725</v>
+        <v>10.61296459977676</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>592389.0153079748</v>
+        <v>10.56899810214321</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>1761149.178398004</v>
+        <v>10.69294137147159</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>107967.3642307941</v>
+        <v>10.51057528517548</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>1981808.295310849</v>
+        <v>10.50507690140141</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>-124864.9536404394</v>
+        <v>10.44278382833854</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>1089768.408770642</v>
+        <v>10.52742731654302</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>-772897.0041975158</v>
+        <v>10.38647180813381</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>1062954.51135712</v>
+        <v>10.52915696099518</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>2619603.352497075</v>
+        <v>10.56213614339602</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>526020.0080826175</v>
+        <v>10.50773071808314</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>2162570.811801639</v>
+        <v>10.60504897540892</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>-167855.2701708815</v>
+        <v>10.4499770233933</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>1661393.178636237</v>
+        <v>10.61410621724835</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>2851999.586937829</v>
+        <v>10.56510682464346</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>391176.6380275059</v>
+        <v>10.513787185233</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>2149200.554886091</v>
+        <v>10.60955429322994</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>-464012.0467971354</v>
+        <v>10.45824895200133</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>1755734.816985161</v>
+        <v>10.61994009621411</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>3596638.170522912</v>
+        <v>10.52141508094069</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>193740.9145502534</v>
+        <v>10.47013604295237</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>2251061.761037892</v>
+        <v>10.54706567180842</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>-770202.3800928157</v>
+        <v>10.42073952580862</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>2185906.751400205</v>
+        <v>10.55306290855528</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>-146445.6404141223</v>
+        <v>10.45968089125343</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>554893.1613959945</v>
+        <v>10.57668919898333</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>-475346.3077600017</v>
+        <v>10.39335148705243</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>1114739.772928568</v>
+        <v>10.57039000072493</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>-213690.7034120323</v>
+        <v>10.51519933137064</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>458385.0861455702</v>
+        <v>10.64506974591086</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>-655392.4371539878</v>
+        <v>10.45208753948221</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>340909.4618788333</v>
+        <v>10.55752547798959</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>1401427.676432549</v>
+        <v>10.69179954711641</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>18391.27719899588</v>
+        <v>10.48997384035654</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>1732227.202668088</v>
+        <v>10.67369046993987</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>399099.9104791225</v>
+        <v>10.63517706351652</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>1448942.802972955</v>
+        <v>10.78380306206308</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>21173.45694723185</v>
+        <v>10.57124383729194</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>237775.1899623735</v>
+        <v>10.56738113240464</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>1389982.626303392</v>
+        <v>10.69947184239462</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>-144604.6644696594</v>
+        <v>10.50252079042065</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>1845559.134745161</v>
+        <v>10.68222298133496</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>358920.5164641041</v>
+        <v>10.64794107331226</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>1521110.291942814</v>
+        <v>10.79408906407603</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>-54691.79137537913</v>
+        <v>10.58662164131319</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>176296.1783368482</v>
+        <v>10.4972086556896</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>1457112.536496049</v>
+        <v>10.60349296021674</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>-265527.1865215097</v>
+        <v>10.43913601502243</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>2478365.64610637</v>
+        <v>10.59610885402597</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>354281.1334383378</v>
+        <v>10.55399494164637</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>1619924.44304652</v>
+        <v>10.67186579287196</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>-207634.4755324124</v>
+        <v>10.49880928894897</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.09308519281468</v>
+        <v>29.09308519281478</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.2058140656909169</v>
+        <v>-0.2058140656876981</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>16.78861801264021</v>
+        <v>16.78861801264237</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-10.44714620252714</v>
+        <v>-10.44714620252593</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>30.0623865105732</v>
+        <v>30.06238651057491</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>41.17699682167736</v>
+        <v>41.17699682167957</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>11.42313188903815</v>
+        <v>11.4231318890363</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>41.65623849764448</v>
+        <v>41.65623849764342</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-1.399201606527041</v>
+        <v>-1.399201606526597</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>49.74614731480745</v>
+        <v>49.74614731480921</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>43.80968173343674</v>
+        <v>43.80968173343449</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>8.737053175868187</v>
+        <v>8.737053175872042</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>40.47452154217397</v>
+        <v>40.47452154217391</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-7.161992946100676</v>
+        <v>-7.16199294610112</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>50.85255250432807</v>
+        <v>50.85255250433019</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>42.48568829594177</v>
+        <v>42.48568829594302</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5.960742103952419</v>
+        <v>5.96074210395433</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.84480026895919</v>
+        <v>31.84480026895863</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-6.408387946140835</v>
+        <v>-6.408387946139837</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>48.63662530016227</v>
+        <v>48.63662530016503</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1.880533362826013</v>
+        <v>1.880533362826021</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>19.95391218055604</v>
+        <v>19.95391218055674</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-7.179439617981914</v>
+        <v>-7.179439617983641</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>38.76304430749129</v>
+        <v>38.7630443074906</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4.762426634978083</v>
+        <v>4.762426634978715</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>26.62015362268917</v>
+        <v>26.62015362269104</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-10.02608228888494</v>
+        <v>-10.0260822888872</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>19.10446974606786</v>
+        <v>19.10446974606558</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>54.46319071758447</v>
+        <v>54.46319071758349</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>9.666282883965849</v>
+        <v>9.666282883966595</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>62.63709052421704</v>
+        <v>62.63709052421832</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>30.91170067009631</v>
+        <v>30.911700670095</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>72.75940941236135</v>
+        <v>72.7594094123631</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>18.03326440502599</v>
+        <v>18.03326440502256</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>15.68558044107912</v>
+        <v>15.68558044107927</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>53.14451406180775</v>
+        <v>53.14451406180849</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4.565452183140464</v>
+        <v>4.565452183137224</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>64.56251157537513</v>
+        <v>64.56251157537503</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29.71399531979823</v>
+        <v>29.71399531980123</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>74.60731464954104</v>
+        <v>74.60731464954567</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>16.07606103444411</v>
+        <v>16.07606103444139</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>13.84664460273196</v>
+        <v>13.84664460272839</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>43.12750076896894</v>
+        <v>43.12750076896865</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4.541737450176192</v>
+        <v>4.541737450173939</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>65.0774314352167</v>
+        <v>65.07743143521829</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>26.42297661836985</v>
+        <v>26.42297661837021</v>
       </c>
     </row>
     <row r="48">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>12.08883926850061</v>
+        <v>12.08883926849864</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>43.16225978234363</v>
+        <v>43.16225978234351</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4.517571572328705</v>
+        <v>4.517571572331767</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.94285723730645</v>
+        <v>33.94285723730717</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-12.66902942749384</v>
+        <v>-12.66902942749281</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>38.5689351719758</v>
+        <v>38.56893517197612</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>53.00234526620614</v>
+        <v>53.00234526620729</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>14.74932250803361</v>
+        <v>14.74932250803403</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>56.08672710616735</v>
+        <v>56.08672710616649</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>-4.804078022933063</v>
+        <v>-4.8040780229308</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>57.73140041408465</v>
+        <v>57.73140041408404</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>53.54317257409439</v>
+        <v>53.54317257409437</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>9.933017942337727</v>
+        <v>9.933017942337557</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>51.54539831712483</v>
+        <v>51.54539831712476</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>-12.6529195198658</v>
+        <v>-12.65291951986632</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>58.20954934575263</v>
+        <v>58.2095493457505</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>53.9525440821574</v>
+        <v>53.95254408215889</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>7.999333015026123</v>
+        <v>7.999333015026216</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>45.20153853283419</v>
+        <v>45.20153853283234</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-11.32068495513559</v>
+        <v>-11.32068495513431</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>54.24396964515066</v>
+        <v>54.24396964515323</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4.984673845674592</v>
+        <v>4.98467384567683</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>34.04686464941994</v>
+        <v>34.04686464942203</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-8.436780734797694</v>
+        <v>-8.436780734794212</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>46.83020174978832</v>
+        <v>46.83020174978739</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6.64952905029056</v>
+        <v>6.649529050292663</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>40.74998715608955</v>
+        <v>40.74998715608962</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>-11.67149138657381</v>
+        <v>-11.67149138657518</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>22.00392381542675</v>
+        <v>22.00392381542596</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>66.61962733815696</v>
+        <v>66.61962733815982</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>7.719076006885166</v>
+        <v>7.719076006887966</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>67.12328950479258</v>
+        <v>67.12328950479318</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>28.35532752454699</v>
+        <v>28.35532752454937</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>80.6900952336898</v>
+        <v>80.69009523369139</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>11.01220186962201</v>
+        <v>11.01220186962053</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>17.48494490909682</v>
+        <v>17.4849449090983</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>62.93398144989359</v>
+        <v>62.93398144989501</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1.265910489765218</v>
+        <v>1.265910489767704</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>68.29328534447654</v>
+        <v>68.29328534447731</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>26.16125208304639</v>
+        <v>26.16125208304745</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>80.50832563544431</v>
+        <v>80.50832563544452</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>7.976558901992184</v>
+        <v>7.976558901992127</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>13.63791617738999</v>
+        <v>13.63791617738902</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>52.58781304451139</v>
+        <v>52.58781304450897</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>-0.2359795670593252</v>
+        <v>-0.2359795670556233</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>69.87858722233759</v>
+        <v>69.87858722233725</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>24.97671533625078</v>
+        <v>24.97671533625255</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>71.04900079047657</v>
+        <v>71.04900079047616</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>7.200076327210346</v>
+        <v>7.200076327211483</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>43.16225978234363</v>
+        <v>43.16225978234351</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>4.517571572328705</v>
+        <v>4.517571572331767</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>33.94285723730645</v>
+        <v>33.94285723730717</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-12.66902942749384</v>
+        <v>-12.66902942749281</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>38.5689351719758</v>
+        <v>38.56893517197612</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>53.00234526620614</v>
+        <v>53.00234526620729</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>14.74932250803361</v>
+        <v>14.74932250803403</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>56.08672710616735</v>
+        <v>56.08672710616649</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>-4.804078022933063</v>
+        <v>-4.8040780229308</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>57.73140041408465</v>
+        <v>57.73140041408404</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>53.54317257409439</v>
+        <v>53.54317257409437</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>9.933017942337727</v>
+        <v>9.933017942337557</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>51.54539831712483</v>
+        <v>51.54539831712476</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>-12.6529195198658</v>
+        <v>-12.65291951986632</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>58.20954934575263</v>
+        <v>58.2095493457505</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>53.9525440821574</v>
+        <v>53.95254408215889</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>7.999333015026123</v>
+        <v>7.999333015026216</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>45.20153853283419</v>
+        <v>45.20153853283234</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>-11.32068495513559</v>
+        <v>-11.32068495513431</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>54.24396964515066</v>
+        <v>54.24396964515323</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>4.984673845674592</v>
+        <v>4.98467384567683</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>34.04686464941994</v>
+        <v>34.04686464942203</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>-8.436780734797694</v>
+        <v>-8.436780734794212</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>46.83020174978832</v>
+        <v>46.83020174978739</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>6.64952905029056</v>
+        <v>6.649529050292663</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>40.74998715608955</v>
+        <v>40.74998715608962</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>-11.67149138657381</v>
+        <v>-11.67149138657518</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>22.00392381542675</v>
+        <v>22.00392381542596</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>66.61962733815696</v>
+        <v>66.61962733815982</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>7.719076006885166</v>
+        <v>7.719076006887966</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>67.12328950479258</v>
+        <v>67.12328950479318</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>28.35532752454699</v>
+        <v>28.35532752454937</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>80.6900952336898</v>
+        <v>80.69009523369139</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>11.01220186962201</v>
+        <v>11.01220186962053</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>17.48494490909682</v>
+        <v>17.4849449090983</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>62.93398144989359</v>
+        <v>62.93398144989501</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>1.265910489765218</v>
+        <v>1.265910489767704</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>68.29328534447654</v>
+        <v>68.29328534447731</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>26.16125208304639</v>
+        <v>26.16125208304745</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>80.50832563544431</v>
+        <v>80.50832563544452</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>7.976558901992184</v>
+        <v>7.976558901992127</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>13.63791617738999</v>
+        <v>13.63791617738902</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>52.58781304451139</v>
+        <v>52.58781304450897</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>-0.2359795670593252</v>
+        <v>-0.2359795670556233</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>69.87858722233759</v>
+        <v>69.87858722233725</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>24.97671533625078</v>
+        <v>24.97671533625255</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>71.04900079047657</v>
+        <v>71.04900079047616</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>7.200076327210346</v>
+        <v>7.200076327211483</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>22.04626995025331</v>
+        <v>22.04626995025502</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>-2.603640783363375</v>
+        <v>-2.603640783363915</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>9.462533345834558</v>
+        <v>9.462533345835382</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>-10.27640277904154</v>
+        <v>-10.27640277904121</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>23.95073081430397</v>
+        <v>23.95073081430308</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>32.79127754339003</v>
+        <v>32.79127754339339</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>7.353919859792533</v>
+        <v>7.353919859790337</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>31.83537545435459</v>
+        <v>31.83537545435518</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>-3.267005088301304</v>
+        <v>-3.26700508830178</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>42.57205682093989</v>
+        <v>42.57205682094083</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>35.77766606517351</v>
+        <v>35.77766606517437</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>4.830993239200406</v>
+        <v>4.830993239199734</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>30.77475571034925</v>
+        <v>30.77475571034792</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>-9.029819306566427</v>
+        <v>-9.029819306563144</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>43.88453389152387</v>
+        <v>43.88453389152296</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>34.77563627690174</v>
+        <v>34.77563627690096</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>2.811279035294951</v>
+        <v>2.811279035294077</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>23.53786859008886</v>
+        <v>23.53786859008974</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-7.060554659228726</v>
+        <v>-7.060554659230449</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>41.65071308470961</v>
+        <v>41.65071308471122</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.1016232315333587</v>
+        <v>0.1016232315344601</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>13.59748685943946</v>
+        <v>13.59748685944245</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>-6.592788063349063</v>
+        <v>-6.592788063345709</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>32.6991697815998</v>
+        <v>32.69916978159987</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>2.191427826927359</v>
+        <v>2.191427826929185</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>20.80252382844166</v>
+        <v>20.80252382844154</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>-10.94019748262797</v>
+        <v>-10.94019748262865</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>15.93627592684584</v>
+        <v>15.93627592684259</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>45.82457569222056</v>
+        <v>45.82457569222138</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>8.506591233436133</v>
+        <v>8.506591233437064</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>56.01791404243108</v>
+        <v>56.01791404243082</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>27.46834686154547</v>
+        <v>27.46834686154324</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>65.23074000959984</v>
+        <v>65.23074000960253</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>15.82601531670348</v>
+        <v>15.8260153167034</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>12.53185954504882</v>
+        <v>12.53185954504895</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>44.46120752422269</v>
+        <v>44.46120752422372</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>3.270168485251111</v>
+        <v>3.270168485251161</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>58.15314107490007</v>
+        <v>58.15314107489832</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>26.34366070985818</v>
+        <v>26.3436607098585</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>67.09703365771182</v>
+        <v>67.09703365771203</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>13.81878627531065</v>
+        <v>13.81878627531003</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>11.11184856204765</v>
+        <v>11.11184856204576</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>35.58165986429395</v>
+        <v>35.58165986429596</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>4.122847100362654</v>
+        <v>4.122847100362647</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>58.37838528573357</v>
+        <v>58.37838528573256</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>23.19291821465271</v>
+        <v>23.19291821465284</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>54.5874435070379</v>
+        <v>54.58744350703754</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>10.47305713807895</v>
+        <v>10.47305713807989</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>31.26220771755165</v>
+        <v>31.26220771755151</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-6.948469342282878</v>
+        <v>-6.948469342284491</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>13.8295009889132</v>
+        <v>13.82950098891426</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-22.16663253870613</v>
+        <v>-22.16663253870549</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>34.45046855392187</v>
+        <v>34.45046855391858</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>43.52059498229615</v>
+        <v>43.52059498229161</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>4.342210326306613</v>
+        <v>4.342210326306925</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>38.45769380209252</v>
+        <v>38.45769380209268</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-13.9288364364488</v>
+        <v>-13.92883643644834</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>53.28267782692956</v>
+        <v>53.28267782692826</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>46.39804143595247</v>
+        <v>46.39804143594966</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>1.98168122574686</v>
+        <v>1.981681225746942</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>37.69389076794194</v>
+        <v>37.69389076794338</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>-19.34581791184691</v>
+        <v>-19.3458179118478</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>54.5526860788205</v>
+        <v>54.55268607881906</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>45.42400788278525</v>
+        <v>45.42400788278582</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>-0.2008774517126648</v>
+        <v>-0.2008774517129135</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>29.67397019043658</v>
+        <v>29.67397019043613</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-17.73719695679578</v>
+        <v>-17.73719695679562</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>53.47518821656091</v>
+        <v>53.47518821656123</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>2.453654226320025</v>
+        <v>2.453654226318313</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>25.30544449418843</v>
+        <v>25.3054444941872</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>-9.238451812906462</v>
+        <v>-9.238451812904835</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>40.94481641711754</v>
+        <v>40.94481641711685</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>3.835882789372675</v>
+        <v>3.835882789370067</v>
       </c>
     </row>
     <row r="219">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-12.64671344797233</v>
+        <v>-12.64671344797198</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>18.56399984314247</v>
+        <v>18.56399984314201</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>58.79513085166357</v>
+        <v>58.79513085166513</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>6.19072635318578</v>
+        <v>6.190726353185389</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>61.81776875490764</v>
+        <v>61.8177687549062</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>26.70701833703913</v>
+        <v>26.70701833703953</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>72.61872638989163</v>
+        <v>72.61872638989122</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>11.94676379829872</v>
+        <v>11.94676379829654</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>15.34354771171585</v>
+        <v>15.34354771171521</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>57.78197963845293</v>
+        <v>57.78197963845453</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>1.292258759334017</v>
+        <v>1.292258759332198</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>63.57572846029353</v>
+        <v>63.57572846029587</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>25.41945608228313</v>
+        <v>25.41945608228273</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>74.4576534180584</v>
+        <v>74.45765341806036</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>9.927154158638331</v>
+        <v>9.927154158638622</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>14.83699900801385</v>
+        <v>14.83699900801335</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>49.14675548879897</v>
+        <v>49.14675548879715</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>2.79979513906273</v>
+        <v>2.79979513906025</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>66.81906439940668</v>
+        <v>66.81906439940725</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>25.10655470027162</v>
+        <v>25.10655470027056</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>64.11894547731461</v>
+        <v>64.11894547731438</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>9.069572266862146</v>
+        <v>9.069572266859659</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>41.91671737142568</v>
+        <v>41.91671737142492</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-6.104191812896489</v>
+        <v>-6.104191812895466</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>21.64769202967593</v>
+        <v>21.64769202967453</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-28.76830231617963</v>
+        <v>-28.76830231618025</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>44.75891523686587</v>
+        <v>44.75891523686662</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>50.72205695779137</v>
+        <v>50.7220569577923</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>2.457515284175165</v>
+        <v>2.457515284174788</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>41.48177527849305</v>
+        <v>41.48177527849425</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-23.3585387489647</v>
+        <v>-23.35853874896512</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>61.70547498123113</v>
+        <v>61.70547498123095</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>51.83391653446114</v>
+        <v>51.83391653446118</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-1.667004886794637</v>
+        <v>-1.667004886794673</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>38.05185358043452</v>
+        <v>38.05185358043489</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-30.50370196899647</v>
+        <v>-30.5037019689972</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>62.9979951251098</v>
+        <v>62.99799512510999</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>52.63753168489718</v>
+        <v>52.63753168489708</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>-2.959046065733625</v>
+        <v>-2.95904606573474</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>32.93365855534094</v>
+        <v>32.93365855534036</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-28.05376087882114</v>
+        <v>-28.05376087881994</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>61.27642855373035</v>
+        <v>61.27642855372997</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>10.20390696840592</v>
+        <v>10.20390696840675</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>43.01125028241005</v>
+        <v>43.01125028241268</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>-5.155743070394245</v>
+        <v>-5.155743070393279</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>47.09739534238791</v>
+        <v>47.09739534238721</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>6.999297697478567</v>
+        <v>6.999297697480315</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>43.93442821747607</v>
+        <v>43.93442821747669</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-11.79913657909248</v>
+        <v>-11.79913657909156</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>25.06204957081671</v>
+        <v>25.06204957081697</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>72.93502860865888</v>
+        <v>72.9350286086605</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>8.59525517864131</v>
+        <v>8.595255178640841</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>63.73605456736846</v>
+        <v>63.73605456736686</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>25.59908620996578</v>
+        <v>25.59908620996539</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>80.40475527871499</v>
+        <v>80.40475527871679</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>8.118323549833818</v>
+        <v>8.118323549831935</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>21.49017206240127</v>
+        <v>21.4901720624021</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>70.65638420906433</v>
+        <v>70.65638420906745</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>3.103977794078047</v>
+        <v>3.103977794080996</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>65.92981876261867</v>
+        <v>65.92981876262088</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>24.53854647221551</v>
+        <v>24.53854647221397</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>81.79254966183092</v>
+        <v>81.79254966183102</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>6.212297331351514</v>
+        <v>6.212297331352651</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>19.77937593187102</v>
+        <v>19.77937593187051</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>63.10883866573704</v>
+        <v>63.10883866574083</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>3.806189513089875</v>
+        <v>3.806189513093577</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>71.01515986971127</v>
+        <v>71.01515986970995</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>26.26167651241109</v>
+        <v>26.26167651241006</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>75.7653546370876</v>
+        <v>75.76535463708856</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>7.885741240286015</v>
+        <v>7.885741240287152</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>21.85630414717787</v>
+        <v>21.8563041471767</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-6.243861787472953</v>
+        <v>-6.243861787473976</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>10.697972511778</v>
+        <v>10.69797251177737</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-17.27801484875293</v>
+        <v>-17.27801484875264</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>27.0470609663183</v>
+        <v>27.04706096631905</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>27.89275828886958</v>
+        <v>27.89275828887156</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>0.5399173517486906</v>
+        <v>0.5399173517500193</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>28.40460113825051</v>
+        <v>28.40460113825024</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-12.53326231250817</v>
+        <v>-12.53326231250958</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>43.6488253820897</v>
+        <v>43.64882538208893</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>27.77511685501584</v>
+        <v>27.77511685501499</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-5.007159198051192</v>
+        <v>-5.00715919805191</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>23.31589585662159</v>
+        <v>23.31589585662185</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-21.1254320462173</v>
+        <v>-21.12543204621612</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>43.77626123424969</v>
+        <v>43.77626123425251</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29.24185232893286</v>
+        <v>29.24185232893034</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-6.053491659194784</v>
+        <v>-6.053491659194763</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>18.43246863728777</v>
+        <v>18.43246863729009</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-19.05637190208591</v>
+        <v>-19.05637190208379</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>41.07007145353931</v>
+        <v>41.07007145354063</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>-0.1047979479378478</v>
+        <v>-0.1047979479372509</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>19.61363149251945</v>
+        <v>19.61363149252072</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>-9.93881748272748</v>
+        <v>-9.938817482727821</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>36.10511155542569</v>
+        <v>36.10511155542437</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>2.311070381621319</v>
+        <v>2.311070381622584</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.39153934231309</v>
+        <v>28.39153934231415</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-12.73797083848434</v>
+        <v>-12.73797083848449</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>14.76641596787174</v>
+        <v>14.76641596787043</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>49.22755105887416</v>
+        <v>49.22755105887427</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>4.523678289468591</v>
+        <v>4.523678289468747</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>57.57152138990262</v>
+        <v>57.57152138990352</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>26.13710165263797</v>
+        <v>26.13710165263632</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>69.83291232218548</v>
+        <v>69.83291232218467</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>12.8371351831956</v>
+        <v>12.83713518319895</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>9.942317154722772</v>
+        <v>9.942317154724599</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>45.42107154771568</v>
+        <v>45.42107154771757</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-2.201990353235233</v>
+        <v>-2.20199035323352</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>59.46399108894521</v>
+        <v>59.46399108894715</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>24.58110529325786</v>
+        <v>24.58110529325893</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>70.5034781146102</v>
+        <v>70.50347811460999</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>10.38928062842898</v>
+        <v>10.38928062843029</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>6.968947745781462</v>
+        <v>6.968947745778116</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>36.50559103786961</v>
+        <v>36.50559103786964</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>-3.245630772591526</v>
+        <v>-3.245630772594503</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>59.81854908204397</v>
+        <v>59.81854908204534</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>21.1757563381206</v>
+        <v>21.17575633811929</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>59.28042202743271</v>
+        <v>59.28042202743232</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>6.569567442365858</v>
+        <v>6.569567442366881</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>23.34006356673246</v>
+        <v>23.34006356673212</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>-13.79978937197247</v>
+        <v>-13.79978937197285</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>5.776948801928788</v>
+        <v>5.776948801930302</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-28.70048233170176</v>
+        <v>-28.70048233170341</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>24.71111779878343</v>
+        <v>24.71111779878526</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>35.13052302802411</v>
+        <v>35.13052302802375</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-3.012188355295131</v>
+        <v>-3.012188355297032</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.82359607028883</v>
+        <v>29.8235960702848</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-21.1408464518069</v>
+        <v>-21.14084645181027</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>43.56246642772782</v>
+        <v>43.56246642772926</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>37.73939643187745</v>
+        <v>37.73939643187885</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-5.855291218543607</v>
+        <v>-5.855291218544658</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>28.45818956735403</v>
+        <v>28.4581895673543</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-27.15151318809503</v>
+        <v>-27.15151318809751</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>44.78380809471154</v>
+        <v>44.7838080947136</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>36.67516998929252</v>
+        <v>36.6751699892936</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-8.096842842121013</v>
+        <v>-8.096842842120019</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>20.55258056309962</v>
+        <v>20.5525805631012</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-25.36963458021299</v>
+        <v>-25.36963458021469</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>43.09648619222244</v>
+        <v>43.09648619221988</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-5.615625696396266</v>
+        <v>-5.615625696395662</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>16.57893105374093</v>
+        <v>16.57893105374015</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-16.49931070586496</v>
+        <v>-16.49931070586513</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>31.77751122453295</v>
+        <v>31.77751122453375</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-4.429938897273993</v>
+        <v>-4.429938897276537</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>21.38149843896138</v>
+        <v>21.38149843896223</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-20.45220966004844</v>
+        <v>-20.45220966004891</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>10.41724900609226</v>
+        <v>10.41724900609149</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>50.01002717567669</v>
+        <v>50.01002717567665</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-1.299938264298008</v>
+        <v>-1.299938264302427</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>52.93165685979995</v>
+        <v>52.93165685980068</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>18.63618940889871</v>
+        <v>18.63618940889891</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>64.6308716399225</v>
+        <v>64.63087163992182</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>4.207815486036515</v>
+        <v>4.207815486035307</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>6.902935188795985</v>
+        <v>6.902935188794863</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>48.59152558550807</v>
+        <v>48.59152558550702</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-6.601274579065262</v>
+        <v>-6.601274579064651</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>54.81258830569496</v>
+        <v>54.81258830569923</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>17.29990867886028</v>
+        <v>17.29990867885802</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>66.37362668511946</v>
+        <v>66.37362668511891</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>2.078180655028496</v>
+        <v>2.078180655028624</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>5.895175721666802</v>
+        <v>5.895175721668109</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>39.58565264383028</v>
+        <v>39.58565264383005</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-5.353758795321455</v>
+        <v>-5.35375879532488</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>57.56066964728483</v>
+        <v>57.56066964728277</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>16.60717016567032</v>
+        <v>16.60717016567059</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>55.72404784220448</v>
+        <v>55.72404784220537</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>1.054173820623581</v>
+        <v>1.054173820621933</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>53.23716860670656</v>
+        <v>53.23716860670498</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>5.632946883841234</v>
+        <v>5.632946883838289</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>38.75631273317484</v>
+        <v>38.75631273317139</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-15.43610734142195</v>
+        <v>-15.43610734142235</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>36.83272643184453</v>
+        <v>36.83272643184279</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>61.83278610165939</v>
+        <v>61.83278610165875</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>15.10324208730279</v>
+        <v>15.10324208730298</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>59.74465665933188</v>
+        <v>59.74465665932998</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>-7.98469251584594</v>
+        <v>-7.984692515845684</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>54.23941281031603</v>
+        <v>54.23941281031606</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>61.63410987492473</v>
+        <v>61.63410987492571</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>9.856336285569576</v>
+        <v>9.856336285569185</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>55.01252657247002</v>
+        <v>55.01252657247043</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>-16.04110351954248</v>
+        <v>-16.0411035195416</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>55.10459059991984</v>
+        <v>55.10459059992087</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>62.84046378780764</v>
+        <v>62.84046378780942</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>8.011383124016454</v>
+        <v>8.011383124017357</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>49.20212904460082</v>
+        <v>49.20212904460001</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>-15.1249007235025</v>
+        <v>-15.12490072350441</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>52.73268697887585</v>
+        <v>52.73268697887566</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-0.6684693206144567</v>
+        <v>-0.6684693206132204</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>33.4312397331779</v>
+        <v>33.43123973317884</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-16.36520392989594</v>
+        <v>-16.36520392989618</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>43.65076203194054</v>
+        <v>43.65076203194072</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>0.423160905845541</v>
+        <v>0.423160905846685</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>38.34160614652985</v>
+        <v>38.34160614653273</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-18.91775304841173</v>
+        <v>-18.9177530484128</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>15.37735213877934</v>
+        <v>15.37735213877791</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>64.60384132895177</v>
+        <v>64.60384132895516</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>-0.6482547037508732</v>
+        <v>-0.6482547037507951</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>61.05506129784129</v>
+        <v>61.05506129784275</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>20.20426916217799</v>
+        <v>20.20426916217778</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>75.87880844923005</v>
+        <v>75.87880844923032</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>2.720040807483541</v>
+        <v>2.720040807484167</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>11.51769001121234</v>
+        <v>11.51769001121297</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>61.88990003665844</v>
+        <v>61.88990003666138</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-6.293249400905951</v>
+        <v>-6.293249400906206</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>62.87175438574434</v>
+        <v>62.87175438574435</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>18.84682868202702</v>
+        <v>18.84682868202623</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>76.84560215083414</v>
+        <v>76.84560215083312</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>0.6139315828191831</v>
+        <v>0.6139315828180463</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>8.433841475771693</v>
+        <v>8.43384147577239</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>52.85494309361326</v>
+        <v>52.85494309361376</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-7.70359773947768</v>
+        <v>-7.703597739477567</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>66.95881762632411</v>
+        <v>66.95881762632371</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>19.10850033372323</v>
+        <v>19.10850033372122</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>69.40215385385785</v>
+        <v>69.40215385385891</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>0.2955597142395083</v>
+        <v>0.2955597142395652</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>10.15426099803392</v>
+        <v>10.15426099803449</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-6.778119373198721</v>
+        <v>-6.778119373195239</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>3.311029187786466</v>
+        <v>3.311029187789315</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-14.11777293455894</v>
+        <v>-14.11777293456007</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>17.84177845183557</v>
+        <v>17.8417784518336</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>19.48800560174141</v>
+        <v>19.48800560174316</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>2.532161220005867</v>
+        <v>2.532161220003657</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>24.05160492599953</v>
+        <v>24.05160492600038</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>-6.920881401162387</v>
+        <v>-6.920881401163094</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>36.91060112387279</v>
+        <v>36.91060112387252</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>19.12101224527643</v>
+        <v>19.12101224527893</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>-2.975555458314703</v>
+        <v>-2.975555458312898</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>18.70398765433267</v>
+        <v>18.7039876543352</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>-15.24614717204376</v>
+        <v>-15.24614717204303</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>35.45012162901532</v>
+        <v>35.45012162901467</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>17.70712647780284</v>
+        <v>17.70712647780258</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-5.773924736786598</v>
+        <v>-5.773924736788872</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>10.81772449321097</v>
+        <v>10.81772449321325</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-14.85065962945205</v>
+        <v>-14.85065962945105</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.3870672008518</v>
+        <v>29.38706720085158</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-5.346951555890642</v>
+        <v>-5.346951555890663</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>4.221327800813525</v>
+        <v>4.221327800812012</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-13.32056037462009</v>
+        <v>-13.32056037462151</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.7487111258826</v>
+        <v>29.74871112588266</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-0.1915477832419521</v>
+        <v>-0.1915477832416395</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>14.5104535922464</v>
+        <v>14.51045359224575</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-13.99397238809439</v>
+        <v>-13.99397238809489</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>11.10366289789982</v>
+        <v>11.10366289789935</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>35.73707255428251</v>
+        <v>35.73707255428435</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>2.279459132415076</v>
+        <v>2.279459132415048</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>54.8622746042309</v>
+        <v>54.86227460423024</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>25.64737876909096</v>
+        <v>25.64737876909113</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>57.90143477349547</v>
+        <v>57.9014347734984</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>12.482964006644</v>
+        <v>12.48296400664268</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>4.998276303988603</v>
+        <v>4.998276303988901</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>30.20501621212371</v>
+        <v>30.2050162121263</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-5.515633515226555</v>
+        <v>-5.515633515227052</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>54.78164540863366</v>
+        <v>54.78164540863298</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>22.31526166996692</v>
+        <v>22.31526166996467</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>56.20674187692592</v>
+        <v>56.20674187692652</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>8.401761839704371</v>
+        <v>8.401761839706417</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>-0.3261171815557029</v>
+        <v>-0.3261171815561932</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>17.56816619799687</v>
+        <v>17.56816619799755</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>-8.52898701079053</v>
+        <v>-8.528987010790999</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>50.09819951409212</v>
+        <v>50.09819951409113</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>15.6000778385709</v>
+        <v>15.60007783857331</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>40.54658246408555</v>
+        <v>40.54658246408649</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>2.310550826787625</v>
+        <v>2.310550826787085</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>22.17861655564422</v>
+        <v>22.17861655564286</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>-11.80092848403815</v>
+        <v>-11.80092848403888</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>10.69754574233732</v>
+        <v>10.69754574233954</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>-27.14342034124782</v>
+        <v>-27.14342034124896</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>31.80537492671449</v>
+        <v>31.80537492671411</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>31.12888972426988</v>
+        <v>31.12888972426702</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>-3.24403943979349</v>
+        <v>-3.244039439796897</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>30.27815080139728</v>
+        <v>30.27815080139721</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>-21.56188008644648</v>
+        <v>-21.56188008644415</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>48.90780872225106</v>
+        <v>48.90780872225031</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>32.75691956215856</v>
+        <v>32.7569195621598</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>-6.846320008372271</v>
+        <v>-6.846320008374339</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>27.01867199245739</v>
+        <v>27.01867199245616</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>-28.21057841450152</v>
+        <v>-28.21057841449949</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>49.75216349941962</v>
+        <v>49.75216349942138</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>33.00485610883356</v>
+        <v>33.00485610883113</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-8.067629148076378</v>
+        <v>-8.067629148078517</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>21.71355303751859</v>
+        <v>21.71355303751786</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-25.64221197989911</v>
+        <v>-25.64221197990042</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>46.68469618234306</v>
+        <v>46.68469618234064</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>3.559360467471598</v>
+        <v>3.559360467470149</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.15960499522124</v>
+        <v>28.15960499522333</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>-7.591830622883252</v>
+        <v>-7.591830622883358</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>41.32051900626558</v>
+        <v>41.32051900626482</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>6.572903886072473</v>
+        <v>6.572903886072331</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>36.63117106993695</v>
+        <v>36.63117106993693</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-9.55883764393451</v>
+        <v>-9.558837643936165</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>18.07070351114257</v>
+        <v>18.0707035111424</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>57.2304656993334</v>
+        <v>57.23046569933295</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>5.550636263763074</v>
+        <v>5.550636263763621</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>59.57973708142258</v>
+        <v>59.57973708142082</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>25.76607746159333</v>
+        <v>25.76607746159147</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>73.0433801776486</v>
+        <v>73.04338017764941</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>10.10187911271438</v>
+        <v>10.10187911271249</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>14.06101559403024</v>
+        <v>14.06101559402786</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>54.05618068993123</v>
+        <v>54.05618068993155</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-0.4114003573123961</v>
+        <v>-0.4114003573132274</v>
       </c>
     </row>
     <row r="519">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>23.89684767434421</v>
+        <v>23.89684767434238</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>73.10456038736847</v>
+        <v>73.10456038736963</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>7.34674519338953</v>
+        <v>7.346745193389984</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>11.7135793640739</v>
+        <v>11.71357936407314</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>45.64207627793191</v>
+        <v>45.64207627793082</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>0.03096092578976251</v>
+        <v>0.03096092578989751</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>63.25451910520573</v>
+        <v>63.25451910520547</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>24.03484273029421</v>
+        <v>24.03484273029306</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>65.39624045672835</v>
+        <v>65.39624045673062</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>8.353393631983273</v>
+        <v>8.353393631983074</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>21.27510155900173</v>
+        <v>21.27510155900307</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>1.366603105794126</v>
+        <v>1.366603105791586</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>14.3285555664613</v>
+        <v>14.32855556646236</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-6.518636063294506</v>
+        <v>-6.51863606329328</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>13.17585156078212</v>
+        <v>13.17585156078007</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>26.07321019366524</v>
+        <v>26.07321019366566</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>6.529422115273991</v>
+        <v>6.529422115273749</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>28.78908786258429</v>
+        <v>28.78908786258741</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-3.502236871892483</v>
+        <v>-3.502236871890784</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>27.34282105228045</v>
+        <v>27.34282105227922</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>26.24157500655985</v>
+        <v>26.2415750065614</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>1.379378955651663</v>
+        <v>1.379378955652743</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>23.64509985593966</v>
+        <v>23.64509985594052</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-11.68660518114593</v>
+        <v>-11.68660518114456</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>27.20673147607772</v>
+        <v>27.20673147607583</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>28.0474046298218</v>
+        <v>28.04740462982217</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>1.441548106550221</v>
+        <v>1.441548106549567</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>20.77118891510423</v>
+        <v>20.77118891510499</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-8.300284099883346</v>
+        <v>-8.300284099882266</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>24.20330798280389</v>
+        <v>24.20330798280656</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-8.760573941470369</v>
+        <v>-8.760573941470206</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>2.485105007342155</v>
+        <v>2.485105007342766</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-16.17623542615486</v>
+        <v>-16.17623542615404</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>26.0383269834911</v>
+        <v>26.03832698348931</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-3.235305145111441</v>
+        <v>-3.235305145111604</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>16.15959951589934</v>
+        <v>16.15959951589942</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-16.98943765795764</v>
+        <v>-16.98943765795818</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>3.123066201440365</v>
+        <v>3.123066201438937</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>26.84254116281027</v>
+        <v>26.84254116281034</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-5.240726790502699</v>
+        <v>-5.240726790500539</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>43.8430684909293</v>
+        <v>43.84306849093164</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>15.61861213253653</v>
+        <v>15.61861213253587</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>50.04751629452122</v>
+        <v>50.04751629451994</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>2.410330558752199</v>
+        <v>2.41033055875156</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-1.969582224142074</v>
+        <v>-1.969582224143523</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>22.21617996168278</v>
+        <v>22.2161799616833</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-12.32904119050441</v>
+        <v>-12.32904119050459</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>44.6332431816944</v>
+        <v>44.63324318169614</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>12.98234685801403</v>
+        <v>12.98234685801277</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>49.00344685327991</v>
+        <v>49.00344685328037</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-1.199642504324054</v>
+        <v>-1.199642504323358</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-4.377587011728928</v>
+        <v>-4.377587011729141</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>15.07368171667479</v>
+        <v>15.07368171667241</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>-12.19119585846786</v>
+        <v>-12.19119585846637</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>45.25347221094178</v>
+        <v>45.25347221094152</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>11.4646078129916</v>
+        <v>11.46460781298973</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>41.16621837674109</v>
+        <v>41.16621837674253</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-1.852568291538824</v>
+        <v>-1.852568291537744</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>2.551753787896028</v>
+        <v>2.551753787896895</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>-10.75260478126273</v>
+        <v>-10.75260478126293</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-6.097399709305095</v>
+        <v>-6.097399709304839</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>-15.90529451392097</v>
+        <v>-15.90529451391987</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>4.002135475931147</v>
+        <v>4.002135475928582</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>5.722604390314284</v>
+        <v>5.722604390311491</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-7.970187712887189</v>
+        <v>-7.970187712887122</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>4.829738919278305</v>
+        <v>4.82973891928093</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-15.82660105046397</v>
+        <v>-15.82660105046</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>15.11666957246757</v>
+        <v>15.11666957246708</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>6.828977339154416</v>
+        <v>6.828977339154984</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-12.05574380070684</v>
+        <v>-12.05574380070981</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>0.7881719431036123</v>
+        <v>0.788171943104877</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-22.95772065564677</v>
+        <v>-22.95772065564653</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>15.21133131079291</v>
+        <v>15.21133131079436</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>8.9452077321628</v>
+        <v>8.945207732164366</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-10.77388849440901</v>
+        <v>-10.77388849440511</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>-0.3759454459649456</v>
+        <v>-0.3759454459655283</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>-17.84457614437119</v>
+        <v>-17.84457614437125</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>13.65476140064243</v>
+        <v>13.65476140064288</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-11.334712439715</v>
+        <v>-11.33471243971518</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-6.371627877019244</v>
+        <v>-6.371627877018555</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>-15.82899925454443</v>
+        <v>-15.82899925454636</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>18.01653867870419</v>
+        <v>18.01653867870326</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-4.652600510861363</v>
+        <v>-4.652600510859963</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>9.124798375337129</v>
+        <v>9.124798375337754</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-15.72677550833649</v>
+        <v>-15.72677550833941</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-2.937957858842538</v>
+        <v>-2.937957858842993</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>13.17890195893899</v>
+        <v>13.17890195893863</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-8.860324317986322</v>
+        <v>-8.860324317988457</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>32.9378203209592</v>
+        <v>32.93782032096023</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>10.82588126248785</v>
+        <v>10.82588126248857</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>38.2774322677387</v>
+        <v>38.27743226773962</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-0.222749733123444</v>
+        <v>-0.2227497331224351</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-7.658408964286544</v>
+        <v>-7.658408964287532</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>8.889627083129248</v>
+        <v>8.889627083128246</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-15.59890574217245</v>
+        <v>-15.59890574217383</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>33.83104087080423</v>
+        <v>33.83104087080341</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>8.385762078657528</v>
+        <v>8.385762078658153</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>37.30629026670939</v>
+        <v>37.30629026671144</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>-3.691647815141267</v>
+        <v>-3.691647815139647</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>-7.9876435698244</v>
+        <v>-7.98764356982558</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>4.457108211454105</v>
+        <v>4.457108211453778</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>-12.94170151937474</v>
+        <v>-12.94170151937696</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>35.58183021398069</v>
+        <v>35.58183021397935</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>8.671787947468601</v>
+        <v>8.671787947468815</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>31.92379840910967</v>
+        <v>31.92379840911112</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>-2.058168164026008</v>
+        <v>-2.058168164027451</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>20.34435036703912</v>
+        <v>20.34435036704026</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>-5.03919390489525</v>
+        <v>-5.039193904896195</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>9.315672964464021</v>
+        <v>9.315672964462351</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-13.40440083326277</v>
+        <v>-13.40440083326202</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>19.54534834673852</v>
+        <v>19.54534834674035</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>31.7313268358725</v>
+        <v>31.73132683587382</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>6.011063506442759</v>
+        <v>6.011063506443647</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>33.4837038319711</v>
+        <v>33.48370383196934</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>-4.951517406064501</v>
+        <v>-4.951517406067759</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>39.39423359022435</v>
+        <v>39.39423359022232</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>33.92522876535801</v>
+        <v>33.92522876535623</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>2.646082774590446</v>
+        <v>2.646082774592002</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>31.46979757504679</v>
+        <v>31.46979757504592</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>-11.50645826001565</v>
+        <v>-11.50645826001518</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>40.29784910119421</v>
+        <v>40.29784910119479</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>32.52089581575299</v>
+        <v>32.52089581575424</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-0.2498976583648735</v>
+        <v>-0.2498976583672965</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>22.88940345275231</v>
+        <v>22.8894034527514</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-10.73208054256405</v>
+        <v>-10.73208054256281</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>37.21381911753096</v>
+        <v>37.21381911753113</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-5.899939440285622</v>
+        <v>-5.899939440283483</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>9.748953745942075</v>
+        <v>9.748953745942664</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>-13.44095693440426</v>
+        <v>-13.44095693440529</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>29.56086751607673</v>
+        <v>29.56086751607464</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-2.641736417588285</v>
+        <v>-2.641736417587361</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>17.69129166059809</v>
+        <v>17.69129166059968</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>-16.52141137614554</v>
+        <v>-16.52141137614851</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>11.45739490254969</v>
+        <v>11.45739490254761</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>44.37218569787057</v>
+        <v>44.37218569787016</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>3.485117459833943</v>
+        <v>3.485117459834526</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>54.60188269352006</v>
+        <v>54.6018826935196</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>24.65864362272243</v>
+        <v>24.6586436227257</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>65.08782975447835</v>
+        <v>65.08782975447721</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>12.62093206781552</v>
+        <v>12.62093206781429</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>7.579803567197579</v>
+        <v>7.579803567197763</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>42.44344725350158</v>
+        <v>42.44344725350087</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>-2.179678192900782</v>
+        <v>-2.179678192898707</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>56.61971430153247</v>
+        <v>56.61971430153117</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>23.35528297922264</v>
+        <v>23.35528297922141</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>66.75093754206125</v>
+        <v>66.7509375420607</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>10.49122005900328</v>
+        <v>10.49122005900369</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>4.929151444851853</v>
+        <v>4.929151444852535</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>31.72721055933047</v>
+        <v>31.72721055932694</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>-2.844434125971959</v>
+        <v>-2.844434125971575</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>55.83869292327971</v>
+        <v>55.83869292327902</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>18.81428010718469</v>
+        <v>18.81428010718314</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>52.19359555910166</v>
+        <v>52.19359555910426</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>5.414215933863878</v>
+        <v>5.414215933864674</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>39.91257350482956</v>
+        <v>39.91257350482957</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>11.79793122741446</v>
+        <v>11.79793122741452</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>35.52208546841756</v>
+        <v>35.52208546841744</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>-0.6164300074705844</v>
+        <v>-0.6164300074689999</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>33.59840567638388</v>
+        <v>33.59840567638489</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>49.31960541900387</v>
+        <v>49.31960541900356</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>21.60803217246787</v>
+        <v>21.60803217246781</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>57.05383050360796</v>
+        <v>57.05383050360843</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>7.176215397146286</v>
+        <v>7.176215397146371</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>51.65967908085731</v>
+        <v>51.65967908085653</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>49.4463288373209</v>
+        <v>49.44632883732204</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>16.7073069948545</v>
+        <v>16.70730699485449</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>52.29385404106076</v>
+        <v>52.29385404106223</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>-0.5377797121821439</v>
+        <v>-0.5377797121819663</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>51.11498244096465</v>
+        <v>51.11498244096335</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>49.89487696418065</v>
+        <v>49.89487696418049</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>15.13825072162811</v>
+        <v>15.13825072163026</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>45.8705578684065</v>
+        <v>45.87055786840671</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>0.8699627505834746</v>
+        <v>0.8699627505840999</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>47.29424677621963</v>
+        <v>47.29424677621781</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>3.999778018814047</v>
+        <v>3.999778018811809</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>25.50413260217726</v>
+        <v>25.50413260217807</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>-6.747546511936528</v>
+        <v>-6.747546511935369</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>40.38930068626822</v>
+        <v>40.3893006862686</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>4.480696354624135</v>
+        <v>4.480696354622686</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>30.26997956287745</v>
+        <v>30.26997956287808</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>-11.10765793738636</v>
+        <v>-11.10765793738454</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>19.87328620879171</v>
+        <v>19.8732862087924</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>56.57983035372109</v>
+        <v>56.5798303537226</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>8.388627062526055</v>
+        <v>8.388627062525195</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>60.95368196275484</v>
+        <v>60.95368196275512</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>26.08081579734162</v>
+        <v>26.08081579734181</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>69.54646774026064</v>
+        <v>69.54646774026071</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>11.25772242837335</v>
+        <v>11.25772242837429</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>14.72527941275956</v>
+        <v>14.72527941275854</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>52.04103113315661</v>
+        <v>52.04103113315678</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>1.517639659639136</v>
+        <v>1.517639659640344</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>61.08154544601742</v>
+        <v>61.08154544601811</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>23.09822286368112</v>
+        <v>23.09822286368119</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>68.2552931993305</v>
+        <v>68.25529319932951</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>7.551457781589497</v>
+        <v>7.551457781589924</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>11.18464855594486</v>
+        <v>11.18464855594571</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>41.53022305652856</v>
+        <v>41.53022305652859</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>0.1574074941297772</v>
+        <v>0.1574074941302177</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>61.2521139289269</v>
+        <v>61.2521139289273</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>20.94414392728046</v>
+        <v>20.94414392728056</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>57.47945344052049</v>
+        <v>57.47945344052078</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>5.954445875890449</v>
+        <v>5.954445875890392</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>41.76477159247232</v>
+        <v>41.76477159247258</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>1.53186737150974</v>
+        <v>1.531867371507729</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>26.75894580717851</v>
+        <v>26.75894580717711</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-14.35889937761108</v>
+        <v>-14.35889937761236</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>33.19151113969878</v>
+        <v>33.19151113969593</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>53.94058694078226</v>
+        <v>53.94058694078104</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>13.32986530853651</v>
+        <v>13.32986530853302</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>52.29757043185231</v>
+        <v>52.29757043185186</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>-5.195990347358252</v>
+        <v>-5.195990347356571</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>52.43309302746471</v>
+        <v>52.43309302746152</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>56.08284052458428</v>
+        <v>56.08284052458693</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>10.12772434099711</v>
+        <v>10.12772434099459</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>50.56316878239855</v>
+        <v>50.56316878239747</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>-11.46382656598076</v>
+        <v>-11.46382656598087</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>53.5313719481698</v>
+        <v>53.53137194817008</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>55.62004651701244</v>
+        <v>55.62004651701063</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>7.854498950132423</v>
+        <v>7.854498950131506</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>42.38438799181006</v>
+        <v>42.38438799181183</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-10.28114676812235</v>
+        <v>-10.28114676812268</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>52.34724574761692</v>
+        <v>52.34724574761253</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-1.275238408145058</v>
+        <v>-1.275238408146977</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>24.46095886302073</v>
+        <v>24.46095886302465</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>-13.88229622535203</v>
+        <v>-13.88229622535474</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>40.70267217443411</v>
+        <v>40.70267217443344</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>0.7345729547128235</v>
+        <v>0.7345729547125677</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.39211872194053</v>
+        <v>29.39211872194182</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>-16.87502200390806</v>
+        <v>-16.87502200390917</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>15.57525441832746</v>
+        <v>15.5752544183265</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>59.12934228979999</v>
+        <v>59.12934228980073</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>2.598696350025903</v>
+        <v>2.598696350024588</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>61.917213560409</v>
+        <v>61.9172135604077</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>24.23530858214778</v>
+        <v>24.2353085821484</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>73.42242299129344</v>
+        <v>73.42242299129377</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>8.644114120105321</v>
+        <v>8.64411412010525</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>12.03951686691772</v>
+        <v>12.03951686691413</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>57.70843430438315</v>
+        <v>57.70843430438133</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>-2.640104532224584</v>
+        <v>-2.64010453222521</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>63.59524065281157</v>
+        <v>63.59524065281065</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>22.76561884389643</v>
+        <v>22.76561884389591</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>75.06037940695022</v>
+        <v>75.06037940695158</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>6.449945854000396</v>
+        <v>6.449945854002535</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>11.03749287691794</v>
+        <v>11.03749287691677</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>48.46600877398001</v>
+        <v>48.46600877397758</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>-1.872109682922429</v>
+        <v>-1.872109682922912</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>66.99234116864375</v>
+        <v>66.99234116864254</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>22.26345865930231</v>
+        <v>22.26345865930548</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>64.40694552886646</v>
+        <v>64.40694552886771</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>5.165025377872971</v>
+        <v>5.165025377872261</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>41.26669706192882</v>
+        <v>41.26669706192815</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>8.274128216449252</v>
+        <v>8.274128216447913</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>27.07623540487609</v>
+        <v>27.07623540487933</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>-3.343746432691153</v>
+        <v>-3.343746432690954</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>40.04072095496961</v>
+        <v>40.0407209549672</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>52.5759899201749</v>
+        <v>52.57598992017404</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>18.87978191892461</v>
+        <v>18.87978191892675</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>50.36161731029996</v>
+        <v>50.36161731029889</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>4.467291861989788</v>
+        <v>4.467291861988513</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>57.95402923017365</v>
+        <v>57.95402923017645</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>55.9476258009154</v>
+        <v>55.94762580091648</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>17.06388113007281</v>
+        <v>17.06388113007332</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>50.11255196223976</v>
+        <v>50.11255196223861</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>-0.4504945633194888</v>
+        <v>-0.450494563321084</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>59.56793640410874</v>
+        <v>59.56793640411131</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>55.50860287797634</v>
+        <v>55.50860287797838</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>15.3444927465952</v>
+        <v>15.34449274659692</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>43.00031636780557</v>
+        <v>43.00031636780601</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>1.486120352523307</v>
+        <v>1.486120352522817</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>58.93664634207078</v>
+        <v>58.93664634207398</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>9.147159096718902</v>
+        <v>9.147159096715093</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.67307543511865</v>
+        <v>28.6730754351195</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-0.9143804464541825</v>
+        <v>-0.9143804464547722</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>45.0060470068539</v>
+        <v>45.00604700685192</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>9.052093977320176</v>
+        <v>9.052093977319537</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>31.71127025175014</v>
+        <v>31.7112702517479</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>-6.544257037639079</v>
+        <v>-6.544257037639526</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>24.39414081873759</v>
+        <v>24.39414081873606</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>60.42372486465192</v>
+        <v>60.42372486465032</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>13.72781740083715</v>
+        <v>13.72781740083889</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>66.82096234766459</v>
+        <v>66.82096234766595</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>32.91784436232406</v>
+        <v>32.91784436232368</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>74.71217101210046</v>
+        <v>74.71217101209899</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>18.99980286515896</v>
+        <v>18.99980286515894</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>21.60934971614866</v>
+        <v>21.60934971614832</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>59.78991090914883</v>
+        <v>59.78991090914904</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>9.215363768112134</v>
+        <v>9.215363768113541</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>69.02195564886193</v>
+        <v>69.02195564886102</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>32.09359592599572</v>
+        <v>32.09359592599576</v>
       </c>
     </row>
     <row r="809">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>17.35761629115567</v>
+        <v>17.35761629115546</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>21.5309358463365</v>
+        <v>21.53093584633443</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>52.1640111865991</v>
+        <v>52.16401118659822</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>11.09920881408841</v>
+        <v>11.099208814089</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>70.92430414619463</v>
+        <v>70.92430414619089</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>30.38992001151168</v>
+        <v>30.38992001151308</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>65.80846131294358</v>
+        <v>65.80846131294466</v>
       </c>
     </row>
     <row r="817">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>32.99687721133625</v>
+        <v>32.99687721133574</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>0.3564658584455449</v>
+        <v>0.3564658584443867</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>25.96224513663465</v>
+        <v>25.96224513663531</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-13.60015666789522</v>
+        <v>-13.60015666789985</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>27.93113502937462</v>
+        <v>27.93113502937526</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>47.44127899270192</v>
+        <v>47.44127899270443</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>14.54041865928082</v>
+        <v>14.54041865928107</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>54.26696098094622</v>
+        <v>54.26696098094668</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-1.981136717022594</v>
+        <v>-1.981136717024499</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>50.4185739317434</v>
+        <v>50.4185739317421</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>48.15846018906316</v>
+        <v>48.15846018906453</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>9.815316031350626</v>
+        <v>9.815316031349539</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>50.18064421652592</v>
+        <v>50.18064421652364</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>-9.734001435123904</v>
+        <v>-9.73400143512551</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>50.10692246807307</v>
+        <v>50.10692246806978</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>45.17614643830456</v>
+        <v>45.17614643830482</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>5.170918583286407</v>
+        <v>5.170918583286464</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>39.08198904083726</v>
+        <v>39.08198904083692</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>-10.86897888325633</v>
+        <v>-10.86897888325761</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>44.2991046935003</v>
+        <v>44.29910469349791</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>-4.369859797042374</v>
+        <v>-4.369859797045465</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>20.14403755891657</v>
+        <v>20.14403755891902</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>-15.99760181403066</v>
+        <v>-15.99760181403348</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>35.55200961081005</v>
+        <v>35.55200961080944</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>-3.353514138646724</v>
+        <v>-3.353514138645999</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>24.27810952939839</v>
+        <v>24.27810952939812</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>-20.27807867535471</v>
+        <v>-20.27807867535642</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>15.3500930959641</v>
+        <v>15.35009309596445</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>58.05398778293086</v>
+        <v>58.05398778293103</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>2.928787308882341</v>
+        <v>2.928787308882881</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>60.88557411491792</v>
+        <v>60.88557411491856</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>23.08027586535646</v>
+        <v>23.08027586535312</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>71.59192636824095</v>
+        <v>71.59192636823994</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>7.229780042869726</v>
+        <v>7.229780042866557</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>10.16390520589521</v>
+        <v>10.16390520589737</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>54.05970012282985</v>
+        <v>54.0597001228292</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-4.012346573255102</v>
+        <v>-4.012346573254377</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>61.38254804289583</v>
+        <v>61.38254804289515</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>20.26893109309631</v>
+        <v>20.26893109309187</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>71.07542593068594</v>
+        <v>71.07542593068386</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>3.708211163787602</v>
+        <v>3.708211163787943</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>4.959369471856959</v>
+        <v>4.95936947185698</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>39.91922660598408</v>
+        <v>39.91922660598321</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>-6.922727554770021</v>
+        <v>-6.922727554769922</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>59.57803992039172</v>
+        <v>59.57803992039236</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>15.8428822056806</v>
+        <v>15.84288220567556</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>55.84807845464967</v>
+        <v>55.84807845464889</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>-0.4334005191436114</v>
+        <v>-0.4334005191426167</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>17.32983287295671</v>
+        <v>17.32983287295747</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>-5.152278241678673</v>
+        <v>-5.152278241678183</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>7.083917668351183</v>
+        <v>7.083917668353336</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>-13.86263266740741</v>
+        <v>-13.86263266740686</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>24.2013946176688</v>
+        <v>24.20139461767319</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>26.51836339443886</v>
+        <v>26.51836339443816</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>2.959596826207199</v>
+        <v>2.959596826208982</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>27.17861083899044</v>
+        <v>27.1786108389914</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-8.259687596877619</v>
+        <v>-8.259687596879211</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>44.36154958987871</v>
+        <v>44.36154958988028</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>27.48437704036789</v>
+        <v>27.4843770403674</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>-1.274616507220192</v>
+        <v>-1.27461650721946</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>23.95275218048782</v>
+        <v>23.95275218048921</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>-15.38892593745689</v>
+        <v>-15.3889259374585</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>44.29321815018597</v>
+        <v>44.29321815018724</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>27.9230548831964</v>
+        <v>27.92305488319669</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>-1.557127092113306</v>
+        <v>-1.557127092110933</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>18.45234264682881</v>
+        <v>18.45234264683089</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-12.25912123273795</v>
+        <v>-12.25912123273863</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>40.64566757028175</v>
+        <v>40.64566757028031</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>-1.521036438404672</v>
+        <v>-1.52103643840426</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>12.5501044388803</v>
+        <v>12.55010443888105</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>-9.880109817230036</v>
+        <v>-9.880109817231649</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.69484748193669</v>
+        <v>29.69484748193677</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-4.054565407139656</v>
+        <v>-4.0545654071395</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>13.85122285530871</v>
+        <v>13.85122285530786</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>-18.45638206481559</v>
+        <v>-18.45638206481473</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>15.30871806966605</v>
+        <v>15.30871806966584</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>45.3941915761866</v>
+        <v>45.39419157618193</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>6.160608489947228</v>
+        <v>6.160608489944997</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>57.25652457926171</v>
+        <v>57.25652457926415</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>24.48799389535376</v>
+        <v>24.48799389535316</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>61.15898236045482</v>
+        <v>61.15898236045535</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>11.10512662897145</v>
+        <v>11.10512662897352</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>10.768079102615</v>
+        <v>10.76807910261387</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>42.3808384928525</v>
+        <v>42.38083849285204</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>0.002739601205880682</v>
+        <v>0.002739601204900133</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>58.46547979569394</v>
+        <v>58.46547979569472</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>22.56009336949403</v>
+        <v>22.56009336949482</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>61.73152889468626</v>
+        <v>61.73152889468785</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>8.419767753501056</v>
+        <v>8.419767753501574</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>8.319816771343859</v>
+        <v>8.319816771344705</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>32.3330462733047</v>
+        <v>32.333046273307</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>-0.3422302036834504</v>
+        <v>-0.3422302036822567</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>54.29869233746896</v>
+        <v>54.29869233747045</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>15.74709736069354</v>
+        <v>15.74709736069445</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>45.3666571734292</v>
+        <v>45.36665717342974</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>1.661796215691587</v>
+        <v>1.661796215690621</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>29.33210106037943</v>
+        <v>29.33210106037922</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>-0.1936016936578584</v>
+        <v>-0.1936016936591125</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>16.01574715884309</v>
+        <v>16.01574715884572</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>-9.766415159089817</v>
+        <v>-9.766415159089117</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>26.38842598979832</v>
+        <v>26.38842598979824</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>40.91985178144768</v>
+        <v>40.91985178144868</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>10.80677318902777</v>
+        <v>10.80677318902889</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>39.5458597729053</v>
+        <v>39.54585977290643</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>-1.424114208205823</v>
+        <v>-1.42411420820832</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>44.79604740882224</v>
+        <v>44.79604740882031</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>44.81739075615675</v>
+        <v>44.81739075615797</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>9.529241788266855</v>
+        <v>9.529241788266138</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>39.8429155651197</v>
+        <v>39.84291556512073</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>-5.807299046027731</v>
+        <v>-5.807299046028764</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>46.93776340223395</v>
+        <v>46.93776340223389</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>43.67799524771741</v>
+        <v>43.67799524771772</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>7.104819775697712</v>
+        <v>7.104819775698025</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>32.03127024441369</v>
+        <v>32.0312702444146</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>-4.655797041931607</v>
+        <v>-4.655797041930286</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>45.36912907748692</v>
+        <v>45.36912907748603</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>-2.515249459385076</v>
+        <v>-2.515249459383299</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>14.06602673619751</v>
+        <v>14.06602673619882</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>-11.09021297494797</v>
+        <v>-11.0902129749495</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>31.27741120697214</v>
+        <v>31.27741120697183</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>-3.102923502867946</v>
+        <v>-3.102923502865488</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>16.71420378816541</v>
+        <v>16.71420378816581</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>-17.35167951897677</v>
+        <v>-17.35167951897905</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>13.31862146394541</v>
+        <v>13.31862146394738</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>46.21670524435413</v>
+        <v>46.21670524435513</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>4.215411288752875</v>
+        <v>4.215411288754637</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>54.23217774902843</v>
+        <v>54.23217774902896</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>21.96364747418551</v>
+        <v>21.96364747418606</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>60.70693105048646</v>
+        <v>60.70693105048674</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>9.418550498849406</v>
+        <v>9.418550498849861</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>11.08664787989209</v>
+        <v>11.08664787989402</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>46.13322568628082</v>
+        <v>46.13322568628557</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>0.2447842362700277</v>
+        <v>0.2447842362710508</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>56.98982912481604</v>
+        <v>56.98982912481591</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>21.69648577974419</v>
+        <v>21.69648577974598</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>63.47884142683455</v>
+        <v>63.47884142683614</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>8.306336937748654</v>
+        <v>8.306336937749542</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>10.03801554597311</v>
+        <v>10.0380155459733</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>37.5521076033864</v>
+        <v>37.55210760338628</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>1.10803626524187</v>
+        <v>1.108036265243149</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>57.37151187301753</v>
+        <v>57.37151187301392</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>18.44380936107247</v>
+        <v>18.44380936107186</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>50.8387409152778</v>
+        <v>50.83874091527735</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>4.511222988842611</v>
+        <v>4.511222988845978</v>
       </c>
     </row>
     <row r="962">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>10.59014374734361</v>
+        <v>10.59014374734416</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>33.54886865337225</v>
+        <v>33.54886865337107</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>-2.507161891587608</v>
+        <v>-2.507161891588326</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>37.47179411661648</v>
+        <v>37.47179411661206</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>53.19861039919352</v>
+        <v>53.19861039919395</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>18.52559031330156</v>
+        <v>18.52559031330076</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>53.32195277888886</v>
+        <v>53.32195277888643</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>2.95906789013643</v>
+        <v>2.959067890136743</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>53.37954302349828</v>
+        <v>53.3795430234962</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>54.8300482621277</v>
+        <v>54.83004826212781</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>14.7074107320998</v>
+        <v>14.70741073209965</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>50.39291905118269</v>
+        <v>50.39291905118281</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>-4.076760931049063</v>
+        <v>-4.07676093105128</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>54.49309271174853</v>
+        <v>54.493092711745</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>56.3818075880823</v>
+        <v>56.38180758807932</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>14.06321430004088</v>
+        <v>14.06321430004386</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>45.42639201534204</v>
+        <v>45.42639201534369</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-1.277651554114024</v>
+        <v>-1.277651554117662</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>54.04581593044686</v>
+        <v>54.0458159304462</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>4.418401693934583</v>
+        <v>4.418401693933155</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>28.59787122026748</v>
+        <v>28.59787122026778</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>-6.898843760454313</v>
+        <v>-6.89884376045675</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>40.22660264998659</v>
+        <v>40.22660264998628</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>1.485676297737519</v>
+        <v>1.485676297738222</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>29.3301784241957</v>
+        <v>29.33017842419392</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>-15.51232367029431</v>
+        <v>-15.51232367029494</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>18.03541967121379</v>
+        <v>18.03541967121245</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>57.85528988339482</v>
+        <v>57.85528988339478</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>6.109138662127044</v>
+        <v>6.109138662126205</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>61.45742920673268</v>
+        <v>61.45742920673069</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>24.91221740334366</v>
+        <v>24.91221740334047</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>71.28014733302915</v>
+        <v>71.28014733302946</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>9.615980765508944</v>
+        <v>9.615980765509605</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>14.30362831300047</v>
+        <v>14.3036283130002</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>55.60329946317824</v>
+        <v>55.60329946317867</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>0.4088480854148875</v>
+        <v>0.4088480854131182</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>63.9490356716265</v>
+        <v>63.94903567162483</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>24.03052405433854</v>
+        <v>24.03052405433665</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>73.00849988043971</v>
+        <v>73.00849988043788</v>
       </c>
     </row>
     <row r="1002">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>13.9421523867258</v>
+        <v>13.94215238672381</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>48.8296754586864</v>
+        <v>48.82967545868602</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>2.109653878114933</v>
+        <v>2.109653878113618</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>65.4646261102194</v>
+        <v>65.46462611021761</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>21.74797451256263</v>
+        <v>21.74797451256064</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>62.29864758237556</v>
+        <v>62.29864758237495</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>5.038055084715487</v>
+        <v>5.03805508471526</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>33.03300259562018</v>
+        <v>33.03300259562141</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>-1.496531030527522</v>
+        <v>-1.496531030528801</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>24.68340260563747</v>
+        <v>24.6834026056378</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>-15.89683782136452</v>
+        <v>-15.89683782136333</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>29.28005803450343</v>
+        <v>29.28005803450571</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>49.78982864429183</v>
+        <v>49.78982864429003</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>14.2864435693065</v>
+        <v>14.28644356930489</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>55.01717373539876</v>
+        <v>55.01717373539669</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>-3.091360091764636</v>
+        <v>-3.091360091764082</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>51.88285958853855</v>
+        <v>51.88285958854124</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>51.49661198540959</v>
+        <v>51.49661198541113</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>10.45120632507907</v>
+        <v>10.45120632507975</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>52.05139832071902</v>
+        <v>52.05139832071856</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>-10.07039995292015</v>
+        <v>-10.07039995291662</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>52.12437278564848</v>
+        <v>52.12437278564765</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>46.57939132749487</v>
+        <v>46.5793913274951</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>4.474751742869166</v>
+        <v>4.474751742867524</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>39.3044769709103</v>
+        <v>39.30447697090967</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>-12.1832113895233</v>
+        <v>-12.18321138952212</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>46.55973291847542</v>
+        <v>46.55973291847846</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>-3.996545069386031</v>
+        <v>-3.996545069383743</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>20.86500812918465</v>
+        <v>20.86500812918692</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>-16.0933952532892</v>
+        <v>-16.09339525329111</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>33.72727923712204</v>
+        <v>33.72727923712319</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>-7.172167121322667</v>
+        <v>-7.172167121323093</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>19.14254095071644</v>
+        <v>19.14254095071656</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>-25.13336704821591</v>
+        <v>-25.13336704821406</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>15.14908123229683</v>
+        <v>15.14908123229587</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>58.55889178035275</v>
+        <v>58.55889178035456</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>1.967115731521566</v>
+        <v>1.967115731522305</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>59.56860716854781</v>
+        <v>59.56860716854816</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>19.23868884777568</v>
+        <v>19.23868884777735</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>66.70374360141415</v>
+        <v>66.70374360141832</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>2.176904474519495</v>
+        <v>2.176904474520277</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>10.44843226396378</v>
+        <v>10.44843226396326</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>55.28974151125492</v>
+        <v>55.28974151125276</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>-4.579126665025307</v>
+        <v>-4.579126665023161</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>60.32631414552628</v>
+        <v>60.32631414552662</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>16.62332920191933</v>
+        <v>16.62332920192078</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>66.58127542968022</v>
+        <v>66.58127542968191</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>-1.217305609045845</v>
+        <v>-1.217305609046243</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>6.103489280905911</v>
+        <v>6.103489280906188</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>41.76600218332551</v>
+        <v>41.76600218332714</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>-6.390519713735373</v>
+        <v>-6.390519713737135</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>58.00599888257698</v>
+        <v>58.00599888257802</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>12.09041584751142</v>
+        <v>12.09041584751139</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>51.01431325780023</v>
+        <v>51.01431325780323</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>-5.356760713823058</v>
+        <v>-5.356760713824905</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.569</v>
+        <v>0.572</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.698</v>
+        <v>16.651</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.667</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.282</v>
+        <v>16.061</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.961</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.463</v>
+        <v>3.319</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13.40115763698015</v>
+        <v>11.01411766776417</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6.792069043184222</v>
+        <v>13.25533512258115</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8.893917743576898</v>
+        <v>13.61696288360361</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.889719855305</v>
+        <v>11.08967634467506</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.0436494487416</v>
+        <v>18.14657035759995</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>21.89684321205523</v>
+        <v>18.58086435414492</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>23.34797092769115</v>
+        <v>24.1628534707408</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.48860272033624</v>
+        <v>27.20212514971155</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>14.19822376725699</v>
+        <v>18.84430357910038</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>50.24742033206681</v>
+        <v>49.23674663421891</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>22.82371983825407</v>
+        <v>18.29500836118086</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>20.51560699265515</v>
+        <v>20.56395266850013</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>25.98052867385681</v>
+        <v>23.20991371494905</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>7.249976787307169</v>
+        <v>13.05518227705262</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>50.36040102260081</v>
+        <v>48.37923450116771</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>24.69193790832595</v>
+        <v>19.71192254534873</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>14.15817705249519</v>
+        <v>16.96438341086757</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>18.37424694508739</v>
+        <v>18.91449541643117</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.686832798082055</v>
+        <v>11.6878513440768</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>49.95333419309476</v>
+        <v>47.70019680473332</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>24.91967456712257</v>
+        <v>25.53076261914881</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>26.76327798395428</v>
+        <v>26.10221554947903</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>13.44324315388628</v>
+        <v>16.15126138179611</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>26.0999663440087</v>
+        <v>22.00811099265356</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.00578104229413</v>
+        <v>26.70364981079207</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>27.29575193052179</v>
+        <v>27.71185172257073</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>11.46341881927319</v>
+        <v>17.82510386059692</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>48.83356471385804</v>
+        <v>47.58746522819067</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>58.82913928352579</v>
+        <v>55.92442012527693</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>36.06136006876999</v>
+        <v>38.9417721267112</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>54.15195172560706</v>
+        <v>49.9548987016466</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>58.96045968448657</v>
+        <v>58.57070310520975</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>72.37999116027551</v>
+        <v>69.92980940197816</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>45.3496770495918</v>
+        <v>49.89745540289377</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>45.5504568888059</v>
+        <v>44.68576235634805</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>54.8638788025382</v>
+        <v>51.66756162736068</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>32.28232108615454</v>
+        <v>35.65854875474081</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>57.17397648170599</v>
+        <v>51.64793410249344</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>56.5109196075949</v>
+        <v>55.39136947670173</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>69.80730122495565</v>
+        <v>66.32597389430333</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>40.32226557225637</v>
+        <v>45.72119331539257</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>37.370632782809</v>
+        <v>37.82882986768338</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>45.16031116364056</v>
+        <v>43.73028884104211</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>27.10858857721998</v>
+        <v>30.22501965284165</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>61.55876055140786</v>
+        <v>56.38632455046007</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>53.35191583258228</v>
+        <v>53.38962138779763</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>64.2877942467241</v>
+        <v>63.22252206554415</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>35.67092855770137</v>
+        <v>41.61099487165232</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>47.03748097437563</v>
+        <v>43.30750408846612</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>25.73579103096843</v>
+        <v>25.4875728441244</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>36.10667537575837</v>
+        <v>33.31106332898095</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>8.577276741771312</v>
+        <v>14.66077947364274</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>30.6165476111388</v>
+        <v>26.28912942856281</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>52.96067326910384</v>
+        <v>47.07114244754755</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>41.86374098019359</v>
+        <v>41.30584261171713</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>56.57156163459793</v>
+        <v>52.88302192762988</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>21.9426269508492</v>
+        <v>31.00259617515298</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>55.87572409561824</v>
+        <v>53.86224264909209</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>50.16181228573035</v>
+        <v>46.19379850765871</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>36.81193969071198</v>
+        <v>36.90372154870171</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>50.37251430883403</v>
+        <v>46.58343763309608</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>12.37406682733458</v>
+        <v>21.68439264991772</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>54.90367991270433</v>
+        <v>50.70394941013845</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>57.28923673855904</v>
+        <v>53.18501323403594</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>37.24473011383718</v>
+        <v>38.5667664020703</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>50.5669727293914</v>
+        <v>49.16224140412938</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>13.33795596303845</v>
+        <v>23.82201693750324</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>53.96190767792972</v>
+        <v>53.03302999104449</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>27.01572540553446</v>
+        <v>30.06368809372032</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>34.03582060566438</v>
+        <v>33.92234338656472</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>12.39144134776022</v>
+        <v>19.61691530216769</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>44.19173957370236</v>
+        <v>43.13814890716951</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>32.68896323573279</v>
+        <v>34.53097824137915</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>40.58099162449135</v>
+        <v>39.13058226216799</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>13.79755798652352</v>
+        <v>20.469312833751</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>47.8681409263914</v>
+        <v>50.03388483232489</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>61.59420259536437</v>
+        <v>61.72312958364697</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>30.4003957160908</v>
+        <v>38.47049314730911</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>63.00172186965352</v>
+        <v>60.1496050237085</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>57.39605855225111</v>
+        <v>57.01565632850333</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>74.36659167278525</v>
+        <v>71.59159053239141</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>35.96771875702932</v>
+        <v>43.59964749558284</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>44.7470104394022</v>
+        <v>46.50608099062785</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>57.6042254754493</v>
+        <v>56.53762862943167</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>27.05715223581897</v>
+        <v>35.03792589318619</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>62.43257226255953</v>
+        <v>59.08212291948445</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>56.16082280819651</v>
+        <v>55.44093871757387</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>73.05072166782915</v>
+        <v>69.19722011438175</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>33.43359740462308</v>
+        <v>41.56670210012596</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>38.80499861341941</v>
+        <v>42.32612829583972</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>50.20415458935325</v>
+        <v>50.48428471069069</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>25.20497558399934</v>
+        <v>34.96498476410531</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>63.78337578915743</v>
+        <v>59.19483539804506</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>54.3590243424436</v>
+        <v>55.39436519605115</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>69.63442005533992</v>
+        <v>67.13638271340346</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>33.7298472936893</v>
+        <v>43.50352524000306</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>35.40379761464374</v>
+        <v>32.49388737367326</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>20.98006891043987</v>
+        <v>20.79575827352998</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.40161443668995</v>
+        <v>26.46632687165119</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>8.404307907519481</v>
+        <v>10.71509119479027</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>31.15303137002515</v>
+        <v>24.93609330452173</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>46.87440910498236</v>
+        <v>44.67239328290328</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>42.09535849352038</v>
+        <v>43.16816399990905</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>54.55454525055248</v>
+        <v>54.56331961650781</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>26.45348864610695</v>
+        <v>31.43654709244945</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>58.39851781432898</v>
+        <v>51.79050212006133</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>45.49439064670877</v>
+        <v>44.13667386162679</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>37.54307170242029</v>
+        <v>38.2929749439979</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>49.14199718364094</v>
+        <v>48.2680689963485</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>16.56028962769566</v>
+        <v>20.43101752048761</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>58.79416803532051</v>
+        <v>52.41114654241076</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>52.17814074539096</v>
+        <v>50.3261927912594</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>38.48634338060843</v>
+        <v>40.08921194817758</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>49.6406187131871</v>
+        <v>50.50990912889635</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>17.88881836725701</v>
+        <v>23.58916946312573</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>56.74571602945291</v>
+        <v>53.60264798113919</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>27.44579071554644</v>
+        <v>30.32627796225175</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>34.59709454903073</v>
+        <v>34.53020710274969</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>12.46951723361519</v>
+        <v>20.16322957919629</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>43.03749962649272</v>
+        <v>40.74391869007502</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>33.11265564972843</v>
+        <v>34.49671292476719</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>40.63208269448995</v>
+        <v>38.83620317711812</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>14.45004441641593</v>
+        <v>21.32441328283782</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>49.32414249062202</v>
+        <v>49.95567703525012</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>63.18521130438765</v>
+        <v>61.73767129022155</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>31.35339485746907</v>
+        <v>38.11000892783069</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>62.92178081477378</v>
+        <v>55.92394870375419</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>58.68866041965825</v>
+        <v>55.62031043157424</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>75.39719514058872</v>
+        <v>69.27306907752728</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>38.00940993272661</v>
+        <v>43.32482533753671</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>47.27334585386725</v>
+        <v>48.40748375072084</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>60.59735332232442</v>
+        <v>59.68642566426274</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>28.66532181869434</v>
+        <v>35.92544011052519</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>63.66851385979697</v>
+        <v>55.75774974988478</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>58.71713082774629</v>
+        <v>55.262566326155</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>75.86270731451904</v>
+        <v>69.12996311356682</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>36.41693697058878</v>
+        <v>41.70955280197349</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>41.30041523403568</v>
+        <v>42.78973187525391</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>53.79583990161534</v>
+        <v>53.81212006270397</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>25.94338346578695</v>
+        <v>32.56685970618398</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>66.74934658136657</v>
+        <v>59.28712037168425</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>58.75249047186658</v>
+        <v>56.33486975662157</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>75.05954185884589</v>
+        <v>70.96803367214179</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>37.49329048201093</v>
+        <v>43.23560142873687</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>13.20820747132687</v>
+        <v>12.04575266018579</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>20.58618206186226</v>
+        <v>26.70133461450135</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>24.97356066128521</v>
+        <v>30.01543522252393</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>28.07449078651003</v>
+        <v>36.99310781096688</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>21.13944912050961</v>
+        <v>15.46737324099954</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>21.34275101225778</v>
+        <v>20.02496618300914</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>36.28517176033448</v>
+        <v>36.56714327539004</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>44.81003561418855</v>
+        <v>42.9992537657296</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>39.00506525070153</v>
+        <v>43.25788680252268</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>50.82285522238725</v>
+        <v>51.83867325795899</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>22.82224192638445</v>
+        <v>19.14095402826663</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>34.28201322497574</v>
+        <v>34.69171082143554</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>42.259835142729</v>
+        <v>41.09048580459291</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>32.99056639995168</v>
+        <v>40.3267165056316</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>50.74817864707726</v>
+        <v>50.8081971299561</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>25.76813479558827</v>
+        <v>21.13492120806355</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>28.95131762161924</v>
+        <v>31.33551847081726</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>35.57923318312406</v>
+        <v>36.90543802433078</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>30.25695666710857</v>
+        <v>39.31309769126266</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>44.79091325683466</v>
+        <v>43.57399536607019</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>22.15792441950377</v>
+        <v>20.11335868701985</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>24.28778434583253</v>
+        <v>20.28732443740051</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>13.13740724793613</v>
+        <v>12.18151711767118</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>24.63795340601331</v>
+        <v>18.07634926338152</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>23.0262784810521</v>
+        <v>21.85015630041874</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>26.55648487228483</v>
+        <v>23.37260433456905</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>13.63912265298821</v>
+        <v>17.58175986501769</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>49.30242040672017</v>
+        <v>48.26118213983921</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>59.2103487886333</v>
+        <v>56.63293730818873</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>37.45209371290721</v>
+        <v>38.04569073178425</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>55.86866049753625</v>
+        <v>53.01682408169484</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>60.74648863333988</v>
+        <v>59.5306314748</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>73.26752770354538</v>
+        <v>70.52510244985012</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>48.0404630907136</v>
+        <v>50.5712877171632</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>45.62336956427754</v>
+        <v>44.86977783572097</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>54.76951057201902</v>
+        <v>52.20163635917945</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>33.34677771022078</v>
+        <v>34.48635701522959</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>57.92555732863283</v>
+        <v>53.18659619997714</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>57.83062788763306</v>
+        <v>56.34100349335129</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>69.78195036945729</v>
+        <v>66.03238239775428</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>42.61007318515151</v>
+        <v>45.76121342263902</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>32.94806293228151</v>
+        <v>31.8019249574938</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>40.53238493104872</v>
+        <v>37.07032063606796</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>24.96686686291114</v>
+        <v>25.67745564187702</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>56.42259994702587</v>
+        <v>50.93222149306024</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>48.6863232288773</v>
+        <v>48.58958322323974</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>58.67145180147928</v>
+        <v>56.64808982236353</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>33.80968291550261</v>
+        <v>40.19505241905718</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>32.58647211129961</v>
+        <v>33.50502911925248</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>11.59476648409085</v>
+        <v>16.30918254388542</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>18.3199802145299</v>
+        <v>21.1821068163959</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-4.414350277892861</v>
+        <v>3.186344096481712</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>31.76797607261077</v>
+        <v>24.75843947252073</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>45.14303377185099</v>
+        <v>46.5173149049107</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>29.6529552012174</v>
+        <v>28.43167568127418</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>39.91133615968948</v>
+        <v>35.54582648579849</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>4.643285235506891</v>
+        <v>2.663100785703936</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>56.17867550152657</v>
+        <v>52.63338993594873</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>46.78106493526174</v>
+        <v>46.47004496750326</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>27.91420553320676</v>
+        <v>27.7327488464989</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>37.56301770829687</v>
+        <v>34.59516721418551</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>-1.915149241956183</v>
+        <v>-1.030355960770464</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>57.59885457000475</v>
+        <v>53.07109215175317</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>51.19164108118638</v>
+        <v>50.39735492596574</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>23.5593729597169</v>
+        <v>25.06632528203769</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>32.77053490471498</v>
+        <v>32.52365118238287</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-3.313063271356722</v>
+        <v>-0.7292022857969371</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>56.75692927320553</v>
+        <v>53.7958357047498</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>34.75510741139532</v>
+        <v>33.39268462206398</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>40.84844956031857</v>
+        <v>38.15744394962681</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>22.1151354108509</v>
+        <v>25.50176804573081</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>39.47589535485251</v>
+        <v>36.47503152925539</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>34.19816716711071</v>
+        <v>34.26518491676827</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>40.49364152050377</v>
+        <v>38.19236335208294</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>19.2284400368158</v>
+        <v>24.52356239286479</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>55.44280818977148</v>
+        <v>55.32958028475933</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>68.94299957347711</v>
+        <v>67.5781337585952</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>39.22161734193356</v>
+        <v>44.02107940204853</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>59.95480381666117</v>
+        <v>54.48967698932348</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>60.27087267788275</v>
+        <v>57.44623223311436</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>75.30360450089277</v>
+        <v>70.88347984446078</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>43.1793614315047</v>
+        <v>47.36396967597069</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>52.50114805491181</v>
+        <v>52.35952627946635</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>65.67102829018683</v>
+        <v>64.16229171564262</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>35.15425332693158</v>
+        <v>39.79897200643873</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>61.82983648151435</v>
+        <v>53.90134087085072</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>57.46058077903712</v>
+        <v>55.53370761433658</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>72.37521562290277</v>
+        <v>68.17021147897016</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>38.07036097556822</v>
+        <v>44.62817127306303</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>46.06254511475166</v>
+        <v>46.22287164318226</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>58.86190469158419</v>
+        <v>58.50623027023175</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>33.26136463411314</v>
+        <v>38.09781568917404</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>68.81821167408225</v>
+        <v>59.79758601143056</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>58.17729194089314</v>
+        <v>55.99819345150445</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>72.35421989581003</v>
+        <v>69.14088485608085</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>38.27897312673541</v>
+        <v>44.07944535045051</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>40.68914113029932</v>
+        <v>37.90440185913174</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>11.66328526313546</v>
+        <v>14.80418257300594</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>20.60129126029266</v>
+        <v>21.78493884176664</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-11.7390390474949</v>
+        <v>0.02119292964967201</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>38.16299798974322</v>
+        <v>33.28734124272763</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>44.32817368374518</v>
+        <v>42.84434383703669</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>23.12106985493102</v>
+        <v>24.67854175287114</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>33.77478925409544</v>
+        <v>31.83209155028978</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-10.85201297942721</v>
+        <v>-4.593444033238722</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>55.84441070344739</v>
+        <v>52.85884286133117</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>46.0822494144987</v>
+        <v>46.38343208973244</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>23.48036659551344</v>
+        <v>30.52335005911684</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>33.2336427652332</v>
+        <v>36.74987498443193</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-15.59765626019515</v>
+        <v>-3.040072475582242</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>56.78125849469426</v>
+        <v>56.68634925255757</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>55.06798661041884</v>
+        <v>54.04658496124129</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>22.56955757989634</v>
+        <v>28.27832470483365</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>32.9019089428597</v>
+        <v>36.12013028610661</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-14.48123325251015</v>
+        <v>-4.844225439892206</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>60.43159965760684</v>
+        <v>58.31568718706858</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>35.50009206003581</v>
+        <v>35.3030138538677</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>44.98171327744836</v>
+        <v>42.24690977256359</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>20.89885437871843</v>
+        <v>24.89453534328802</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>42.47677543142072</v>
+        <v>40.91462809677225</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>34.05691315276506</v>
+        <v>35.6619264685928</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>42.66902173787626</v>
+        <v>41.20100723089598</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>16.53330889669027</v>
+        <v>22.44765251882639</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>52.07752755579163</v>
+        <v>52.85574670965114</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>67.59470741507212</v>
+        <v>66.18361491435969</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>33.76348269355994</v>
+        <v>40.72553946235185</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>58.97710197140624</v>
+        <v>52.74556206955351</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>56.6124398703186</v>
+        <v>55.63508958432398</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>72.71118838331688</v>
+        <v>69.22098764168413</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>38.01184615940548</v>
+        <v>45.04201019663466</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>50.55634057987089</v>
+        <v>51.695473475013</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>66.12480459346632</v>
+        <v>65.2705404258482</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>31.26679439226687</v>
+        <v>38.10185723804707</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>61.72442630522781</v>
+        <v>54.55516881559792</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>58.16790866211043</v>
+        <v>57.77534458554845</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>74.66617883549465</v>
+        <v>71.71327531732501</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>38.26014281057523</v>
+        <v>46.29023854498374</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>47.9017944118097</v>
+        <v>49.09498336261414</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>62.94883189523713</v>
+        <v>61.94682833364224</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>32.44331611082048</v>
+        <v>39.34107332130875</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>65.64894946464095</v>
+        <v>59.36411072803254</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>57.40129953089497</v>
+        <v>55.71456792628857</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>73.81122850330911</v>
+        <v>69.45196479219075</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>36.97412378081631</v>
+        <v>42.30608683773035</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>8.322449137715305</v>
+        <v>10.98946177638444</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>9.880249782094168</v>
+        <v>15.22803629742315</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>11.10537679735449</v>
+        <v>15.29211003402239</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>5.082948270576356</v>
+        <v>12.64876565652459</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>20.92495746296697</v>
+        <v>18.51322207839288</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>12.1212860315351</v>
+        <v>16.6241059612826</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>19.56584369955491</v>
+        <v>23.22263099314315</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>23.79941085462903</v>
+        <v>25.40340885034528</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>11.52128733492094</v>
+        <v>17.41712228622682</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>44.2963681068676</v>
+        <v>39.78740432764024</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>10.78363831380386</v>
+        <v>14.37093670792978</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>14.82231265371133</v>
+        <v>18.23050936995271</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>18.08033158446571</v>
+        <v>18.96625968428089</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>2.572964204401849</v>
+        <v>8.361757402834858</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>43.46761763767434</v>
+        <v>42.55075712421153</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>13.49143201368195</v>
+        <v>13.72089336749571</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>11.65158249856555</v>
+        <v>14.32830782138059</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>14.32169099635123</v>
+        <v>14.80674181940613</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-0.7483409987870075</v>
+        <v>6.51340487618176</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>41.33931266823458</v>
+        <v>40.83347756594397</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>21.8557582818402</v>
+        <v>25.14314674459852</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>25.62327631074191</v>
+        <v>27.40423451448997</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>11.02377593662953</v>
+        <v>18.25691629674929</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>24.48377043970167</v>
+        <v>21.66126251934192</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>24.14261673617442</v>
+        <v>26.86964026599068</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.56861368096753</v>
+        <v>28.40509668673276</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>11.67740869039829</v>
+        <v>17.88744177081523</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>39.3868024369708</v>
+        <v>38.00490190876751</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>49.25705776271616</v>
+        <v>46.79667781776021</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>25.39770990214611</v>
+        <v>28.83469888127503</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>50.761541366827</v>
+        <v>48.70774055511193</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>52.78042605631506</v>
+        <v>50.54052598634915</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>65.90751491209363</v>
+        <v>61.98492941393119</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>39.26744800619771</v>
+        <v>42.62773803923793</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>35.61789363196814</v>
+        <v>38.0778224246895</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>44.61700095736525</v>
+        <v>44.77400643551472</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>21.20774175719184</v>
+        <v>29.66354567280249</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>53.54878617083114</v>
+        <v>51.08252771882555</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>52.53128055938527</v>
+        <v>51.15109608247234</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>65.91466392803891</v>
+        <v>62.10543013077992</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>36.93739520427771</v>
+        <v>42.49988562631049</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>29.42899449652317</v>
+        <v>30.41769802883217</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>37.3428176237103</v>
+        <v>36.30494100490267</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>17.8628027903591</v>
+        <v>23.90003351731464</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>58.66345831585896</v>
+        <v>55.28983242645045</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>53.69351139320788</v>
+        <v>52.70292879816217</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>66.29714984140479</v>
+        <v>64.04052169337712</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>36.36908311793</v>
+        <v>41.62979250251263</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>6.635463112584869</v>
+        <v>5.603181988656655</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>1.621477362111474</v>
+        <v>8.184142118723365</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>3.775366279625366</v>
+        <v>8.81375573263616</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>0.06418354994248077</v>
+        <v>9.082533166790299</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>10.09315875874573</v>
+        <v>7.071545432935721</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>13.38018663185983</v>
+        <v>11.77548010037094</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>13.80102382336945</v>
+        <v>15.05447858771356</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>18.64858223803557</v>
+        <v>17.04382421993961</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>6.31618451333185</v>
+        <v>11.47775418939858</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>26.06741550031502</v>
+        <v>24.06943678257552</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>13.70894886517694</v>
+        <v>11.88837485836697</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>10.72148740579891</v>
+        <v>14.69186443684896</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>14.80807658868813</v>
+        <v>16.60669941563736</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-1.17595858734089</v>
+        <v>9.556131906916571</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>25.84782330714893</v>
+        <v>25.02037640549982</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>15.14595958792036</v>
+        <v>8.052507413879582</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>4.864487688454812</v>
+        <v>8.843019612247694</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>8.217444532593337</v>
+        <v>10.07803193724253</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-4.785612890510439</v>
+        <v>5.365974032219366</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>23.71672710564937</v>
+        <v>19.86638452049107</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>12.93858506157688</v>
+        <v>19.06336556137483</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>12.41272130136115</v>
+        <v>17.83204975816492</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>2.97005349988472</v>
+        <v>12.38708682202515</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>23.40791500251587</v>
+        <v>22.08707673533749</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>15.15007125417901</v>
+        <v>19.33624898936026</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>15.44370594682434</v>
+        <v>18.43532953356297</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-0.2981126384013137</v>
+        <v>7.886195675865512</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>22.79009383794519</v>
+        <v>25.56284309260186</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>27.8415269422074</v>
+        <v>27.70664249198334</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>9.085373257793046</v>
+        <v>15.56611472539723</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>43.68709271205704</v>
+        <v>44.61551292435624</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>37.65618098025175</v>
+        <v>39.11413554679569</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>45.16832922410194</v>
+        <v>44.57168524200929</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>18.94468439346563</v>
+        <v>25.3878359955228</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>17.77982002467856</v>
+        <v>20.67507491951529</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>22.09094566491579</v>
+        <v>21.6258415283513</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>3.180100982237906</v>
+        <v>10.20892681920914</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>45.07510460340222</v>
+        <v>45.59387323400447</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>34.02532452841335</v>
+        <v>36.42919494975057</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>40.92228856944402</v>
+        <v>39.9074507327212</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>13.03168305359766</v>
+        <v>21.51450272995178</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>11.3740676353423</v>
+        <v>12.87111200324747</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>15.33215856644795</v>
+        <v>14.15977103611483</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>1.853103510084637</v>
+        <v>7.807068778915191</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>48.25107487822308</v>
+        <v>46.50261606812802</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>33.13496212235997</v>
+        <v>35.98928106964652</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>39.13953264157378</v>
+        <v>38.95344799893488</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>12.63112656581353</v>
+        <v>21.40300930250528</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>49.7165143972081</v>
+        <v>45.28120060148544</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>24.97401959812222</v>
+        <v>24.70594917972976</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>34.28084743049376</v>
+        <v>30.60838379601037</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>10.56626551726072</v>
+        <v>20.08621428664113</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>27.47957810752042</v>
+        <v>22.80318635121959</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>55.96366787971581</v>
+        <v>49.19341108776925</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>45.45663358961227</v>
+        <v>45.31326755885347</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>59.39619569172984</v>
+        <v>55.81636512560823</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>26.27071556233915</v>
+        <v>35.79051804225</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>47.12248278631935</v>
+        <v>41.75041558811565</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>53.88409881295946</v>
+        <v>53.82134066245736</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>41.8348507573621</v>
+        <v>44.23590510016874</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>54.77996168976779</v>
+        <v>53.49606193457623</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>16.98822407760136</v>
+        <v>27.22710057483552</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>47.20079117160438</v>
+        <v>44.8294677503482</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>60.59665659119182</v>
+        <v>53.76315934498685</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>36.71775400579896</v>
+        <v>39.4105867025921</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>48.33145268061524</v>
+        <v>46.89369796352361</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>10.25914233369376</v>
+        <v>21.70057983460136</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>47.62007522244104</v>
+        <v>40.98002833408846</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>23.09570683930285</v>
+        <v>26.48764526867414</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>30.47928152117092</v>
+        <v>30.42307093944236</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>10.2170391190114</v>
+        <v>17.81703786208683</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>43.06482280251999</v>
+        <v>40.26573248552087</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>33.50242619491325</v>
+        <v>32.19243850171844</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>40.33777719909765</v>
+        <v>36.6432053282145</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>16.96594793617225</v>
+        <v>20.82765488113504</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>41.2654703515591</v>
+        <v>41.10418207528225</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>54.65969685335872</v>
+        <v>51.19650542112365</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>26.52119084735582</v>
+        <v>32.33949545075033</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>58.19062783149164</v>
+        <v>54.23019188792256</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>53.23819027691808</v>
+        <v>50.68564778904701</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>68.10342969978157</v>
+        <v>62.85857598064985</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>36.90891593206595</v>
+        <v>40.1138965925709</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>38.89908342220384</v>
+        <v>40.31708695219864</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>52.01305594359062</v>
+        <v>49.96629790615899</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>23.27434240167005</v>
+        <v>30.70246603512143</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>59.70641899899418</v>
+        <v>56.76932929956839</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>53.43175152221423</v>
+        <v>54.258236005565</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>68.83981253191715</v>
+        <v>67.02482375617934</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>35.69196517250523</v>
+        <v>43.21559161640094</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>31.97418522882409</v>
+        <v>32.64634705384209</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>44.43735093462092</v>
+        <v>41.3677359306316</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>18.3185555911306</v>
+        <v>25.72166788629302</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>63.45807842228541</v>
+        <v>55.61136445666536</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>53.82180243576431</v>
+        <v>51.76937403446848</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>68.70818008724916</v>
+        <v>64.50397264512077</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>34.67928529125656</v>
+        <v>41.1014350425163</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>7.210750196790823</v>
+        <v>7.135373412231232</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>5.947412371290303</v>
+        <v>11.09290462512389</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>6.862770935625901</v>
+        <v>10.49107983301094</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-0.3074804895403176</v>
+        <v>9.083518079311844</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>10.61132029892796</v>
+        <v>8.639649778525765</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>15.76900135821351</v>
+        <v>12.64863404887512</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>16.93232590629928</v>
+        <v>18.23490754642966</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>20.92568906781937</v>
+        <v>19.88316315843576</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>9.232354556848847</v>
+        <v>15.07223998085032</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>39.92550260076092</v>
+        <v>37.75424586312133</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>13.83543678115909</v>
+        <v>12.77931744094148</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>11.54972399223083</v>
+        <v>16.2294415158698</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>14.50428754705024</v>
+        <v>17.09058840527143</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>0.8015927936920413</v>
+        <v>10.86067721751123</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>38.0637392990467</v>
+        <v>35.73338893502483</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>11.7394245167419</v>
+        <v>11.47887638820988</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>8.266157416787774</v>
+        <v>12.62599148931895</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>10.688117777245</v>
+        <v>13.55515568539565</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-0.737763297051611</v>
+        <v>9.386381007269332</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>27.62468975351316</v>
+        <v>27.84730122819143</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>10.41196153989767</v>
+        <v>14.75114754844383</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>11.56414262852322</v>
+        <v>14.49136454389844</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>2.934754146365659</v>
+        <v>8.953654849600902</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>16.92550486430699</v>
+        <v>9.211157196192765</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>14.21852839027701</v>
+        <v>16.52326030109543</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>15.27435122755464</v>
+        <v>16.90522627954453</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>4.889873291765412</v>
+        <v>12.0914347569799</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>31.53554695191455</v>
+        <v>33.48318408152415</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>38.54594594074941</v>
+        <v>39.86673888576471</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>19.91698810739673</v>
+        <v>24.77290926227812</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>49.54082815072714</v>
+        <v>43.13328166827763</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>49.18629842300856</v>
+        <v>50.68212243396945</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>58.17494001691173</v>
+        <v>58.55730746391509</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>35.25354478703152</v>
+        <v>42.19869275781508</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>26.09528091722284</v>
+        <v>28.07109092832088</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>31.56569131846584</v>
+        <v>30.58025573193664</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>14.34133896768004</v>
+        <v>19.69119833720422</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>49.70780229327256</v>
+        <v>46.54121687463262</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>45.81136935733308</v>
+        <v>46.31260703983926</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>53.79015420443758</v>
+        <v>51.00829823645584</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>29.73386270134199</v>
+        <v>34.93967394440347</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>13.43798516888221</v>
+        <v>14.78578915539239</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>16.53659295258835</v>
+        <v>15.43246857464122</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>7.069652794739984</v>
+        <v>11.7431445885672</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>48.48038986903018</v>
+        <v>48.36058376697952</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>39.84038791109367</v>
+        <v>39.5927681494892</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>45.25668933211544</v>
+        <v>43.31428275497626</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>25.69486135194146</v>
+        <v>28.11056309368358</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>3.552364998765881</v>
+        <v>1.451895533384761</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>-3.76030368137133</v>
+        <v>4.851703619244105</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>-2.04695001640664</v>
+        <v>3.993270486889905</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>-8.256707005116446</v>
+        <v>4.672982126267978</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>26.13106683792492</v>
+        <v>23.75793253017562</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>8.581651209391206</v>
+        <v>3.718035650142177</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>5.681819314042485</v>
+        <v>10.02858132173047</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>9.601020444147911</v>
+        <v>9.717888293648224</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>-4.070372274113485</v>
+        <v>6.305695645815071</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>47.62179847918989</v>
+        <v>40.67339974976992</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>10.58686083686472</v>
+        <v>6.235071053951923</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>4.492619582327308</v>
+        <v>13.43786200378692</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>7.719322422880449</v>
+        <v>12.28297104653267</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>-10.18547336387787</v>
+        <v>6.356010051571516</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>48.95825570001602</v>
+        <v>42.62351014584692</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>15.97199928147124</v>
+        <v>11.70777376408822</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>7.641169360145362</v>
+        <v>12.9225530693543</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>11.66789186172234</v>
+        <v>12.4417522789734</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-4.162259272502194</v>
+        <v>8.253641316346116</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>47.29689961100978</v>
+        <v>41.73469810555815</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>25.03025493773372</v>
+        <v>25.57265145606965</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>30.95497934641617</v>
+        <v>29.07554266464076</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>13.10409238304453</v>
+        <v>18.57800589609268</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>33.85977748875168</v>
+        <v>33.08584276495549</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>26.62992174382622</v>
+        <v>29.37110347012235</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>33.12813040083559</v>
+        <v>32.34641524485211</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>11.09906629373535</v>
+        <v>17.31472404616781</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>41.65625586672958</v>
+        <v>39.07448848949375</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>53.51305722573177</v>
+        <v>48.36053242967019</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>26.40849004457005</v>
+        <v>30.40244732860535</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>54.71881122235057</v>
+        <v>52.1675770040581</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>53.50574762129793</v>
+        <v>52.28332839379527</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>68.21711725965213</v>
+        <v>65.2171746438982</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>35.6019082327463</v>
+        <v>41.19892591184768</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>40.71069821692718</v>
+        <v>40.19001423341074</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>52.29815349390839</v>
+        <v>49.52299628077222</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>24.761535008302</v>
+        <v>30.86894905289612</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>57.91490568202143</v>
+        <v>54.05620925560829</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>56.09448637014768</v>
+        <v>54.12822338345474</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>71.29177237326124</v>
+        <v>67.5293159595218</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>36.63611480864574</v>
+        <v>42.36524939801332</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>36.73435626815612</v>
+        <v>33.9461574749242</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>47.6980357696127</v>
+        <v>43.11455074209587</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>24.66239142588071</v>
+        <v>26.23772095379183</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>59.17260878856574</v>
+        <v>56.25707288544626</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>54.40572209429055</v>
+        <v>54.91750020799526</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>69.23910027712461</v>
+        <v>68.47981314683202</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>36.38668364850889</v>
+        <v>42.30324317986147</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>10.09907478651746</v>
+        <v>9.552186880266721</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>9.521521927868099</v>
+        <v>14.32961881583079</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>10.67006855495178</v>
+        <v>14.54167027185939</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>5.368205474164245</v>
+        <v>11.2118462208786</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>7.172024561377732</v>
+        <v>5.952655287136459</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>18.05743544114294</v>
+        <v>17.02338674563938</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>21.41753146816186</v>
+        <v>21.07459426668762</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>25.78032442731418</v>
+        <v>23.75607285484264</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>14.68722160198309</v>
+        <v>16.36316257835275</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>29.05945322770844</v>
+        <v>29.61841801854274</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>17.78204189038433</v>
+        <v>19.50705926652858</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>18.09348356961301</v>
+        <v>20.38533691769181</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>21.86783696426513</v>
+        <v>22.17889848693947</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>7.509120261152983</v>
+        <v>12.23180953610176</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>27.69398377633157</v>
+        <v>27.79003593677051</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>16.3068046459256</v>
+        <v>17.25010475718751</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>14.01022163850595</v>
+        <v>15.84989765539901</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>17.70620116273463</v>
+        <v>17.68283238144043</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>5.086934677436787</v>
+        <v>10.51926685328428</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>22.76196783286</v>
+        <v>20.7608925388541</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>6.260432193470722</v>
+        <v>11.81240046610413</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>6.142100841003927</v>
+        <v>10.96166699299548</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>0.01426814541007104</v>
+        <v>7.645003190175981</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>21.46136781359933</v>
+        <v>19.94854932186846</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>17.17022848185643</v>
+        <v>18.98750022157616</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>19.89188110299636</v>
+        <v>20.9448380426866</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>7.053035039707613</v>
+        <v>13.88220160508251</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>21.43489892908357</v>
+        <v>25.59280837790168</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>25.91446792575107</v>
+        <v>28.14017566540948</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>12.01246869159103</v>
+        <v>19.81513941638181</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>39.44808394262627</v>
+        <v>39.05309983378954</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>40.56910476217152</v>
+        <v>42.07635931402734</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>49.55500453126554</v>
+        <v>48.11004238038599</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>26.50649534829384</v>
+        <v>33.28017750223829</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>18.0720372108851</v>
+        <v>20.7924481850793</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>21.64799843872071</v>
+        <v>21.84087131997184</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>8.325308268829293</v>
+        <v>14.34470712708678</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>39.94277930998058</v>
+        <v>40.38399872151049</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>40.08377577256871</v>
+        <v>40.62913869146566</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>48.97476640533024</v>
+        <v>46.60419958223601</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>23.77812029907871</v>
+        <v>28.09859258604529</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>10.55456566396948</v>
+        <v>12.47456288299871</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>13.2600083435861</v>
+        <v>12.83615095449204</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>4.274779825747732</v>
+        <v>9.239337832704251</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>40.11177046791758</v>
+        <v>36.80559542908756</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>35.35399274847958</v>
+        <v>34.46664706906542</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>44.04918147088001</v>
+        <v>41.35946165286919</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>21.20982356229883</v>
+        <v>23.60144170728329</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-2.211228010931073</v>
+        <v>1.160378076480296</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>3.035550968637747</v>
+        <v>6.266770140893861</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>1.791079408050003</v>
+        <v>5.315343691160546</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>6.962474612817797</v>
+        <v>6.550967406458842</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>-1.595984528395778</v>
+        <v>0.7585099510990254</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>1.305845415819963</v>
+        <v>5.226309190829692</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>7.346361712684608</v>
+        <v>9.308045283679082</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>7.434807884536188</v>
+        <v>9.24366729176214</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>8.490876827066057</v>
+        <v>7.320412928873349</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>10.11899965458288</v>
+        <v>6.803389693257248</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>2.630521993949277</v>
+        <v>5.830368493885462</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>6.145445251872529</v>
+        <v>11.9923520308102</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>5.797249129349391</v>
+        <v>11.78178804307763</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>4.168446359218539</v>
+        <v>9.273217493665779</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>8.798852754656782</v>
+        <v>6.115182909094216</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>1.141718828404002</v>
+        <v>5.437237947948031</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>4.942972628968967</v>
+        <v>8.345696866220859</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>5.299630678410061</v>
+        <v>7.55833484565003</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>5.899489324290201</v>
+        <v>8.32378713067051</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>6.817517196496397</v>
+        <v>5.151226291632959</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>1.901136654128234</v>
+        <v>6.203637856422567</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>0.405521752891012</v>
+        <v>5.269589461458086</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>1.071222230245358</v>
+        <v>5.404999675158916</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>12.39984692660584</v>
+        <v>12.31650259803749</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>11.89629029612298</v>
+        <v>13.85403631608182</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>12.41123409807018</v>
+        <v>14.85690323404733</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>7.377061959391568</v>
+        <v>11.52010106650628</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>6.920692144565088</v>
+        <v>8.39574562126927</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>8.487996377394285</v>
+        <v>8.202139082095208</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>3.353629200506948</v>
+        <v>6.774414016675106</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>24.42689905204209</v>
+        <v>19.80382537304978</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.04808905143391</v>
+        <v>29.40036056709492</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>33.91704824986528</v>
+        <v>32.07852425749687</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>20.9157480927933</v>
+        <v>24.80044150441131</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>3.55273926495466</v>
+        <v>6.833255724142504</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>4.243044760746994</v>
+        <v>6.135549338316864</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-0.1387289582223268</v>
+        <v>5.519839870145159</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>25.61522772176775</v>
+        <v>21.07847720363269</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.96234350968437</v>
+        <v>28.72284461043207</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>33.53917748200348</v>
+        <v>31.56755895933518</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>18.83627233911064</v>
+        <v>22.86144543683916</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>0.8189881042844753</v>
+        <v>5.435001169322618</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>1.238768816853099</v>
+        <v>4.831993870636829</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>0.7682475691700468</v>
+        <v>5.437175394887348</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>26.90335554476067</v>
+        <v>23.67625541460494</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>25.53906301971475</v>
+        <v>24.95779613108633</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>30.55066777899255</v>
+        <v>28.5854441708488</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>17.69943707237555</v>
+        <v>19.86505331589475</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>20.61904292778733</v>
+        <v>20.63487796197219</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>17.44512830919339</v>
+        <v>19.70239793816616</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>21.13046761564747</v>
+        <v>21.98221987568612</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>15.75652959639834</v>
+        <v>16.88026537682357</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>6.957505453083867</v>
+        <v>5.629229182955875</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>35.85385751511337</v>
+        <v>33.36726412839272</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>42.62692205526567</v>
+        <v>41.79899757300771</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>51.46365609872252</v>
+        <v>50.03217861152068</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>37.09014894025024</v>
+        <v>36.49910778482335</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>30.72309001695638</v>
+        <v>24.95899913323938</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>38.989830551409</v>
+        <v>35.9901778404126</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>42.41097995686839</v>
+        <v>42.61165651856496</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>50.5532704802145</v>
+        <v>50.54812176421473</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>32.84389674033199</v>
+        <v>36.08024433799215</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>32.98020328042446</v>
+        <v>27.68114083988398</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>34.59510566276457</v>
+        <v>33.332282782611</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>28.81655189288271</v>
+        <v>29.56499095369957</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>34.45866283614329</v>
+        <v>33.86904705024565</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>21.44819342955199</v>
+        <v>26.89210451622414</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>32.44985854779539</v>
+        <v>30.07245687605553</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>8.268839556285894</v>
+        <v>11.55889043884196</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>8.822271978924398</v>
+        <v>11.3583057740466</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>1.716917681584782</v>
+        <v>9.027646274145159</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>19.2190025628477</v>
+        <v>17.81443895241608</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>15.44323067702319</v>
+        <v>17.1140599538815</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>17.49135989727446</v>
+        <v>17.51944171644602</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>5.361820394428872</v>
+        <v>10.91488624275877</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>32.55268941920268</v>
+        <v>32.4984350262987</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>41.15905526229324</v>
+        <v>38.52186620477916</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>24.22790584752234</v>
+        <v>30.79581617131051</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>46.45745733413209</v>
+        <v>39.73325887826909</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>52.11037251603274</v>
+        <v>50.74073810022659</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>64.27450281581464</v>
+        <v>60.51632818337955</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>40.62505482532092</v>
+        <v>42.72717269801268</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>31.81477591283727</v>
+        <v>34.23238685401456</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>39.71301082867237</v>
+        <v>39.52211619980847</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>22.88848736146933</v>
+        <v>32.33447673963083</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>50.87837083570463</v>
+        <v>44.10833609719994</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>51.75392889308138</v>
+        <v>52.74195384852277</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>63.72417941701521</v>
+        <v>62.17905092389081</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>37.56011543763353</v>
+        <v>43.45060451423483</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>21.89763834948514</v>
+        <v>24.39065181890336</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>27.89682594861564</v>
+        <v>29.2407132956536</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>16.37134986095768</v>
+        <v>23.5099745754075</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>53.81489616203815</v>
+        <v>49.49968096864356</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>44.28581497737633</v>
+        <v>44.27063025571931</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>53.38619241131705</v>
+        <v>52.20466325429543</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>28.57385208263108</v>
+        <v>32.51347893163556</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>42.75485091064496</v>
+        <v>39.17508958734592</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>30.98837097669253</v>
+        <v>30.05197050912357</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>38.45454961047226</v>
+        <v>35.77162237718247</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>15.03046456714441</v>
+        <v>18.72378543489681</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>25.72318411416295</v>
+        <v>18.85306501308005</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>51.20756110015684</v>
+        <v>46.95771249022481</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>46.91593372824661</v>
+        <v>45.85395372013375</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>58.31868746626937</v>
+        <v>54.88752810127039</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>31.45944301999847</v>
+        <v>36.4867170448549</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>49.35558997853398</v>
+        <v>44.97847967397799</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>48.43006072931787</v>
+        <v>44.91224380905992</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>41.79539121566386</v>
+        <v>41.42053004197948</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>52.22275993285673</v>
+        <v>49.14293899501513</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>22.96970726753184</v>
+        <v>26.9183717322068</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>49.05450103243084</v>
+        <v>43.08353974381611</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>51.27841406785768</v>
+        <v>50.08395155902597</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>41.58762286001926</v>
+        <v>42.02171807582615</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>51.92567785852009</v>
+        <v>50.76222443683484</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>22.22714564759834</v>
+        <v>26.33188718956236</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>45.5240939328508</v>
+        <v>42.96769254440498</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>22.47824551546485</v>
+        <v>23.4065879481902</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>27.21098618790549</v>
+        <v>26.49303805214718</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>11.41811187183681</v>
+        <v>15.1198791441254</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>37.39965369033801</v>
+        <v>36.05090393745345</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>28.65743557843356</v>
+        <v>30.39547699291009</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>33.3616062066658</v>
+        <v>32.66894154676212</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>13.93888446463077</v>
+        <v>18.97788783074518</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>40.45939404445071</v>
+        <v>39.87420445485112</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>51.17645466640806</v>
+        <v>49.57240033195018</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>27.04953736785665</v>
+        <v>31.06183883659396</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>56.82753292943937</v>
+        <v>50.32841246857284</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>52.47817895098336</v>
+        <v>50.35294234808204</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>65.49956068446274</v>
+        <v>61.88097933181427</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>34.74217255847851</v>
+        <v>39.72658475368924</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>38.29796907718428</v>
+        <v>39.37490149741948</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>48.05610509389438</v>
+        <v>47.51530266773656</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>24.58012520472609</v>
+        <v>30.2187839565511</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>55.86922648795637</v>
+        <v>49.21727444635339</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>50.31769857519195</v>
+        <v>50.24981234461489</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>63.01806612515773</v>
+        <v>60.0290761171899</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>30.97932642123515</v>
+        <v>39.03858099382809</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>32.38212726188432</v>
+        <v>32.91217489945915</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>40.55653353552918</v>
+        <v>39.99773208655883</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>22.68010979901429</v>
+        <v>28.05858279492505</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>57.87560540809596</v>
+        <v>55.40644265121404</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>49.07245753299648</v>
+        <v>50.06622033442909</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>59.65599398234833</v>
+        <v>58.471520292913</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>31.89886671512948</v>
+        <v>38.06237603822882</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>45.84578601806564</v>
+        <v>43.32981351729424</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>20.85045799400973</v>
+        <v>24.16234072792357</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>27.88970538084713</v>
+        <v>29.54583218626653</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>8.021405354578011</v>
+        <v>16.77053492688383</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>27.32064231511794</v>
+        <v>20.94663154021414</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>54.47149667422556</v>
+        <v>47.8393053942101</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>41.32894909238375</v>
+        <v>40.23741760495714</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>52.87414765624301</v>
+        <v>48.58050249956155</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>23.07359352131011</v>
+        <v>28.21500716244829</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>48.49394198846265</v>
+        <v>43.61560817289219</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>53.41303307806947</v>
+        <v>49.14137847197959</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>37.71103012839387</v>
+        <v>38.4364530987592</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>48.37693497595205</v>
+        <v>46.01453955288775</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>14.38307972355497</v>
+        <v>21.4843171797183</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>48.75030795968158</v>
+        <v>43.94570788029364</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>57.15489629861679</v>
+        <v>50.73055698998174</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>30.44933978282191</v>
+        <v>32.98410385179331</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>39.70164728176205</v>
+        <v>39.71536373993283</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>8.09662946728889</v>
+        <v>16.32528316446556</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>50.01525315895631</v>
+        <v>45.75475755978418</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>23.56810169900211</v>
+        <v>24.31499455326666</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>27.69666206749897</v>
+        <v>26.82587428434353</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>11.25377346302337</v>
+        <v>16.49613077196719</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>36.98243621792908</v>
+        <v>33.90945817925882</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.60119220209632</v>
+        <v>31.18873972627701</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>33.24947691874848</v>
+        <v>33.60651679815228</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>12.84393343361892</v>
+        <v>20.32802766433057</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>43.87197273033988</v>
+        <v>41.72937568288316</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>55.92015976999764</v>
+        <v>51.30420519417653</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>30.0606759818993</v>
+        <v>33.56987757912741</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>56.19633880608981</v>
+        <v>49.17885322027115</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>54.05402405566491</v>
+        <v>50.60826379605139</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>68.38596144734977</v>
+        <v>62.3139469038569</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>37.51210358650246</v>
+        <v>39.63437076651967</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>40.69356595548354</v>
+        <v>39.25979660982802</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>52.28340581611889</v>
+        <v>48.13595877387397</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>25.97534594865021</v>
+        <v>29.59476349532893</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>58.23154262863754</v>
+        <v>51.81991680742205</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>51.5152275907367</v>
+        <v>50.82443002598127</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>65.87304340254718</v>
+        <v>62.36096259947972</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>32.6793874526797</v>
+        <v>38.77402064297404</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>33.65347623151921</v>
+        <v>33.9711596854175</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>44.09901844662198</v>
+        <v>42.77102726990093</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>22.16701597774634</v>
+        <v>27.29692248916219</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>64.2361271839076</v>
+        <v>54.72566222547573</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>51.66903529425689</v>
+        <v>50.61078084384674</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>64.21674310810211</v>
+        <v>61.60890771456906</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>31.77234257713749</v>
+        <v>37.61486668560447</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>42.74713460816227</v>
+        <v>42.21179742877084</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>20.5247447134895</v>
+        <v>20.6127498583122</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>25.88273784246956</v>
+        <v>24.06361615451854</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>9.688814764134447</v>
+        <v>12.42026080188983</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>45.31836606654848</v>
+        <v>42.95850588197369</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>54.39369760517272</v>
+        <v>53.41890483863493</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>40.7362723013461</v>
+        <v>37.78304708075431</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>50.41596471351719</v>
+        <v>45.37909335032204</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>23.99006271443644</v>
+        <v>23.53532084995261</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>66.85399783088505</v>
+        <v>63.85320993084226</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>58.04049930458717</v>
+        <v>56.11266289282048</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>41.24306044857855</v>
+        <v>39.05178468155403</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>50.6987289274263</v>
+        <v>47.11108188861086</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>19.82796834486736</v>
+        <v>21.70605636463215</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>69.29795181011407</v>
+        <v>64.40875514309749</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>59.92015261573896</v>
+        <v>58.04484405684923</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>34.2091215779319</v>
+        <v>33.58441593000659</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>42.96929079562221</v>
+        <v>41.46067562220303</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>14.44087553421757</v>
+        <v>17.52432535871262</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>68.93110255080101</v>
+        <v>65.6539597486755</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>27.71379985117867</v>
+        <v>28.58779564882412</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>30.50289140810626</v>
+        <v>29.83367854992608</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>17.07138018162877</v>
+        <v>21.36449803012681</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>52.85349855608591</v>
+        <v>53.24915114601235</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>34.0704970582012</v>
+        <v>34.67581339214717</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>37.48937720110971</v>
+        <v>36.39974219588416</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>21.7689687763549</v>
+        <v>25.75480341280668</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>46.47320693136598</v>
+        <v>43.52618396890017</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>56.16720507273703</v>
+        <v>51.45408710167453</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>34.956323381525</v>
+        <v>36.6514909690891</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>73.53252827616667</v>
+        <v>69.40787734138733</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>60.4007964220265</v>
+        <v>56.12706616116876</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>72.26377765763011</v>
+        <v>65.97127827555019</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>46.99393256851053</v>
+        <v>47.6611829322881</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>45.65731366442975</v>
+        <v>42.6408583338397</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>55.13787033071523</v>
+        <v>50.49582854507238</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>33.19527295008017</v>
+        <v>34.81631738162407</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>77.30041473120873</v>
+        <v>71.46411341906577</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>59.30650902070654</v>
+        <v>56.2471748795673</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>71.21509029507364</v>
+        <v>65.8269355425907</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>43.16746049928888</v>
+        <v>46.31129050282188</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>40.33335149423334</v>
+        <v>39.3708556876694</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>49.82560934651617</v>
+        <v>47.63900852719507</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>30.26390823381486</v>
+        <v>33.47343266377044</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>80.69451616907617</v>
+        <v>73.86739551326835</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>57.5231226291872</v>
+        <v>56.4776299580547</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>68.45522526598189</v>
+        <v>66.32251740508929</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>40.34104091483148</v>
+        <v>45.3249354134167</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.02450007388464</v>
+        <v>27.94519130204036</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>18.92233675965505</v>
+        <v>19.5322286923565</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>25.29727656492721</v>
+        <v>23.4519559092292</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>6.529636321828551</v>
+        <v>11.13396867020225</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>19.16138586999884</v>
+        <v>14.90933710845091</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>46.26485217561334</v>
+        <v>46.94906805905698</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>44.59093781621555</v>
+        <v>45.05425100723041</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>56.91212492184036</v>
+        <v>56.07779310228099</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.0444105622428</v>
+        <v>34.1829165320132</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>47.80549765417199</v>
+        <v>43.72459090872774</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>44.60404540981291</v>
+        <v>44.04659634362581</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>39.53914585200808</v>
+        <v>39.90199543660848</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>50.67802901517521</v>
+        <v>48.83740779992537</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>18.93265429420984</v>
+        <v>23.46787416394903</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>48.76695784947513</v>
+        <v>45.14658808825276</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>41.55927426448923</v>
+        <v>39.112464654635</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>33.57559755577407</v>
+        <v>36.78148555207621</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>42.20180632710113</v>
+        <v>43.23669160814546</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>14.34166584914014</v>
+        <v>23.39591893951871</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>41.00262187431846</v>
+        <v>40.59900057045548</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>15.85333449761583</v>
+        <v>20.446667050473</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>19.4130073156846</v>
+        <v>22.57539591136841</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>4.287487368406694</v>
+        <v>12.92112595185353</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>28.96580971312597</v>
+        <v>25.71012372592289</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>22.07627572720472</v>
+        <v>26.07864266609936</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>25.61936290968646</v>
+        <v>27.51415397750401</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>7.704131597662609</v>
+        <v>16.56859186531567</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>39.39675894574424</v>
+        <v>39.01733667139356</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>50.85527763377537</v>
+        <v>49.10415234890905</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>24.81415790368846</v>
+        <v>30.94045692203004</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>55.32893928365314</v>
+        <v>49.57219604332484</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>53.28332203172978</v>
+        <v>50.06670003418609</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>66.93881852293586</v>
+        <v>62.09977679648783</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>35.96555584210149</v>
+        <v>39.17432284568069</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>36.97941286891523</v>
+        <v>38.56881449621624</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>47.57552544396087</v>
+        <v>47.21829654355666</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>21.54345056833327</v>
+        <v>29.73477165181446</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>56.62254177297106</v>
+        <v>51.93925074532369</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>51.73128897985306</v>
+        <v>51.46895815226127</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>65.07440281267094</v>
+        <v>61.91695325656956</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>32.38855879710198</v>
+        <v>40.53109484760347</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>24.49006579525349</v>
+        <v>29.04938689006475</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>32.06377912457843</v>
+        <v>34.65095355368107</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>12.93887211451692</v>
+        <v>21.61624492462531</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>55.60158368367091</v>
+        <v>51.11362557575359</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>45.99911917821231</v>
+        <v>47.73649205026597</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>55.91300903634701</v>
+        <v>54.95371655122875</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>27.89039447399958</v>
+        <v>37.24926144058431</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>12.68241873926404</v>
+        <v>12.32475688025852</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>10.04907414253465</v>
+        <v>14.23128310533158</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>11.52235750763154</v>
+        <v>14.90178200144163</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>6.243195251881758</v>
+        <v>10.99748399198352</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>17.61916054158998</v>
+        <v>10.67752131722718</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>21.10988726896825</v>
+        <v>18.68447256883031</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>22.91321063275398</v>
+        <v>23.23808505601957</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>27.27024435793377</v>
+        <v>25.84802702321361</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>15.58040210636852</v>
+        <v>17.43560559712106</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>44.36617172736231</v>
+        <v>43.40683733722002</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>21.58927799974117</v>
+        <v>16.95562118566317</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>20.54214381381043</v>
+        <v>21.25019921754233</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>23.98474163534458</v>
+        <v>22.79718845513283</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>9.836832981654883</v>
+        <v>14.89788242529956</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>42.17727344322772</v>
+        <v>40.39080098229444</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>23.702163187676</v>
+        <v>19.39015550124389</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>17.89693546596156</v>
+        <v>19.31504520830753</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>20.56683383101509</v>
+        <v>21.10986358694285</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>8.125062073902976</v>
+        <v>13.9856032595751</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>45.05941765675564</v>
+        <v>43.09599870537713</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>15.01571166488147</v>
+        <v>15.87910431124077</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>17.09121821119117</v>
+        <v>16.19773118464254</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>6.132984195049239</v>
+        <v>10.58524555185343</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>19.16332513030219</v>
+        <v>14.9704224897586</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>13.94387354419323</v>
+        <v>15.61581910741803</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>15.79466841085531</v>
+        <v>16.24819286814578</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>3.878876160786316</v>
+        <v>11.13472063793654</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>37.08778725711231</v>
+        <v>37.02308102814833</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>45.6684516920868</v>
+        <v>44.7172726330086</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>24.88232394774197</v>
+        <v>28.76408472273607</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>52.53395765424982</v>
+        <v>50.14046142654296</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>51.28082315460014</v>
+        <v>49.93912285371262</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>62.33832581055223</v>
+        <v>60.13902233903277</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>37.2364120653008</v>
+        <v>40.19135384337991</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>32.63347729399447</v>
+        <v>34.43318836948258</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>39.7514551819372</v>
+        <v>39.21137717427617</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>20.16461045819882</v>
+        <v>26.60859701467252</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>54.54566530942967</v>
+        <v>50.47996101481504</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>48.90530432772655</v>
+        <v>47.39805903975897</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>58.94046915755098</v>
+        <v>54.87817452834328</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>32.14326105323648</v>
+        <v>36.01141418749292</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>29.07056246334139</v>
+        <v>31.26098516284952</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>34.11187388223826</v>
+        <v>34.99260911256605</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>18.76414911278304</v>
+        <v>24.19484452662516</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>54.77869447373408</v>
+        <v>55.2782014553287</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>41.8312547971932</v>
+        <v>41.62006257939925</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>47.67484039236432</v>
+        <v>44.9948475117199</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>24.09337224193462</v>
+        <v>26.90083873037682</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>16.03621945659732</v>
+        <v>13.36692656571695</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>9.458423850057377</v>
+        <v>12.91017004690304</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>12.17161113074812</v>
+        <v>12.96433568546502</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>4.378618306312354</v>
+        <v>10.92370942708088</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>20.96908021067314</v>
+        <v>14.52241555998576</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>31.45223616056916</v>
+        <v>29.65309428949461</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>32.07156216475131</v>
+        <v>31.94714063321937</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>39.30528236453506</v>
+        <v>36.73918651126525</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>21.53826392084727</v>
+        <v>24.68945948427893</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>44.13385358724669</v>
+        <v>39.9763939421898</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>39.31718732991446</v>
+        <v>37.59516541481437</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>35.62488715472003</v>
+        <v>35.88647823375929</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>42.88192843138631</v>
+        <v>41.89270942656728</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>20.57394317664029</v>
+        <v>25.89928712107991</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>48.66305831707172</v>
+        <v>43.59341402719308</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>38.99952924072668</v>
+        <v>35.13792706988882</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>27.93516503885556</v>
+        <v>29.23744083304286</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>34.21815624827334</v>
+        <v>34.56327659800414</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>15.12457256391791</v>
+        <v>22.25435696606265</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>47.48779976693163</v>
+        <v>41.87470450566241</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>14.8966622202865</v>
+        <v>18.40637773547129</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>15.66140663719526</v>
+        <v>17.53927716365171</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>3.870341055981548</v>
+        <v>10.18045553838535</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>24.09183230578204</v>
+        <v>19.39584996557543</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>14.61584086371515</v>
+        <v>17.39160426477487</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>15.56032288093297</v>
+        <v>16.47306294928013</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>2.841996218199693</v>
+        <v>8.543868829719614</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>35.56524896182265</v>
+        <v>35.80160800550636</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>43.14879130039657</v>
+        <v>41.66061172197353</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>23.81815873511326</v>
+        <v>28.03220129635063</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>49.89915291495295</v>
+        <v>44.72865445806329</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>46.06566034575093</v>
+        <v>46.23122462670705</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>55.66623199038375</v>
+        <v>53.56791428624477</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>32.63651559932364</v>
+        <v>36.23351164830378</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>36.4788487168917</v>
+        <v>37.20440915472125</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>43.8565228650357</v>
+        <v>43.1980052179221</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>23.91207771813188</v>
+        <v>28.38429523856164</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>55.92003013355661</v>
+        <v>50.0391445444196</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>46.48178208712881</v>
+        <v>47.29097270003169</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>56.19305695200586</v>
+        <v>54.62233783661226</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>30.12756163725602</v>
+        <v>35.23622676748894</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>30.64083079838211</v>
+        <v>33.64592036145959</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>37.81528965206279</v>
+        <v>39.34952868222908</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>20.42781219962093</v>
+        <v>26.9011850122195</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>56.11365996530546</v>
+        <v>47.20004563327495</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>41.39450657784433</v>
+        <v>42.58259461077536</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>49.51282953082186</v>
+        <v>49.03950169720318</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>24.3087158881084</v>
+        <v>29.50651918548487</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>46.61651313669957</v>
+        <v>46.15692478556277</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>26.22694741961486</v>
+        <v>25.36262307680198</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>32.71038469302624</v>
+        <v>30.91490913107836</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>13.86209502636339</v>
+        <v>20.26985457469095</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>28.32664709209963</v>
+        <v>24.0685893626629</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>52.4878403749335</v>
+        <v>47.45879305930886</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>43.29898190747465</v>
+        <v>40.82064250145241</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>53.11830607060742</v>
+        <v>48.52431992485565</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>26.72043551999915</v>
+        <v>30.95587988725067</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>46.04395864904866</v>
+        <v>41.3295787685233</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>52.37251964941252</v>
+        <v>48.61242040956552</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>41.13297715367019</v>
+        <v>40.8828640983032</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>49.73750818318215</v>
+        <v>47.28099621434512</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>18.84596080711371</v>
+        <v>22.7389076986354</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>48.25000995048804</v>
+        <v>43.84620681677791</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>55.45007816487647</v>
+        <v>52.8701889562636</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>34.51277287374776</v>
+        <v>36.94560107685313</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>42.42974916068207</v>
+        <v>42.88746720424518</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>10.52017490152337</v>
+        <v>17.43467989510779</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>49.75247106615703</v>
+        <v>44.69350328605555</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>25.13955690546784</v>
+        <v>28.23344649479684</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>30.16489155014872</v>
+        <v>32.30743226754362</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>15.2658581067682</v>
+        <v>21.81607442295424</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>36.4879857936757</v>
+        <v>34.83801497936631</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>29.47458908395088</v>
+        <v>31.95462214047251</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>34.21638981322292</v>
+        <v>34.85315741401423</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>14.27597676952453</v>
+        <v>21.10988093900951</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>39.61370803229775</v>
+        <v>39.3716636802333</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>50.56049897561054</v>
+        <v>48.92834080567289</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>27.71300583614104</v>
+        <v>31.10732807018731</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>54.48102929233255</v>
+        <v>51.69676398305005</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>51.43733388858257</v>
+        <v>49.53404810015126</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>64.68586782068218</v>
+        <v>61.60104910376101</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>35.37819342131954</v>
+        <v>39.23275094562818</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>38.81589793866996</v>
+        <v>39.67180957527263</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>49.24170692911626</v>
+        <v>48.42031669992691</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>25.63093533849501</v>
+        <v>29.90465741645838</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>58.76517590966674</v>
+        <v>53.34297232226577</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>52.19698208023412</v>
+        <v>50.76254254378117</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>65.63317664603572</v>
+        <v>62.38232643729439</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>33.67499498990566</v>
+        <v>39.14306668326483</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>35.43556430970677</v>
+        <v>37.12741237056088</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>45.62999609282818</v>
+        <v>46.53337756319603</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>23.70604558533592</v>
+        <v>28.36948590310605</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>61.91874068705035</v>
+        <v>54.03090654372437</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>50.53945247371944</v>
+        <v>47.23971064266872</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>62.80618046396992</v>
+        <v>57.73751212934604</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>30.01082377427738</v>
+        <v>32.60797080966567</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>25.71337651279535</v>
+        <v>21.24555466207169</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>13.72605762708475</v>
+        <v>17.9838910174788</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>19.64402086854962</v>
+        <v>20.54704502360482</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>2.840953883116459</v>
+        <v>10.6723941296623</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>23.84410351619957</v>
+        <v>20.02642062925527</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>47.67677346826298</v>
+        <v>47.06731461306282</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>43.37686317016093</v>
+        <v>43.57315548542134</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>55.38070173283479</v>
+        <v>54.58733073845707</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>28.96017669033281</v>
+        <v>33.54071267168977</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>48.02982119009279</v>
+        <v>42.12838049686943</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>47.70665901979967</v>
+        <v>46.66793690529704</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>40.00036376413829</v>
+        <v>38.90742479709195</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>51.06279337819268</v>
+        <v>48.27941887350129</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>20.4458944894475</v>
+        <v>23.43963116555653</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>48.78040313772919</v>
+        <v>44.38472660644369</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>44.40465521553158</v>
+        <v>41.3328235957352</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>32.03574749922421</v>
+        <v>35.16715050097596</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>40.75140901295612</v>
+        <v>42.32853183699243</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>13.53101188414795</v>
+        <v>21.13602689985113</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>45.66551081321356</v>
+        <v>41.1122162768611</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>21.68841184964033</v>
+        <v>23.9680903646158</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>26.04376103685424</v>
+        <v>26.6051158974507</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>10.61551081198662</v>
+        <v>18.00676844849227</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>28.16616540512589</v>
+        <v>24.06526186981358</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>20.18891768688262</v>
+        <v>24.97668729027736</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>23.11135416654817</v>
+        <v>26.14036923199922</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>5.433930150012763</v>
+        <v>15.31835779064639</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>41.54143008939634</v>
+        <v>39.0816612707882</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>53.62785249885039</v>
+        <v>49.27065777102284</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>27.8866725459354</v>
+        <v>30.7006391751089</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>55.72565421928199</v>
+        <v>52.45404952412194</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>51.04553142024592</v>
+        <v>48.9377739236485</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>64.16930505660612</v>
+        <v>60.77525644246555</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>33.10271009220847</v>
+        <v>37.39688095919387</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>39.01182143102163</v>
+        <v>39.80900758008083</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>50.3110560750163</v>
+        <v>48.95420495749671</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>24.49731824535548</v>
+        <v>29.6179322185568</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>57.04176425935111</v>
+        <v>53.772948823123</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>49.17813733642392</v>
+        <v>48.88517403110256</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>61.93232260108771</v>
+        <v>58.64546305327559</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>29.24823800348512</v>
+        <v>36.57649570225485</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>31.36683708487196</v>
+        <v>33.69809240925413</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>40.1696431473088</v>
+        <v>40.83175938443239</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>20.56559349383518</v>
+        <v>26.6136865316027</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>53.81110171087964</v>
+        <v>50.31339373445324</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>42.11965569853869</v>
+        <v>42.98992488061942</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>51.04468862279539</v>
+        <v>48.25063898043827</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>23.60948623801477</v>
+        <v>30.24943042821398</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.572</v>
+        <v>0.5639999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.651</v>
+        <v>16.886</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.633</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.061</v>
+        <v>15.554</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.985</v>
+        <v>0.919</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.319</v>
+        <v>7.814</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.01411766776417</v>
+        <v>15.03732963384002</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>13.25533512258115</v>
+        <v>4.090805749143804</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>13.61696288360361</v>
+        <v>8.930232070589351</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>11.08967634467506</v>
+        <v>-4.643582461090119</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18.14657035759995</v>
+        <v>30.73671328538237</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>18.58086435414492</v>
+        <v>23.82396533215863</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>24.1628534707408</v>
+        <v>22.62596947589696</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>27.20212514971155</v>
+        <v>31.25146891020927</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>18.84430357910038</v>
+        <v>10.60276004085395</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>49.23674663421891</v>
+        <v>51.20337252297746</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>18.29500836118086</v>
+        <v>24.73822929009009</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>20.56395266850013</v>
+        <v>19.64798808395595</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>23.20991371494905</v>
+        <v>27.84224715825113</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>13.05518227705262</v>
+        <v>3.454477091805044</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>48.37923450116771</v>
+        <v>52.38964912763689</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>19.71192254534873</v>
+        <v>28.84610309708508</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>16.96438341086757</v>
+        <v>13.69628620610472</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>18.91449541643117</v>
+        <v>21.04774485834797</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>11.6878513440768</v>
+        <v>-3.323854190356002</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>47.70019680473332</v>
+        <v>53.38893242494918</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>25.53076261914881</v>
+        <v>22.25071485791739</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>26.10221554947903</v>
+        <v>26.04236697584801</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>16.15126138179611</v>
+        <v>11.00147989518747</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>22.00811099265356</v>
+        <v>29.08748079525763</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>26.70364981079207</v>
+        <v>22.13305421791615</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>27.71185172257073</v>
+        <v>27.87936075290977</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>17.82510386059692</v>
+        <v>8.133150783954283</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>47.58746522819067</v>
+        <v>48.25489849779433</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>55.92442012527693</v>
+        <v>58.23519938291132</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>38.9417721267112</v>
+        <v>36.00708628511232</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>49.9548987016466</v>
+        <v>58.35263263620969</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>58.57070310520975</v>
+        <v>59.17968709943284</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>69.92980940197816</v>
+        <v>72.53127316868849</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>49.89745540289377</v>
+        <v>43.23281998025979</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>44.68576235634805</v>
+        <v>44.13104075804281</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>51.66756162736068</v>
+        <v>53.83040519438133</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>35.65854875474081</v>
+        <v>30.21062962740666</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>51.64793410249344</v>
+        <v>60.90265942496487</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>55.39136947670173</v>
+        <v>56.96029464215761</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>66.32597389430333</v>
+        <v>70.21546538455841</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>45.72119331539257</v>
+        <v>38.22781359952464</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>37.82882986768338</v>
+        <v>34.53688265275341</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>43.73028884104211</v>
+        <v>43.1129073343018</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>30.22501965284165</v>
+        <v>21.65329344127927</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>56.38632455046007</v>
+        <v>63.321437324271</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>53.38962138779763</v>
+        <v>51.33084309437582</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>63.22252206554415</v>
+        <v>62.67480342426134</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>41.61099487165232</v>
+        <v>32.11036566567585</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>43.30750408846612</v>
+        <v>46.37183450525751</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>25.4875728441244</v>
+        <v>26.35950420587724</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.31106332898095</v>
+        <v>36.09170847476737</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>14.66077947364274</v>
+        <v>8.256553748688782</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>26.28912942856281</v>
+        <v>36.75057763384746</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>47.07114244754755</v>
+        <v>52.95763435107635</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>41.30584261171713</v>
+        <v>41.61483020695648</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>52.88302192762988</v>
+        <v>55.52864260714198</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>31.00259617515298</v>
+        <v>19.32463510723998</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>53.86224264909209</v>
+        <v>55.59137220488279</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>46.19379850765871</v>
+        <v>51.88459613033842</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>36.90372154870171</v>
+        <v>38.87318890894943</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>46.58343763309608</v>
+        <v>52.24053542465383</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>21.68439264991772</v>
+        <v>12.8134560244828</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>50.70394941013845</v>
+        <v>54.83628317252939</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>53.18501323403594</v>
+        <v>56.99828621421568</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>38.5667664020703</v>
+        <v>36.87242598740142</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>49.16224140412938</v>
+        <v>49.31420821290121</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>23.82201693750324</v>
+        <v>10.07887680663733</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>53.03302999104449</v>
+        <v>53.79997543537092</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>30.06368809372032</v>
+        <v>26.99414674521269</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>33.92234338656472</v>
+        <v>35.1711646729371</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>19.61691530216769</v>
+        <v>11.90269085176244</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>43.13814890716951</v>
+        <v>43.41169996170652</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>34.53097824137915</v>
+        <v>30.53102622800518</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>39.13058226216799</v>
+        <v>40.6944030512669</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>20.469312833751</v>
+        <v>9.554804315645448</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>50.03388483232489</v>
+        <v>46.43067320164842</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>61.72312958364697</v>
+        <v>59.86420163126657</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>38.47049314730911</v>
+        <v>27.12939352192009</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>60.1496050237085</v>
+        <v>63.27122653901023</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>57.01565632850333</v>
+        <v>55.55258903391868</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>71.59159053239141</v>
+        <v>72.5872104287251</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>43.59964749558284</v>
+        <v>30.87085539924695</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>46.50608099062785</v>
+        <v>42.50990010334819</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>56.53762862943167</v>
+        <v>55.54398775509175</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>35.03792589318619</v>
+        <v>22.01405227036934</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>59.08212291948445</v>
+        <v>64.04578030659491</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>55.44093871757387</v>
+        <v>54.12857314542975</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>69.19722011438175</v>
+        <v>71.36200333446223</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>41.56670210012596</v>
+        <v>27.53005270197973</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>42.32612829583972</v>
+        <v>36.97853912780224</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>50.48428471069069</v>
+        <v>49.03625600983653</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>34.96498476410531</v>
+        <v>19.81940181033456</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>59.19483539804506</v>
+        <v>67.10639471567549</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>55.39436519605115</v>
+        <v>53.19925545326524</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>67.13638271340346</v>
+        <v>69.22580965730396</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>43.50352524000306</v>
+        <v>27.96689623108744</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>32.49388737367326</v>
+        <v>37.21950600534298</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>20.79575827352998</v>
+        <v>24.03937325804956</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>26.46632687165119</v>
+        <v>31.40496765105069</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>10.71509119479027</v>
+        <v>10.88870145970671</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>24.93609330452173</v>
+        <v>37.34163362085083</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>44.67239328290328</v>
+        <v>45.97817736203839</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>43.16816399990905</v>
+        <v>40.99938254960826</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>54.56331961650781</v>
+        <v>52.79391742497945</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>31.43654709244945</v>
+        <v>24.01321333982802</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>51.79050212006133</v>
+        <v>57.10703686080288</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>44.13667386162679</v>
+        <v>45.54027666330413</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>38.2929749439979</v>
+        <v>38.46359657244276</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>48.2680689963485</v>
+        <v>49.91572209970012</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>20.43101752048761</v>
+        <v>17.42199066551349</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>52.41114654241076</v>
+        <v>56.86802819186892</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>50.3261927912594</v>
+        <v>50.00852920376813</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>40.08921194817758</v>
+        <v>36.20120115029438</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>50.50990912889635</v>
+        <v>46.6355843169672</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>23.58916946312573</v>
+        <v>14.03528489822073</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>53.60264798113919</v>
+        <v>55.68956880260113</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>30.32627796225175</v>
+        <v>28.45735414699851</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>34.53020710274969</v>
+        <v>36.13048466483657</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>20.16322957919629</v>
+        <v>13.93018998533817</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>40.74391869007502</v>
+        <v>42.34554393840116</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>34.49671292476719</v>
+        <v>31.10594325107963</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>38.83620317711812</v>
+        <v>40.92565912024952</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>21.32441328283782</v>
+        <v>11.21427782085466</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>49.95567703525012</v>
+        <v>48.65319521854872</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>61.73767129022155</v>
+        <v>61.66349682034854</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>38.11000892783069</v>
+        <v>30.14924621982375</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>55.92394870375419</v>
+        <v>63.86470844655359</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>55.62031043157424</v>
+        <v>57.6914807607109</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>69.27306907752728</v>
+        <v>74.46866212806388</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>43.32482533753671</v>
+        <v>34.23812618372565</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>48.40748375072084</v>
+        <v>45.24143887226579</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>59.68642566426274</v>
+        <v>58.00719406669883</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>35.92544011052519</v>
+        <v>25.43270521220324</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>55.75774974988478</v>
+        <v>65.22196590593312</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>55.262566326155</v>
+        <v>56.8605660801386</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>69.12996311356682</v>
+        <v>74.04676412530992</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>41.70955280197349</v>
+        <v>31.38411000982215</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>42.78973187525391</v>
+        <v>40.05081550774658</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>53.81212006270397</v>
+        <v>51.99564829338676</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>32.56685970618398</v>
+        <v>23.22106399108334</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>59.28712037168425</v>
+        <v>68.18727966945026</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>56.33486975662157</v>
+        <v>56.2572728907069</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>70.96803367214179</v>
+        <v>72.46409708957403</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>43.23560142873687</v>
+        <v>31.97928004808283</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>12.04575266018579</v>
+        <v>17.47921559802657</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>26.70133461450135</v>
+        <v>15.75017035458566</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>30.01543522252393</v>
+        <v>21.19366176009171</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>36.99310781096688</v>
+        <v>15.25543233045146</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>15.46737324099954</v>
+        <v>27.22397300571859</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>20.02496618300914</v>
+        <v>27.80150492408055</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>36.56714327539004</v>
+        <v>35.80529991954693</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>42.9992537657296</v>
+        <v>44.83186799988086</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>43.25788680252268</v>
+        <v>31.84642584981537</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>51.83867325795899</v>
+        <v>49.89588392524382</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>19.14095402826663</v>
+        <v>29.33091459695854</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>34.69171082143554</v>
+        <v>33.48616470613565</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>41.09048580459291</v>
+        <v>42.11508109878588</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>40.3267165056316</v>
+        <v>25.32268851727936</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>50.8081971299561</v>
+        <v>51.37002458958973</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>21.13492120806355</v>
+        <v>32.19417923513609</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>31.33551847081726</v>
+        <v>26.42755859590233</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>36.90543802433078</v>
+        <v>34.55753544759786</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>39.31309769126266</v>
+        <v>17.76723304176193</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>43.57399536607019</v>
+        <v>49.2583850050401</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>20.11335868701985</v>
+        <v>20.16258941272699</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>20.28732443740051</v>
+        <v>23.72982590644225</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>12.18151711767118</v>
+        <v>10.35659332326869</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>18.07634926338152</v>
+        <v>29.17760794061106</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>21.85015630041874</v>
+        <v>22.57778932995145</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>23.37260433456905</v>
+        <v>27.49502832472756</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>17.58175986501769</v>
+        <v>9.85956112057395</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>48.26118213983921</v>
+        <v>47.83515053013996</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>56.63293730818873</v>
+        <v>57.64123024920627</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>38.04569073178425</v>
+        <v>36.27033117100792</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>53.01682408169484</v>
+        <v>57.13294870687335</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>59.5306314748</v>
+        <v>58.3003223403163</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>70.52510244985012</v>
+        <v>70.6114097411857</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>50.5712877171632</v>
+        <v>43.05047045505285</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>44.86977783572097</v>
+        <v>44.1757515750204</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>52.20163635917945</v>
+        <v>53.75883714001083</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>34.48635701522959</v>
+        <v>31.0045452898615</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>53.18659619997714</v>
+        <v>59.36043736834718</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>56.34100349335129</v>
+        <v>55.9822934187959</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>66.03238239775428</v>
+        <v>68.21006458150157</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>45.76121342263902</v>
+        <v>37.99889481467748</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>31.8019249574938</v>
+        <v>32.39312873422458</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>37.07032063606796</v>
+        <v>40.86279044929286</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>25.67745564187702</v>
+        <v>21.06243643018696</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>50.93222149306024</v>
+        <v>60.65119712364944</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>48.58958322323974</v>
+        <v>49.2420359076157</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>56.64808982236353</v>
+        <v>59.75211596457845</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>40.19505241905718</v>
+        <v>31.31553523170779</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>33.50502911925248</v>
+        <v>30.77923997224983</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>16.30918254388542</v>
+        <v>11.79793912895462</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>21.1821068163959</v>
+        <v>18.48017228419449</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>3.186344096481712</v>
+        <v>-5.746887160062329</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>24.75843947252073</v>
+        <v>40.27096759634615</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>46.5173149049107</v>
+        <v>43.2544726283483</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>28.43167568127418</v>
+        <v>32.27191257410671</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>35.54582648579849</v>
+        <v>42.55010378314189</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>2.663100785703936</v>
+        <v>9.0703993149118</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>52.63338993594873</v>
+        <v>59.36425427685919</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>46.47004496750326</v>
+        <v>45.40429899429259</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>27.7327488464989</v>
+        <v>30.58615084743104</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>34.59516721418551</v>
+        <v>40.52087132971638</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>-1.030355960770464</v>
+        <v>2.904595713796423</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>53.07109215175317</v>
+        <v>61.07892617062224</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>50.39735492596574</v>
+        <v>49.90624085605592</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>25.06632528203769</v>
+        <v>26.00252204758201</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>32.52365118238287</v>
+        <v>35.63700062497807</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-0.7292022857969371</v>
+        <v>-1.527012086692398</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>53.7958357047498</v>
+        <v>62.69707543902246</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>33.39268462206398</v>
+        <v>30.71401442195141</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>38.15744394962681</v>
+        <v>37.71454916660419</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>25.50176804573081</v>
+        <v>15.15811275819063</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>36.47503152925539</v>
+        <v>41.17543770750487</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>34.26518491676827</v>
+        <v>31.1970691757031</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>38.19236335208294</v>
+        <v>38.47422232451712</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>24.52356239286479</v>
+        <v>13.09386518366111</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>55.32958028475933</v>
+        <v>53.5272589403656</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>67.5781337585952</v>
+        <v>66.64975446970745</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>44.02107940204853</v>
+        <v>35.30410079087489</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>54.48967698932348</v>
+        <v>64.89793498754661</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>57.44623223311436</v>
+        <v>61.44876431115384</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>70.88347984446078</v>
+        <v>76.10131426537289</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>47.36396967597069</v>
+        <v>40.09269971795352</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>52.35952627946635</v>
+        <v>49.93474519773561</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>64.16229171564262</v>
+        <v>62.95303446193644</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>39.79897200643873</v>
+        <v>29.85598245490473</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>53.90134087085072</v>
+        <v>67.21958960914873</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>55.53370761433658</v>
+        <v>59.1463536544389</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>68.17021147897016</v>
+        <v>73.87291932030487</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>44.62817127306303</v>
+        <v>34.93816340571252</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>46.22287164318226</v>
+        <v>43.23895553957644</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>58.50623027023175</v>
+        <v>55.62060121770674</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>38.09781568917404</v>
+        <v>25.43712911558399</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>59.79758601143056</v>
+        <v>72.637832157472</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>55.99819345150445</v>
+        <v>57.75116927519782</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>69.14088485608085</v>
+        <v>71.15847411176226</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>44.07944535045051</v>
+        <v>33.90126556996259</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>37.90440185913174</v>
+        <v>37.4232196438635</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>14.80418257300594</v>
+        <v>8.955356779555263</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>21.78493884176664</v>
+        <v>17.61344213042976</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>0.02119292964967201</v>
+        <v>-17.37125322665958</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>33.28734124272763</v>
+        <v>41.13687062669372</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>42.84434383703669</v>
+        <v>43.89282257319812</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>24.67854175287114</v>
+        <v>22.1432899856957</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>31.83209155028978</v>
+        <v>33.74510241742358</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-4.593444033238722</v>
+        <v>-12.1002033615978</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>52.85884286133117</v>
+        <v>56.47059357176188</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>46.38343208973244</v>
+        <v>44.56776524392754</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>30.52335005911684</v>
+        <v>20.92599131406005</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>36.74987498443193</v>
+        <v>32.12622642688834</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-3.040072475582242</v>
+        <v>-17.41796029657023</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>56.68634925255757</v>
+        <v>57.37449280735407</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>54.04658496124129</v>
+        <v>50.49346365290359</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>28.27832470483365</v>
+        <v>19.91565357959815</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>36.12013028610661</v>
+        <v>31.28860558284064</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-4.844225439892206</v>
+        <v>-17.1155949607706</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>58.31568718706858</v>
+        <v>60.21872860046817</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>35.3030138538677</v>
+        <v>33.82507206418543</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>42.24690977256359</v>
+        <v>44.44796401654465</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>24.89453534328802</v>
+        <v>18.19592848297957</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>40.91462809677225</v>
+        <v>42.6415860723031</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>35.6619264685928</v>
+        <v>33.41458405531762</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>41.20100723089598</v>
+        <v>43.89334786563292</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>22.44765251882639</v>
+        <v>14.21481028666154</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>52.85574670965114</v>
+        <v>50.19304797884232</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>66.18361491435969</v>
+        <v>65.83074802558912</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>40.72553946235185</v>
+        <v>29.2771583256239</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>52.74556206955351</v>
+        <v>61.37295799284017</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>55.63508958432398</v>
+        <v>57.11203564674477</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>69.22098764168413</v>
+        <v>73.84883989394156</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>45.04201019663466</v>
+        <v>33.48938164231953</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>51.695473475013</v>
+        <v>47.77754572344906</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>65.2705404258482</v>
+        <v>63.35480401056532</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>38.10185723804707</v>
+        <v>25.2702831026119</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>54.55516881559792</v>
+        <v>63.85850488172025</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>57.77534458554845</v>
+        <v>57.21202920408646</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>71.71327531732501</v>
+        <v>74.364656873968</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>46.29023854498374</v>
+        <v>31.42481446926097</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>49.09498336261414</v>
+        <v>46.35534246076715</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>61.94682833364224</v>
+        <v>61.44115209076989</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>39.34107332130875</v>
+        <v>27.98551114866118</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>59.36411072803254</v>
+        <v>67.81832075214741</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>55.71456792628857</v>
+        <v>56.98540884235716</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>69.45196479219075</v>
+        <v>73.45188927984807</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>42.30608683773035</v>
+        <v>32.87657973030527</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>10.98946177638444</v>
+        <v>13.51872937164487</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>15.22803629742315</v>
+        <v>3.144385735259238</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>15.29211003402239</v>
+        <v>6.974399846210559</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>12.64876565652459</v>
+        <v>-6.822784616138151</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>18.51322207839288</v>
+        <v>21.48133910558863</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>16.6241059612826</v>
+        <v>18.6082610939707</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>23.22263099314315</v>
+        <v>15.57773973653697</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>25.40340885034528</v>
+        <v>22.90844328206111</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>17.41712228622682</v>
+        <v>1.943760400386074</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>39.78740432764024</v>
+        <v>41.25539308366646</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>14.37093670792978</v>
+        <v>17.04115177820873</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>18.23050936995271</v>
+        <v>11.16167927545683</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>18.96625968428089</v>
+        <v>18.0536168605721</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>8.361757402834858</v>
+        <v>-6.047537194322945</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>42.55075712421153</v>
+        <v>41.01605212955171</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>13.72089336749571</v>
+        <v>20.33600283002901</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>14.32830782138059</v>
+        <v>7.221842705967084</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>14.80674181940613</v>
+        <v>13.24294317857968</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>6.51340487618176</v>
+        <v>-10.5852160115103</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>40.83347756594397</v>
+        <v>40.35365399572785</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>25.14314674459852</v>
+        <v>17.32109554421921</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>27.40423451448997</v>
+        <v>21.62722944938898</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>18.25691629674929</v>
+        <v>7.268699799406427</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>21.66126251934192</v>
+        <v>24.21909171908392</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>26.86964026599068</v>
+        <v>22.32849570909941</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.40509668673276</v>
+        <v>29.07318974574103</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>17.88744177081523</v>
+        <v>8.885390833587513</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>38.00490190876751</v>
+        <v>39.21070861065492</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>46.79667781776021</v>
+        <v>48.331298755663</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>28.83469888127503</v>
+        <v>26.56679560201363</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>48.70774055511193</v>
+        <v>51.2844631658718</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>50.54052598634915</v>
+        <v>54.56791376498944</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>61.98492941393119</v>
+        <v>67.60306015196082</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>42.62773803923793</v>
+        <v>38.43574903914221</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>38.0778224246895</v>
+        <v>35.08235244142666</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>44.77400643551472</v>
+        <v>43.83360380757979</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>29.66354567280249</v>
+        <v>21.21923024036485</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>51.08252771882555</v>
+        <v>53.73563530053765</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>51.15109608247234</v>
+        <v>53.75700592403437</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>62.10543013077992</v>
+        <v>66.90783137164219</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>42.49988562631049</v>
+        <v>35.50077980408203</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>30.41769802883217</v>
+        <v>27.96726326836777</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>36.30494100490267</v>
+        <v>35.89041038386138</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>23.90003351731464</v>
+        <v>16.01063027997961</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>55.28983242645045</v>
+        <v>55.73643676225561</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>52.70292879816217</v>
+        <v>50.90912532324096</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>64.04052169337712</v>
+        <v>62.92679047648372</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>41.62979250251263</v>
+        <v>33.03327608891622</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>5.603181988656655</v>
+        <v>7.823111921274998</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>8.184142118723365</v>
+        <v>-2.323345875076409</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>8.81375573263616</v>
+        <v>1.382421849666688</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>9.082533166790299</v>
+        <v>-10.78841433273383</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>7.071545432935721</v>
+        <v>10.66084942764681</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>11.77548010037094</v>
+        <v>14.99633825281159</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>15.05447858771356</v>
+        <v>12.32394686513232</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>17.04382421993961</v>
+        <v>19.28604595940632</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>11.47775418939858</v>
+        <v>-0.9570903427345527</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>24.06943678257552</v>
+        <v>24.58389658189673</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>11.88837485836697</v>
+        <v>15.28723832600312</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>14.69186443684896</v>
+        <v>8.621417211304658</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>16.60669941563736</v>
+        <v>15.1461702009924</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>9.556131906916571</v>
+        <v>-9.030612191445424</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>25.02037640549982</v>
+        <v>24.86150122089671</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>8.052507413879582</v>
+        <v>19.53244726647181</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>8.843019612247694</v>
+        <v>4.578337229499446</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>10.07803193724253</v>
+        <v>10.77844374669693</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>5.365974032219366</v>
+        <v>-13.01851920455632</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>19.86638452049107</v>
+        <v>26.25061074661639</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>19.06336556137483</v>
+        <v>3.819695183686555</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>17.83204975816492</v>
+        <v>5.714355084729949</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>12.38708682202515</v>
+        <v>-8.384057630053981</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>22.08707673533749</v>
+        <v>19.31434105125465</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>19.33624898936026</v>
+        <v>9.05270523048269</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>18.43532953356297</v>
+        <v>11.40291692833431</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>7.886195675865512</v>
+        <v>-7.631586218227628</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>25.56284309260186</v>
+        <v>20.42748941115724</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>27.70664249198334</v>
+        <v>27.93643165526421</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>15.56611472539723</v>
+        <v>5.62700391586559</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>44.61551292435624</v>
+        <v>39.61232154756107</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>39.11413554679569</v>
+        <v>34.63508603691771</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>44.57168524200929</v>
+        <v>43.92669063673134</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>25.3878359955228</v>
+        <v>14.51137852798652</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>20.67507491951529</v>
+        <v>15.32577478834015</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>21.6258415283513</v>
+        <v>22.64974424474071</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>10.20892681920914</v>
+        <v>-1.168418000603403</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>45.59387323400447</v>
+        <v>40.82733638247564</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>36.42919494975057</v>
+        <v>31.12380557409858</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>39.9074507327212</v>
+        <v>40.45379406545203</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>21.51450272995178</v>
+        <v>8.205149479900339</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>12.87111200324747</v>
+        <v>9.3511360958769</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>14.15977103611483</v>
+        <v>16.0471193198964</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>7.807068778915191</v>
+        <v>-4.595594074925504</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>46.50261606812802</v>
+        <v>46.1564079929509</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>35.98928106964652</v>
+        <v>30.49338580183764</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>38.95344799893488</v>
+        <v>38.51114911295785</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>21.40300930250528</v>
+        <v>8.220774304537095</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>45.28120060148544</v>
+        <v>54.2065809602484</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>24.70594917972976</v>
+        <v>29.14696803236364</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>30.60838379601037</v>
+        <v>39.85336548437628</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>20.08621428664113</v>
+        <v>8.608019783447732</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>22.80318635121959</v>
+        <v>33.59738909840192</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>49.19341108776925</v>
+        <v>62.22475882084906</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>45.31326755885347</v>
+        <v>46.28239917449376</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>55.81636512560823</v>
+        <v>61.19527876582754</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>35.79051804225</v>
+        <v>20.14819730297107</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>41.75041558811565</v>
+        <v>50.99710659837974</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>53.82134066245736</v>
+        <v>59.51458551085085</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>44.23590510016874</v>
+        <v>41.61717696504243</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>53.49606193457623</v>
+        <v>56.07021147767045</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>27.22710057483552</v>
+        <v>11.24988027983594</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>44.8294677503482</v>
+        <v>50.48996146764017</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>53.76315934498685</v>
+        <v>63.19999266909674</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>39.4105867025921</v>
+        <v>36.81808236234262</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>46.89369796352361</v>
+        <v>50.08381737044118</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>21.70057983460136</v>
+        <v>6.019416142189931</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>40.98002833408846</v>
+        <v>50.4106245241984</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>26.48764526867414</v>
+        <v>23.41259781349182</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>30.42307093944236</v>
+        <v>32.88349355872163</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>17.81703786208683</v>
+        <v>8.747982504331024</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>40.26573248552087</v>
+        <v>41.19314979712679</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>32.19243850171844</v>
+        <v>30.14922246695278</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>36.6432053282145</v>
+        <v>40.27670722632207</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>20.82765488113504</v>
+        <v>11.35984155832457</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>41.10418207528225</v>
+        <v>43.1567964911127</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>51.19650542112365</v>
+        <v>57.67221057729242</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>32.33949545075033</v>
+        <v>24.58434324144523</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>54.23019188792256</v>
+        <v>59.03798384828531</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>50.68564778904701</v>
+        <v>53.71360445202485</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>62.85857598064985</v>
+        <v>70.13262699410512</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>40.1138965925709</v>
+        <v>31.91162307046661</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>40.31708695219864</v>
+        <v>39.37086878891473</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>49.96629790615899</v>
+        <v>53.66969257981408</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>30.70246603512143</v>
+        <v>19.20194636186102</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>56.76932929956839</v>
+        <v>59.44053152389723</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>54.258236005565</v>
+        <v>51.74063676424133</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>67.02482375617934</v>
+        <v>68.47936794845695</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>43.21559161640094</v>
+        <v>27.80329337274235</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>32.64634705384209</v>
+        <v>33.02180282496839</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>41.3677359306316</v>
+        <v>46.49515358810649</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>25.72166788629302</v>
+        <v>15.56595771829327</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>55.61136445666536</v>
+        <v>63.71361521825698</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>51.76937403446848</v>
+        <v>51.04612613553566</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>64.50397264512077</v>
+        <v>66.80331195078699</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>41.1014350425163</v>
+        <v>27.59537638572851</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>7.135373412231232</v>
+        <v>10.65936179326842</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>11.09290462512389</v>
+        <v>1.604269609239719</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>10.49107983301094</v>
+        <v>4.812282616595873</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>9.083518079311844</v>
+        <v>-6.947287418252497</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>8.639649778525765</v>
+        <v>12.64815329881902</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>12.64863404887512</v>
+        <v>19.26242794513019</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>18.23490754642966</v>
+        <v>16.37742999640536</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>19.88316315843576</v>
+        <v>23.0068077416932</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>15.07223998085032</v>
+        <v>5.657760408898492</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>37.75424586312133</v>
+        <v>36.22803964873843</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>12.77931744094148</v>
+        <v>18.97206853825328</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>16.2294415158698</v>
+        <v>13.78607506799876</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>17.09058840527143</v>
+        <v>19.8449565464433</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>10.86067721751123</v>
+        <v>0.3237503646486388</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>35.73338893502483</v>
+        <v>35.37978489651069</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>11.47887638820988</v>
+        <v>17.95230679177365</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>12.62599148931895</v>
+        <v>7.282297856486423</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>13.55515568539565</v>
+        <v>12.24305854351937</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>9.386381007269332</v>
+        <v>-6.779058285064536</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>27.84730122819143</v>
+        <v>27.91052516115638</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>14.75114754844383</v>
+        <v>6.27028757794535</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>14.49136454389844</v>
+        <v>8.429695213135625</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>8.953654849600902</v>
+        <v>-2.479025287924465</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>9.211157196192765</v>
+        <v>17.50797900263504</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>16.52326030109543</v>
+        <v>12.74812670296041</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>16.90522627954453</v>
+        <v>16.80339514585889</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>12.0914347569799</v>
+        <v>0.07307459611093492</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>33.48318408152415</v>
+        <v>29.38306701662392</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>39.86673888576471</v>
+        <v>36.05336612679037</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>24.77290926227812</v>
+        <v>17.66828342563326</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>43.13328166827763</v>
+        <v>47.41674318433466</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>50.68212243396945</v>
+        <v>45.54797223067351</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>58.55730746391509</v>
+        <v>55.5767239546702</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>42.19869275781508</v>
+        <v>29.36653462286205</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.07109092832088</v>
+        <v>24.7565796788538</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>30.58025573193664</v>
+        <v>30.79770280596338</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>19.69119833720422</v>
+        <v>12.23981234566877</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>46.54121687463262</v>
+        <v>49.29776781364214</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>46.31260703983926</v>
+        <v>44.06187696621478</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>51.00829823645584</v>
+        <v>53.87751655897448</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>34.93967394440347</v>
+        <v>25.99834114670943</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>14.78578915539239</v>
+        <v>13.10709837996548</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>15.43246857464122</v>
+        <v>17.97692910221224</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>11.7431445885672</v>
+        <v>3.230794800300618</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>48.36058376697952</v>
+        <v>45.61066627552391</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>39.5927681494892</v>
+        <v>37.10675168606993</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>43.31428275497626</v>
+        <v>45.45990307161223</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>28.11056309368358</v>
+        <v>20.43497424297868</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>1.451895533384761</v>
+        <v>4.163631143654978</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>4.851703619244105</v>
+        <v>-6.984402361619541</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>3.993270486889905</v>
+        <v>-3.442527855877003</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>4.672982126267978</v>
+        <v>-17.80263702724483</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>23.75793253017562</v>
+        <v>29.98726477447556</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>3.718035650142177</v>
+        <v>10.30282881021335</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>10.02858132173047</v>
+        <v>5.548912569911884</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>9.717888293648224</v>
+        <v>12.44993546824332</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>6.305695645815071</v>
+        <v>-9.884376997012318</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>40.67339974976992</v>
+        <v>47.27789033725487</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>6.235071053951923</v>
+        <v>12.7402579574671</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>13.43786200378692</v>
+        <v>5.998884162130512</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>12.28297104653267</v>
+        <v>12.66112192972809</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>6.356010051571516</v>
+        <v>-13.24567631023004</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>42.62351014584692</v>
+        <v>48.35728867138393</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>11.70777376408822</v>
+        <v>18.10518887359467</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>12.9225530693543</v>
+        <v>6.111006873989622</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>12.4417522789734</v>
+        <v>12.69554543758531</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>8.253641316346116</v>
+        <v>-13.19702405283173</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>41.73469810555815</v>
+        <v>48.65142654184578</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>25.57265145606965</v>
+        <v>24.52843893536478</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.07554266464076</v>
+        <v>31.22048288117184</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>18.57800589609268</v>
+        <v>12.42350624513136</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>33.08584276495549</v>
+        <v>34.18703887974038</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.37110347012235</v>
+        <v>25.42460478383845</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>32.34641524485211</v>
+        <v>33.95618876309476</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>17.31472404616781</v>
+        <v>7.923270842381937</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>39.07448848949375</v>
+        <v>41.30229628492941</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>48.36053242967019</v>
+        <v>53.02439540200042</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>30.40244732860535</v>
+        <v>24.71174201736279</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>52.1675770040581</v>
+        <v>55.86348313964834</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>52.28332839379527</v>
+        <v>51.46819316640386</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>65.2171746438982</v>
+        <v>66.65228225024104</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>41.19892591184768</v>
+        <v>29.72578984649041</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>40.19001423341074</v>
+        <v>39.34522339131739</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>49.52299628077222</v>
+        <v>50.96176920271513</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>30.86894905289612</v>
+        <v>21.52048923657996</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>54.05620925560829</v>
+        <v>59.20700171362454</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>54.12822338345474</v>
+        <v>52.74886368661217</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>67.5293159595218</v>
+        <v>68.43816048615179</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>42.36524939801332</v>
+        <v>29.04056457313068</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>33.9461574749242</v>
+        <v>37.35837642843893</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>43.11455074209587</v>
+        <v>48.42775490585849</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>26.23772095379183</v>
+        <v>23.25947468998832</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>56.25707288544626</v>
+        <v>61.44951176288417</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>54.91750020799526</v>
+        <v>52.26814139937922</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>68.47981314683202</v>
+        <v>67.23424210754729</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>42.30324317986147</v>
+        <v>30.53885793484881</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>9.552186880266721</v>
+        <v>14.23143553432824</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>14.32961881583079</v>
+        <v>8.733976653764316</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>14.54167027185939</v>
+        <v>11.77049543870319</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>11.2118462208786</v>
+        <v>3.227405677068086</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>5.952655287136459</v>
+        <v>8.111645334260603</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>17.02338674563938</v>
+        <v>19.65722614664796</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>21.07459426668762</v>
+        <v>21.1346997264561</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>23.75607285484264</v>
+        <v>27.56467609341584</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>16.36316257835275</v>
+        <v>12.87590660417842</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>29.61841801854274</v>
+        <v>24.20879194447408</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>19.50705926652858</v>
+        <v>19.45352321073631</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>20.38533691769181</v>
+        <v>18.8710128370873</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>22.17889848693947</v>
+        <v>24.90740057049184</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>12.23180953610176</v>
+        <v>7.274662111959342</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>27.79003593677051</v>
+        <v>23.54292326884982</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>17.25010475718751</v>
+        <v>21.43715493438406</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>15.84989765539901</v>
+        <v>15.20508368578671</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>17.68283238144043</v>
+        <v>20.69941744342846</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>10.51926685328428</v>
+        <v>2.594312455542156</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>20.7608925388541</v>
+        <v>21.78243601781096</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>11.81240046610413</v>
+        <v>2.153456437697656</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>10.96166699299548</v>
+        <v>4.551088683350041</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>7.645003190175981</v>
+        <v>-5.617611388349207</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>19.94854932186846</v>
+        <v>19.56762846355489</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>18.98750022157616</v>
+        <v>12.86590583684557</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>20.9448380426866</v>
+        <v>18.77044490484427</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>13.88220160508251</v>
+        <v>-1.336856376936559</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>25.59280837790168</v>
+        <v>18.56813203600554</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>28.14017566540948</v>
+        <v>25.41438703981337</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>19.81513941638181</v>
+        <v>7.815472740346465</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>39.05309983378954</v>
+        <v>40.1607443499734</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>42.07635931402734</v>
+        <v>38.34865396100231</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>48.11004238038599</v>
+        <v>50.2668767187273</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>33.28017750223829</v>
+        <v>21.14167602909151</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>20.7924481850793</v>
+        <v>14.90437328404826</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>21.84087131997184</v>
+        <v>21.36767970115523</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>14.34470712708678</v>
+        <v>3.259435342109427</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>40.38399872151049</v>
+        <v>41.86411629155919</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>40.62913869146566</v>
+        <v>37.85002299594618</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>46.60419958223601</v>
+        <v>49.94661309962864</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.09859258604529</v>
+        <v>18.90080729674423</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>12.47456288299871</v>
+        <v>9.423756690942593</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>12.83615095449204</v>
+        <v>15.1650405947757</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>9.239337832704251</v>
+        <v>0.2588902450918233</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>36.80559542908756</v>
+        <v>42.57124023135108</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>34.46664706906542</v>
+        <v>34.80859971402406</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>41.35946165286919</v>
+        <v>46.00573642551196</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>23.60144170728329</v>
+        <v>16.91423058347246</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>1.160378076480296</v>
+        <v>-4.127859943377391</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>6.266770140893861</v>
+        <v>-2.972920805173857</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>5.315343691160546</v>
+        <v>-2.967833834724132</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>6.550967406458842</v>
+        <v>-1.12244851971834</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>0.7585099510990254</v>
+        <v>-2.308461321511963</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>5.226309190829692</v>
+        <v>-1.336687574581447</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>9.308045283679082</v>
+        <v>5.825043877670975</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>9.24366729176214</v>
+        <v>8.317074026433952</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>7.320412928873349</v>
+        <v>5.27277048143497</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>6.803389693257248</v>
+        <v>10.19293614378332</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>5.830368493885462</v>
+        <v>-0.2327434477492147</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>11.9923520308102</v>
+        <v>4.992369092279766</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>11.78178804307763</v>
+        <v>7.122443454360178</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>9.273217493665779</v>
+        <v>1.446320780952192</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>6.115182909094216</v>
+        <v>9.773138634888991</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>5.437237947948031</v>
+        <v>2.157482021754888</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>8.345696866220859</v>
+        <v>2.758507774853115</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>7.55833484565003</v>
+        <v>4.990625049826615</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>8.32378713067051</v>
+        <v>-1.32548676165765</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>5.151226291632959</v>
+        <v>8.91858277214838</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>6.203637856422567</v>
+        <v>-4.862382445210375</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>5.269589461458086</v>
+        <v>-4.812194957513128</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>5.404999675158916</v>
+        <v>-8.717023528525086</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>12.31650259803749</v>
+        <v>9.340983518498</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>13.85403631608182</v>
+        <v>4.775443524187256</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>14.85690323404733</v>
+        <v>8.006037914678132</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>11.52010106650628</v>
+        <v>-5.608976390027973</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>8.39574562126927</v>
+        <v>7.325807140159569</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>8.202139082095208</v>
+        <v>11.32627598953588</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>6.774414016675106</v>
+        <v>0.5727232445864985</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>19.80382537304978</v>
+        <v>27.7394654820621</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.40036056709492</v>
+        <v>27.4901272698756</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>32.07852425749687</v>
+        <v>36.15187764669</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>24.80044150441131</v>
+        <v>13.97361931845892</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>6.833255724142504</v>
+        <v>4.109779342498697</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>6.135549338316864</v>
+        <v>7.78359393731505</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>5.519839870145159</v>
+        <v>-3.344405205416937</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>21.07847720363269</v>
+        <v>30.09177236007255</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.72284461043207</v>
+        <v>27.74535912594075</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>31.56755895933518</v>
+        <v>36.58850165962319</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>22.86144543683916</v>
+        <v>12.62476107778867</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>5.435001169322618</v>
+        <v>0.9098777841979278</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>4.831993870636829</v>
+        <v>4.083462540099129</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>5.437175394887348</v>
+        <v>-3.695327275923599</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>23.67625541460494</v>
+        <v>30.5743904592093</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>24.95779613108633</v>
+        <v>25.06488095655821</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>28.5854441708488</v>
+        <v>33.25067105316563</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>19.86505331589475</v>
+        <v>11.44400450725843</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>20.63487796197219</v>
+        <v>23.55425944603507</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>19.70239793816616</v>
+        <v>16.90420564035092</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>21.98221987568612</v>
+        <v>22.50296834924301</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>16.88026537682357</v>
+        <v>11.81259455905474</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>5.629229182955875</v>
+        <v>16.31359448256845</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>33.36726412839272</v>
+        <v>36.48298409179118</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>41.79899757300771</v>
+        <v>39.97354160545255</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>50.03217861152068</v>
+        <v>49.6527597455199</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>36.49910778482335</v>
+        <v>31.75756791398998</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>24.95899913323938</v>
+        <v>37.56583119013872</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>35.9901778404126</v>
+        <v>38.09825246528489</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>42.61165651856496</v>
+        <v>37.88674799907045</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>50.54812176421473</v>
+        <v>47.1066877006285</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>36.08024433799215</v>
+        <v>25.5353188424872</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>27.68114083988398</v>
+        <v>39.51959282686151</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>33.332282782611</v>
+        <v>37.47284051205223</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.56499095369957</v>
+        <v>27.32114901549893</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>33.86904705024565</v>
+        <v>35.33504493278546</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>26.89210451622414</v>
+        <v>14.18637266355553</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>30.07245687605553</v>
+        <v>38.45712281126993</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>11.55889043884196</v>
+        <v>8.805385998413009</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>11.3583057740466</v>
+        <v>12.22858224925195</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>9.027646274145159</v>
+        <v>-0.5555042831012678</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>17.81443895241608</v>
+        <v>23.68868420665975</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>17.1140599538815</v>
+        <v>16.7695404368195</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>17.51944171644602</v>
+        <v>22.02492054018928</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>10.91488624275877</v>
+        <v>3.526419950397981</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>32.4984350262987</v>
+        <v>35.50805900330899</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>38.52186620477916</v>
+        <v>45.1971061254586</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>30.79581617131051</v>
+        <v>24.82593424945802</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>39.73325887826909</v>
+        <v>53.05210868806266</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>50.74073810022659</v>
+        <v>54.08782992511732</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>60.51632818337955</v>
+        <v>66.98916012571569</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>42.72717269801268</v>
+        <v>38.71154302304274</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>34.23238685401456</v>
+        <v>32.3511019474348</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>39.52211619980847</v>
+        <v>41.73587370902499</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>32.33447673963083</v>
+        <v>20.03949153154151</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>44.10833609719994</v>
+        <v>55.84911115557317</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>52.74195384852277</v>
+        <v>52.39464824820773</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>62.17905092389081</v>
+        <v>65.21306975216596</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>43.45060451423483</v>
+        <v>34.30616243828912</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>24.39065181890336</v>
+        <v>20.94430301176679</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.2407132956536</v>
+        <v>28.95589999055121</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>23.5099745754075</v>
+        <v>9.979919786078781</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>49.49968096864356</v>
+        <v>56.35623892018548</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>44.27063025571931</v>
+        <v>44.80617253029084</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>52.20466325429543</v>
+        <v>55.55581064738153</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>32.51347893163556</v>
+        <v>26.43985007072462</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>39.17508958734592</v>
+        <v>42.57653092175308</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>30.05197050912357</v>
+        <v>31.35045262605879</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>35.77162237718247</v>
+        <v>38.76048408819048</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>18.72378543489681</v>
+        <v>17.2782594540966</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>18.85306501308005</v>
+        <v>30.44443928180679</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>46.95771249022481</v>
+        <v>49.41902784918784</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>45.85395372013375</v>
+        <v>45.97866105296667</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>54.88752810127039</v>
+        <v>57.04889606819034</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>36.4867170448549</v>
+        <v>30.06128791738153</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>44.97847967397799</v>
+        <v>48.94543695913521</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>44.91224380905992</v>
+        <v>48.72524356918609</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>41.42053004197948</v>
+        <v>43.64125154848348</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>49.14293899501513</v>
+        <v>54.16256465625217</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>26.9183717322068</v>
+        <v>24.79581695991114</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>43.08353974381611</v>
+        <v>48.1747594491723</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>50.08395155902597</v>
+        <v>51.06456790267519</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>42.02171807582615</v>
+        <v>40.24357675861071</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>50.76222443683484</v>
+        <v>49.93966495918778</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>26.33188718956236</v>
+        <v>19.83434232963121</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>42.96769254440498</v>
+        <v>45.04335369536493</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>23.4065879481902</v>
+        <v>22.62220250006061</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>26.49303805214718</v>
+        <v>28.00695244288293</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>15.1198791441254</v>
+        <v>10.17659932569065</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>36.05090393745345</v>
+        <v>34.63634463643951</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>30.39547699291009</v>
+        <v>25.58874729751841</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>32.66894154676212</v>
+        <v>32.84998002908929</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>18.97788783074518</v>
+        <v>8.088709730136427</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>39.87420445485112</v>
+        <v>41.09227772442244</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>49.57240033195018</v>
+        <v>51.15007750830146</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>31.06183883659396</v>
+        <v>25.61945994318589</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>50.32841246857284</v>
+        <v>56.43975358813381</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>50.35294234808204</v>
+        <v>51.35870470803447</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>61.88097933181427</v>
+        <v>64.83709936629479</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>39.72658475368924</v>
+        <v>30.64763634202249</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>39.37490149741948</v>
+        <v>37.23861707621469</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>47.51530266773656</v>
+        <v>46.81685187757137</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>30.2187839565511</v>
+        <v>20.94164764147239</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>49.21727444635339</v>
+        <v>57.7390054893648</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>50.24981234461489</v>
+        <v>50.23732881485928</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>60.0290761171899</v>
+        <v>63.75283622304866</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>39.03858099382809</v>
+        <v>27.83291770639733</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>32.91217489945915</v>
+        <v>30.71658062711548</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>39.99773208655883</v>
+        <v>39.36341215748686</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>28.05858279492505</v>
+        <v>16.97354112056943</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>55.40644265121404</v>
+        <v>58.12963859895414</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>50.06622033442909</v>
+        <v>47.55444089050224</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>58.471520292913</v>
+        <v>59.86069727875453</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>38.06237603822882</v>
+        <v>26.3626721363334</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>43.32981351729424</v>
+        <v>41.22622839899004</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>24.16234072792357</v>
+        <v>21.1238105510959</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.54583218626653</v>
+        <v>29.26953739660157</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>16.77053492688383</v>
+        <v>5.706216862144267</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>20.94663154021414</v>
+        <v>35.61428213143031</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>47.8393053942101</v>
+        <v>51.40775128017414</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>40.23741760495714</v>
+        <v>41.73728542786401</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>48.58050249956155</v>
+        <v>54.02125123347068</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>28.21500716244829</v>
+        <v>21.85718454874934</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>43.61560817289219</v>
+        <v>54.46258971221081</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>49.14137847197959</v>
+        <v>51.22467662601458</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>38.4364530987592</v>
+        <v>38.07780848484326</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>46.01453955288775</v>
+        <v>49.87812610330309</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>21.4843171797183</v>
+        <v>13.60464740079832</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>43.94570788029364</v>
+        <v>55.25197030991377</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>50.73055698998174</v>
+        <v>55.49997417234201</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>32.98410385179331</v>
+        <v>31.80110967082981</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>39.71536373993283</v>
+        <v>42.61025300936902</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>16.32528316446556</v>
+        <v>6.565324763936193</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>45.75475755978418</v>
+        <v>56.8058721876381</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>24.31499455326666</v>
+        <v>23.7866360050143</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>26.82587428434353</v>
+        <v>30.15101423882137</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>16.49613077196719</v>
+        <v>9.899602332417306</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>33.90945817925882</v>
+        <v>38.00204688393412</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>31.18873972627701</v>
+        <v>26.30055601663368</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>33.60651679815228</v>
+        <v>33.72306540066583</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>20.32802766433057</v>
+        <v>9.109380948882325</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>41.72937568288316</v>
+        <v>47.83151227986443</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>51.30420519417653</v>
+        <v>60.47871675414879</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>33.56987757912741</v>
+        <v>32.05749177240419</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>49.17885322027115</v>
+        <v>62.22894945485659</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>50.60826379605139</v>
+        <v>58.28313308148516</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>62.3139469038569</v>
+        <v>73.34728655240215</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>39.63437076651967</v>
+        <v>38.77799031341588</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>39.25979660982802</v>
+        <v>43.5359359143482</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>48.13595877387397</v>
+        <v>55.95280710677119</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.59476349532893</v>
+        <v>25.8705040092998</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>51.81991680742205</v>
+        <v>63.69093390309116</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>50.82443002598127</v>
+        <v>55.35974279393545</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>62.36096259947972</v>
+        <v>70.43797265482033</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>38.77402064297404</v>
+        <v>33.01519224404804</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>33.9711596854175</v>
+        <v>34.94811531061272</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>42.77102726990093</v>
+        <v>46.30226183803504</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>27.29692248916219</v>
+        <v>18.874359919325</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>54.72566222547573</v>
+        <v>68.0796540228506</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>50.61078084384674</v>
+        <v>51.91143282882602</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>61.60890771456906</v>
+        <v>65.23277187208258</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>37.61486668560447</v>
+        <v>29.23528601175997</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>42.21179742877084</v>
+        <v>41.74650478004827</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>20.6127498583122</v>
+        <v>21.6844503410046</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>24.06361615451854</v>
+        <v>27.82244466000227</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>12.42026080188983</v>
+        <v>9.715694035043587</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>42.95850588197369</v>
+        <v>49.60858066610761</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>53.41890483863493</v>
+        <v>53.21766702871403</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>37.78304708075431</v>
+        <v>42.92622661187037</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>45.37909335032204</v>
+        <v>52.64214854382809</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>23.53532084995261</v>
+        <v>27.30471160048641</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>63.85320993084226</v>
+        <v>67.00897298075674</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>56.11266289282048</v>
+        <v>56.00976098166045</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>39.05178468155403</v>
+        <v>42.076671091742</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>47.11108188861086</v>
+        <v>51.48425531879558</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>21.70605636463215</v>
+        <v>22.15933830438903</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>64.40875514309749</v>
+        <v>69.39784280826971</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>58.04484405684923</v>
+        <v>59.78957449332503</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>33.58441593000659</v>
+        <v>35.77349802175518</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>41.46067562220303</v>
+        <v>44.74353391025212</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>17.52432535871262</v>
+        <v>14.90619345545166</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>65.6539597486755</v>
+        <v>71.51818645972813</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>28.58779564882412</v>
+        <v>27.51723351196651</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.83367854992608</v>
+        <v>31.88234666219465</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>21.36449803012681</v>
+        <v>15.35297626420181</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>53.24915114601235</v>
+        <v>51.64547231896931</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>34.67581339214717</v>
+        <v>31.9419565775401</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>36.39974219588416</v>
+        <v>37.41819014797025</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>25.75480341280668</v>
+        <v>16.34539716886248</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>43.52618396890017</v>
+        <v>49.64775002961991</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>51.45408710167453</v>
+        <v>59.87497915340228</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>36.6514909690891</v>
+        <v>36.41877300199337</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>69.40787734138733</v>
+        <v>75.42292606525579</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>56.12706616116876</v>
+        <v>63.03468292273327</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>65.97127827555019</v>
+        <v>75.60150405452691</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>47.6611829322881</v>
+        <v>45.48641333282394</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>42.6408583338397</v>
+        <v>47.00911998832122</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>50.49582854507238</v>
+        <v>57.12004498115454</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>34.81631738162407</v>
+        <v>31.9895038379656</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>71.46411341906577</v>
+        <v>78.40713544353524</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>56.2471748795673</v>
+        <v>61.54208762893599</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>65.8269355425907</v>
+        <v>74.1026785055091</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>46.31129050282188</v>
+        <v>41.19743412319959</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>39.3708556876694</v>
+        <v>39.71446072817739</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>47.63900852719507</v>
+        <v>49.11106077073816</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>33.47343266377044</v>
+        <v>25.73061368383944</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>73.86739551326835</v>
+        <v>82.70351528618782</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>56.4776299580547</v>
+        <v>58.24309606454732</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>66.32251740508929</v>
+        <v>69.34338435580278</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>45.3249354134167</v>
+        <v>37.3791844545506</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>27.94519130204036</v>
+        <v>28.44959053535276</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>19.5322286923565</v>
+        <v>20.14070813537544</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>23.4519559092292</v>
+        <v>27.30961237044765</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>11.13396867020225</v>
+        <v>7.831433417828858</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>14.90933710845091</v>
+        <v>22.50147778492401</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>46.94906805905698</v>
+        <v>43.52742066729998</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>45.05425100723041</v>
+        <v>43.50676456857386</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>56.07779310228099</v>
+        <v>55.39942622915257</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>34.1829165320132</v>
+        <v>27.94272054466813</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>43.72459090872774</v>
+        <v>46.81870590533151</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>44.04659634362581</v>
+        <v>43.96900404913406</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>39.90199543660848</v>
+        <v>41.27281618713587</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>48.83740779992537</v>
+        <v>52.63752388206177</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>23.46787416394903</v>
+        <v>21.81460262429023</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>45.14658808825276</v>
+        <v>47.14831163733741</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>39.112464654635</v>
+        <v>40.84136016683964</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>36.78148555207621</v>
+        <v>31.33541403880534</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>43.23669160814546</v>
+        <v>40.86317119227775</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>23.39591893951871</v>
+        <v>10.83310414917434</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>40.59900057045548</v>
+        <v>39.92098560689857</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>20.446667050473</v>
+        <v>12.76342441957215</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>22.57539591136841</v>
+        <v>18.04579934681617</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>12.92112595185353</v>
+        <v>-0.9744443812840515</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>25.71012372592289</v>
+        <v>29.28552693581195</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>26.07864266609936</v>
+        <v>19.13904401587772</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>27.51415397750401</v>
+        <v>25.70709801113463</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>16.56859186531567</v>
+        <v>1.405056684344082</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>39.01733667139356</v>
+        <v>37.95573646627292</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>49.10415234890905</v>
+        <v>49.03815264111277</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>30.94045692203004</v>
+        <v>20.87104248964787</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>49.57219604332484</v>
+        <v>57.51882413568758</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>50.06670003418609</v>
+        <v>51.95099900224676</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>62.09977679648783</v>
+        <v>65.78344875050595</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>39.17432284568069</v>
+        <v>30.61143810418534</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>38.56881449621624</v>
+        <v>34.18958097163247</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>47.21829654355666</v>
+        <v>44.87701647459771</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>29.73477165181446</v>
+        <v>15.72324479766323</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>51.93925074532369</v>
+        <v>59.25138343012132</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>51.46895815226127</v>
+        <v>50.36068692699868</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>61.91695325656956</v>
+        <v>64.27454718233186</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>40.53109484760347</v>
+        <v>26.73276123154971</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.04938689006475</v>
+        <v>21.69691420528641</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>34.65095355368107</v>
+        <v>30.79100521535486</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>21.61624492462531</v>
+        <v>5.846958232188047</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>51.11362557575359</v>
+        <v>56.34918954760727</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>47.73649205026597</v>
+        <v>43.25144624442147</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>54.95371655122875</v>
+        <v>55.30014184193787</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>37.24926144058431</v>
+        <v>20.71406489488944</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>12.32475688025852</v>
+        <v>13.37772212978362</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>14.23128310533158</v>
+        <v>3.980731933478582</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>14.90178200144163</v>
+        <v>7.751477267052749</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>10.99748399198352</v>
+        <v>-4.344752317907002</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>10.67752131722718</v>
+        <v>19.46193812691709</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>18.68447256883031</v>
+        <v>24.26772051977687</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>23.23808505601957</v>
+        <v>22.96869219609917</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>25.84802702321361</v>
+        <v>30.13744855905022</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>17.43560559712106</v>
+        <v>11.413257553351</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>43.40683733722002</v>
+        <v>41.94715009291555</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>16.95562118566317</v>
+        <v>25.21937640149367</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>21.25019921754233</v>
+        <v>20.79637099634037</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>22.79718845513283</v>
+        <v>27.43752542551273</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>14.89788242529956</v>
+        <v>5.700665686795395</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>40.39080098229444</v>
+        <v>43.06506602948278</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>19.39015550124389</v>
+        <v>26.29173504018146</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>19.31504520830753</v>
+        <v>13.51681288026637</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>21.10986358694285</v>
+        <v>19.10178169836278</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>13.9856032595751</v>
+        <v>-2.427690220361935</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>43.09599870537713</v>
+        <v>42.90048815020991</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>15.87910431124077</v>
+        <v>11.5395970805416</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>16.19773118464254</v>
+        <v>14.43960091301807</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>10.58524555185343</v>
+        <v>1.238093083703628</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>14.9704224897586</v>
+        <v>21.26777261003796</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>15.61581910741803</v>
+        <v>12.82146332854388</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>16.24819286814578</v>
+        <v>16.81624044525796</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>11.13472063793654</v>
+        <v>-1.174651095145389</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>37.02308102814833</v>
+        <v>37.58100697052144</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>44.7172726330086</v>
+        <v>45.7850477277657</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>28.76408472273607</v>
+        <v>25.363330997079</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>50.14046142654296</v>
+        <v>54.24022236852849</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>49.93912285371262</v>
+        <v>52.47603838777286</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>60.13902233903277</v>
+        <v>63.34103673162147</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>40.19135384337991</v>
+        <v>35.84970585334585</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>34.43318836948258</v>
+        <v>34.26935884106174</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>39.21137717427617</v>
+        <v>41.99125883941831</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>26.60859701467252</v>
+        <v>20.698468211297</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>50.47996101481504</v>
+        <v>57.12108963983216</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>47.39805903975897</v>
+        <v>51.67090258822016</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>54.87817452834328</v>
+        <v>62.32559394216702</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>36.01141418749292</v>
+        <v>32.64397495120244</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>31.26098516284952</v>
+        <v>25.44599785765443</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>34.99260911256605</v>
+        <v>31.75914577139918</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>24.19484452662516</v>
+        <v>12.82983757287694</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>55.2782014553287</v>
+        <v>53.95160327074154</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>41.62006257939925</v>
+        <v>41.41705734680336</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>44.9948475117199</v>
+        <v>49.6357758523546</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>26.90083873037682</v>
+        <v>21.96595807339237</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>13.36692656571695</v>
+        <v>21.04433061376362</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>12.91017004690304</v>
+        <v>9.105956763858359</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>12.96433568546502</v>
+        <v>13.91087109770255</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>10.92370942708088</v>
+        <v>0.7054420501231817</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>14.52241555998576</v>
+        <v>28.62721969573285</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>29.65309428949461</v>
+        <v>32.63145294487153</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>31.94714063321937</v>
+        <v>30.39630741604207</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>36.73918651126525</v>
+        <v>38.74474623820805</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>24.68945948427893</v>
+        <v>18.71262153101742</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>39.9763939421898</v>
+        <v>46.76829691780028</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>37.59516541481437</v>
+        <v>37.15793350880605</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>35.88647823375929</v>
+        <v>30.96697257550383</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>41.89270942656728</v>
+        <v>39.08129068095131</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>25.89928712107991</v>
+        <v>15.04843164100827</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>43.59341402719308</v>
+        <v>50.37302121870292</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>35.13792706988882</v>
+        <v>41.05379923810152</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>29.23744083304286</v>
+        <v>24.96911029497278</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>34.56327659800414</v>
+        <v>32.55908331995845</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>22.25435696606265</v>
+        <v>8.189735328227883</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>41.87470450566241</v>
+        <v>52.2129699920857</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>18.40637773547129</v>
+        <v>13.47414513006134</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>17.53927716365171</v>
+        <v>16.23701931805343</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>10.18045553838535</v>
+        <v>2.675104935449886</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>19.39584996557543</v>
+        <v>26.79813818347883</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>17.39160426477487</v>
+        <v>13.54113930941666</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>16.47306294928013</v>
+        <v>17.59774278799467</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>8.543868829719614</v>
+        <v>-0.7237890783020298</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>35.80160800550636</v>
+        <v>36.58683488462452</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>41.66061172197353</v>
+        <v>45.10085302977386</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>28.03220129635063</v>
+        <v>24.97849297179707</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>44.72865445806329</v>
+        <v>52.65154874140218</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>46.23122462670705</v>
+        <v>46.73972438094684</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>53.56791428624477</v>
+        <v>57.7959147364339</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>36.23351164830378</v>
+        <v>30.66763647697264</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>37.20440915472125</v>
+        <v>34.920818356023</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>43.1980052179221</v>
+        <v>43.33804140269511</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>28.38429523856164</v>
+        <v>21.52240780376375</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>50.0391445444196</v>
+        <v>56.84722325709558</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>47.29097270003169</v>
+        <v>46.18307223868696</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>54.62233783661226</v>
+        <v>57.23132661074055</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>35.23622676748894</v>
+        <v>27.28075593043383</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>33.64592036145959</v>
+        <v>27.06756851590974</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>39.34952868222908</v>
+        <v>34.70989511057036</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>26.9011850122195</v>
+        <v>14.53540522081085</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>47.20004563327495</v>
+        <v>59.7241060279777</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>42.58259461077536</v>
+        <v>41.3819127750089</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>49.03950169720318</v>
+        <v>50.86198137161858</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>29.50651918548487</v>
+        <v>21.87095909983283</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>46.15692478556277</v>
+        <v>48.53685566817791</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>25.36262307680198</v>
+        <v>28.61324113338734</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>30.91490913107836</v>
+        <v>35.69761332228123</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>20.26985457469095</v>
+        <v>13.97809495529967</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>24.0685893626629</v>
+        <v>37.34173115838884</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>47.45879305930886</v>
+        <v>55.52012622287747</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>40.82064250145241</v>
+        <v>44.7886009912235</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>48.52431992485565</v>
+        <v>55.45984649903038</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>30.95587988725067</v>
+        <v>26.2762262996412</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>41.3295787685233</v>
+        <v>53.07107465163058</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>48.61242040956552</v>
+        <v>54.25068976267895</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>40.8828640983032</v>
+        <v>40.54107375026946</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>47.28099621434512</v>
+        <v>50.58911903013895</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>22.7389076986354</v>
+        <v>17.85720804642323</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>43.84620681677791</v>
+        <v>54.14316111773992</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>52.8701889562636</v>
+        <v>56.97881757786323</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>36.94560107685313</v>
+        <v>34.49836527804436</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>42.88746720424518</v>
+        <v>43.63983708034564</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>17.43467989510779</v>
+        <v>10.3369491459289</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>44.69350328605555</v>
+        <v>56.21427148817006</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>28.23344649479684</v>
+        <v>24.16240959305242</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>32.30743226754362</v>
+        <v>29.96169486632609</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>21.81607442295424</v>
+        <v>12.39413123137716</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>34.83801497936631</v>
+        <v>37.61208798347505</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>31.95462214047251</v>
+        <v>27.44638274385848</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>34.85315741401423</v>
+        <v>34.30379534282107</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>21.10988093900951</v>
+        <v>11.55152726488949</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>39.3716636802333</v>
+        <v>42.84985723093484</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>48.92834080567289</v>
+        <v>53.78812884777079</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>31.10732807018731</v>
+        <v>28.78988910716922</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>51.69676398305005</v>
+        <v>60.68410637167389</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>49.53404810015126</v>
+        <v>55.89820638354692</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>61.60104910376101</v>
+        <v>69.39814631500612</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>39.23275094562818</v>
+        <v>37.36635835669429</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>39.67180957527263</v>
+        <v>39.68466573677133</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>48.42031669992691</v>
+        <v>50.29427865626266</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>29.90465741645838</v>
+        <v>24.0053307512999</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>53.34297232226577</v>
+        <v>63.89428568483886</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>50.76254254378117</v>
+        <v>55.40979961765734</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>62.38232643729439</v>
+        <v>68.97326055158882</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>39.14306668326483</v>
+        <v>34.43023247855999</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>37.12741237056088</v>
+        <v>34.62757963386314</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>46.53337756319603</v>
+        <v>44.39380969305335</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>28.36948590310605</v>
+        <v>20.33169339894616</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>54.03090654372437</v>
+        <v>66.45110426420827</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>47.23971064266872</v>
+        <v>52.57925595617738</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>57.73751212934604</v>
+        <v>64.6525348719649</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>32.60797080966567</v>
+        <v>31.59898537233214</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>21.24555466207169</v>
+        <v>26.38703356287336</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>17.9838910174788</v>
+        <v>14.752851631892</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>20.54704502360482</v>
+        <v>21.60046541486092</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>10.6723941296623</v>
+        <v>2.703538877917381</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>20.02642062925527</v>
+        <v>25.86706686084624</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>47.06731461306282</v>
+        <v>45.20343251977243</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>43.57315548542134</v>
+        <v>41.88772332034921</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>54.58733073845707</v>
+        <v>53.28062074983765</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>33.54071267168977</v>
+        <v>26.45000625004154</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>42.12838049686943</v>
+        <v>51.1728169508356</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>46.66793690529704</v>
+        <v>46.31973936546851</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>38.90742479709195</v>
+        <v>40.20893013854987</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>48.27941887350129</v>
+        <v>51.13209712444421</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>23.43963116555653</v>
+        <v>20.79488302116512</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>44.38472660644369</v>
+        <v>51.77407265414155</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>41.3328235957352</v>
+        <v>41.60935393306519</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>35.16715050097596</v>
+        <v>28.10340287233544</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>42.32853183699243</v>
+        <v>37.42966596300428</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>21.13602689985113</v>
+        <v>7.700535038111951</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>41.1122162768611</v>
+        <v>44.93313776574401</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>23.9680903646158</v>
+        <v>16.9919665494598</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>26.6051158974507</v>
+        <v>22.71630305001791</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>18.00676844849227</v>
+        <v>4.506053667025874</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>24.06526186981358</v>
+        <v>27.89216410863027</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>24.97668729027736</v>
+        <v>17.13911841722591</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>26.14036923199922</v>
+        <v>23.21916348592591</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>15.31835779064639</v>
+        <v>0.389422590517654</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>39.0816612707882</v>
+        <v>43.51156802114879</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>49.27065777102284</v>
+        <v>54.9500217564771</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>30.7006391751089</v>
+        <v>27.81688096432867</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>52.45404952412194</v>
+        <v>57.93873465155869</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>48.9377739236485</v>
+        <v>51.75783315433969</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>60.77525644246555</v>
+        <v>65.08005597148103</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>37.39688095919387</v>
+        <v>31.42601122262267</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>39.80900758008083</v>
+        <v>39.93943734788522</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>48.95420495749671</v>
+        <v>51.02592938151044</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>29.6179322185568</v>
+        <v>22.80291924709401</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>53.772948823123</v>
+        <v>59.57239192060749</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>48.88517403110256</v>
+        <v>49.9650970529697</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>58.64546305327559</v>
+        <v>63.35917458140527</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>36.57649570225485</v>
+        <v>27.30283497689165</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>33.69809240925413</v>
+        <v>27.58367418698611</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>40.83175938443239</v>
+        <v>37.32406097576823</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>26.6136865316027</v>
+        <v>13.09385971153056</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>50.31339373445324</v>
+        <v>54.71922483092679</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>42.98992488061942</v>
+        <v>40.74840988863644</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>48.25063898043827</v>
+        <v>52.2208491777431</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>30.24943042821398</v>
+        <v>19.24998301937094</v>
       </c>
     </row>
   </sheetData>
